--- a/ground_truth/manually_labelled_ground_truth.xlsx
+++ b/ground_truth/manually_labelled_ground_truth.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1363">
   <si>
     <t>uid</t>
   </si>
@@ -4086,6 +4086,311 @@
   <si>
     <t>pommes* (70%), banane* (30%)
 *Ingrédient issu de l’agriculture biologique</t>
+  </si>
+  <si>
+    <t>Carottes, eau, sucre, sel, vinaigre d’alcool, acidifiant : acide lactique. Présence fortuite de CELERI</t>
+  </si>
+  <si>
+    <t>eau, purée de tomates double concentrée* (24,6%), sucre, vinaigre d'alcool, amidon modifié de maïs, sel, correcteur d'acidité (acide citrique), conservateurs (benzoate de sodium et sorbate de potassium), épices, extrait de levure, arômes naturels.
+*tomates issues de l'agriculture durable.</t>
+  </si>
+  <si>
+    <t>Cerises noires 65%, sucre, gélifiant : pectine. Traces de beurre.</t>
+  </si>
+  <si>
+    <t>Maltodextrine, édulcorant : sucralose (1,23%).</t>
+  </si>
+  <si>
+    <t>Amidon (maïs, pomme de terre), légumes (tomate**: 34%, oignon), sel, sucre, maltodextrine, extrait de levure, huile d’olive vierge extra, jus de betterave concentré, aromates (ail, basilic), arômes.
+** Tomates issues de l’agriculture durable</t>
+  </si>
+  <si>
+    <t>Sucre, lait écrémé en poudre, sirop de glucose, graisse végétale entièrement hydrogénée (coco), café instantané (4 %), poudre de cacao fortement dégraissé (3 %), stabilisateur (E340, E452), protéine de lait, sel, lactose (lait), anti-agglomérant (E341), arôme, émulsifiant (E471).</t>
+  </si>
+  <si>
+    <t>100% Huile de tournesol raffinée</t>
+  </si>
+  <si>
+    <t>Purée de pomme* (83%), purée de banane* (16%), antioxydant: acide ascorbique.
+*Produits issus de l'agriculture biologique</t>
+  </si>
+  <si>
+    <t>Pommes 74%, pruneaux 15%, sucre, antioxydant: acide ascorbique.</t>
+  </si>
+  <si>
+    <t>eau, colorants (E 102, E 131), correcteur d'acidité (E 330), conservateur (E 211)</t>
+  </si>
+  <si>
+    <t>- Farine de blé T65*
+- Sucre de canne blond non raffiné*
+- Beurre doux de baratte* (26,6 %)
+- OEufs frais entiers*
+- Jaunes d’oeufs sucrés*
+- Sel marin gris de Guérande
+- Poudres à lever (phosphates de calcium, carbonates de sodium, carbonates d’ammonium)
+* Ingrédients issus de l’Agriculture Biologique.</t>
+  </si>
+  <si>
+    <t>Lait écrémé 59.5%, lait en poudre reconstitué 20.5%, sucre, crème, semoule de blé, poudre de lait, extrait aromatique rhum orange (rhum, infusion d'écorces d'oranges douces, alcool), épaississant : alginate de sodium, rhum, correcteur d’acidité : citrate de sodium.</t>
+  </si>
+  <si>
+    <t>Sucre, farine de FROMENT, poudre d'OEUFS entiers, amidon de FROMENT, poudre de LAIT fermenté, poudre à lever : (E500, E341, E450), amidon modifié, émulsifiants : (E472e, E472a, E472b), sel, poudre de LAIT écrémé, arôme.</t>
+  </si>
+  <si>
+    <t>Jus de pomme à base de concentré 99.5%, gaz carbonique, antioxydant: acide ascorbique.</t>
+  </si>
+  <si>
+    <t>NOISETTES entières décortiquées.</t>
+  </si>
+  <si>
+    <t>eau gazéifiée, saccharose, glucose, correcteurs d'acidité (citrates de sodium, carbonate de magnésium), acidifiant (acide citrique), taurine (0,4%), caféine (0,021%), inositol, vitamines (niacine, acide pantothénique, B6,B12), arômes, colorants (caramel, riboflavine)</t>
+  </si>
+  <si>
+    <t>pommes* (80%), framboises* (20%)
+*Ingrédient issu de l’agriculture biologique</t>
+  </si>
+  <si>
+    <t>Salsifis, eau, sel, acidifiant : acide citrique (E330), antioxydant : acide ascorbique (E300).</t>
+  </si>
+  <si>
+    <t>Graine de courge, canneberge, graine de tournesol, graine de moutarde</t>
+  </si>
+  <si>
+    <t>Purée de pommes** 74,2%, purée de fraises** 25%, jus concentré de carotte pourpre**, antioxydant : acide ascorbique. 
+**Ingrédients issus de l'agriculture biologique.
+Recette élaborée à partir de pommes produites et récoltées dans un Etat membre de l'Union Européenne</t>
+  </si>
+  <si>
+    <t>semoule de blé dur de grains entiers issu de l'agriculture biologique
+Peut contenir des traces d'oeufs ,soja</t>
+  </si>
+  <si>
+    <t>gélatine alimentaire bovine, catégorie B (contient SULFITES)</t>
+  </si>
+  <si>
+    <t>eau gazéifiée, saccharose, glucose, correcteur d'acidité: citrates de sodium, taurine (0,4%), glucuronolactone (0,24%), cafeine (0,03%), inositol, vitamines (niacine, acide pantothénique, B6,B2,B12), arômes, colorant: caramel</t>
+  </si>
+  <si>
+    <t>fèves de cacao du Ghana. Présence possible de fruits à coque et protéines de soja.</t>
+  </si>
+  <si>
+    <t>Graines de sésame 37%, chocolat de couverture 25% (sucre, pâte de cacao, beurre de cacao, émulsifiant : lécithines de soja, E476, arôme), sirop de glucose, sucre.
+Fabriqué dans un atelier qui utilise de l’arachide, des fruits à coque et du lait.</t>
+  </si>
+  <si>
+    <t>Poivre de la Likouala</t>
+  </si>
+  <si>
+    <t>Eau, légumes 43% (carottes 32,3%, pommes de terre, oignons), babeurre, crème fraîche 1%, amidon modifié de maïs, sel.</t>
+  </si>
+  <si>
+    <t>100% tourteau de cacao maigre
+Peut contenir des traces d'arachide et de lait</t>
+  </si>
+  <si>
+    <t>Poivre Voatsiperifery, poivre noir, poivre Cubèbe, baie Timur,
+poivre rouge, baie de la Jamaïque</t>
+  </si>
+  <si>
+    <t>Huile de tournesol, huile de tournesol hautement oléique, huile de pépins de raisins, antimoussant E-900</t>
+  </si>
+  <si>
+    <t>Huile de colza, eau, sucre, jaune d'oeuf, vinaigre, sel, moutarde de Dijon (eau, graines de moutarde, vinaigre, sel, antioxydant : disulfite de potassium, acidifiant : acide citrique), cornichons (cornichons, eau, vinaigre, sel), câpres (câpres, eau, vinaigre, sel), amidon modifié, cerfeuil, oignons, épaississants : gomme de guar et gomme de xanthane, acidifiant : acide lactique, conservateurs : E202-E211</t>
+  </si>
+  <si>
+    <t>Etui 400 g
+100 % semoule de blé dur complète* (gluten)
+* Ingrédient issu de l’Agriculture Biologique.
+Traces possibles d’oeuf.
+Sac 5 kg
+100 % semoule de blé dur complète* (gluten)
+* Ingrédient issu de l’Agriculture Biologique
+Traces possibles de soja
+Sac 25 kg / BB 1 T
+100 % semoule de blé dur complète* (gluten)
+* Ingrédient issu de l’Agriculture Biologique.</t>
+  </si>
+  <si>
+    <t>Potiron 49%, graisse de palme, amidon de pomme de terre, pomme de terre 7,7%, sel, arômes (dont BLÉ, ORGE), huile de maïs, sucre, LACTOSE, oignon grillé 1,9%, extrait de levure, maltodextrine, protéines de LAIT, épices (poivre, noix de muscade). Peut contenir : oeuf, céleri et moutarde.</t>
+  </si>
+  <si>
+    <t>Pommes de terre, eau, sel.</t>
+  </si>
+  <si>
+    <t>huile de colza, eau, vinaigre de vin rouge 20.9 % (vinaigre de vin, conservateur : sulfite acide de sodium), sel, poivre, épaississant : gomme xanthane.</t>
+  </si>
+  <si>
+    <t>farine de blé - sucre - graisse végétale (palme, palmiste) - blanc d'oeuf en poudre - sel - émulsifiant: lécithine de soja - arôme .
+Peut contenir des traces d'amandes, de noix de pécan, d'autres fruits à coque, d'avoine, d'orge, d'autre glutens et de lait .</t>
+  </si>
+  <si>
+    <t>Farine d’épeautre et eau.</t>
+  </si>
+  <si>
+    <t>Vinaigre de vin rouge au jus d’échalote 7% d’acidité
+Vinaigre de vin rouge (sulfites), jus d’échalote (0.5%), arôme*, conservateur: sulfite acide de sodium
+Vinaigre de vin rouge aromatisé à l’échalote 7% d’acidité
+Vinaigre de vin rouge (sulfites), arômes échalote (1%), conservateur: sulfite acide de sodium</t>
+  </si>
+  <si>
+    <t>Café instantané, café torrefié moulu (3%).</t>
+  </si>
+  <si>
+    <t>sucre, pâte de cacao, beurre de cacao, cacao maigre en poudre, émulsifiant: lécithine de tournesol ( E322), arôme vanille
+cacao : 50% minimum</t>
+  </si>
+  <si>
+    <t>Mélange de légumes 46% (carottes, maïs doux en grains, pois doux, CELERI RAVE, poivrons rouges), eau, riz 6%, sucre, sel, vinaigre d'alcool, acidifiant : acide lactique, arôme naturel.</t>
+  </si>
+  <si>
+    <t>Jus de pamplemousse rose à base de concentré, vitamine C.</t>
+  </si>
+  <si>
+    <t>FLOCON D’EPEAUTRE 23 %, graines de tournesol, graines de lin, SON D’AVOINE, graines de courge 11%, SON DE BLE, SON D’EPEAUTRE 7%, FARINE D’EPEAUTRE COMPLET 2 %, eau, sel. Peut contenir des traces de SESAME et SOJA.</t>
+  </si>
+  <si>
+    <t>Curcuma*, Coriandre*, Amidon de pomme de terre*, Graines de moutarde*, Fenugrec*, Oignon déshydraté*, Cardamome*, Sel de mer, Anis*, Gingembre*, Fenouil*, Clou de girofle*, Ail déshydraté*, Piment de la Jamaïque*, Cannelle*, Sarriette*, Origan*, Thym*, Romarin*, Basilic*.
+* Ingrédients issus de l'agliculture biologique.</t>
+  </si>
+  <si>
+    <t>Farine de BLÉ - Sucre - Huile de colza - OEUFS - Huiles et graisses végétales (tournesol, karité, coprah) - Chocolat 5,5% (sucre, pâte de cacao, LAIT entier en poudre, cacao maigre en poudre, émulsifiant : lécithines de tournesol, arôme naturel de vanille) - Sirop de glucose - Stabilisant : sorbitols - LAIT écrémé en poudre - LACTOSE - Poudres à lever : diphosphates et carbonates de sodium - Pâte de NOISETTE 0,8% - Arômes - Sel - Emulsifiant : lécithines de tournesol - Acidifiant : acide citrique - Conservateur : sorbate de potassium</t>
+  </si>
+  <si>
+    <t>Eau, sucre, Sauce de SOJA(eau, SOJA dégraissé, BLE, sirop de MAÏS à haute teneur en fructose, vinaigre de riz et manioc fermenté, extrait de levure, sucralose) sirop de MAÏS à haute teneur en fructose, ail, sel, gingembre, SESAME, poivre noir, gomme de xanthane, huile de SESAME, caramel, 5'ribonucléottide isodique, sodium benzoate.</t>
+  </si>
+  <si>
+    <t>Chocolat au lait (sucre, beurre de cacao, LAIT entier en poudre, pâte de cacao, lactose (LAIT), lactosérum en poudre (LAIT), émulsifiant : lécithine de SOJA), praliné amandes 32% (sucre, AMANDES), graisses végétales (palme et palmiste), pâte de cacao, sucre, arôme naturel de vanille avec autres arômes naturels, beurre concentré (LAIT), beurre de cacao, émulsifiant : lécithine de SOJA, cacao maigre en poudre.
+Présence possible d'arachide, noisette, noix, noix de cajou, noix de pécan, pistache, gluten et oeuf.
+Chocolat au lait à 31% de cacao minimum</t>
+  </si>
+  <si>
+    <t>HAPPY CHERRY
+sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique; arôme; concentrés de fruits et de plantes: carthame, pomme, spiruline; colorant: anthocyanes; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba; sirop de sucre inverti.
+WORMS
+sirop de glucose; sucre; gélatine; acidifiant: acide citrique; arôme; concentrés de fruits et de plantes: carthame, spiruline, pomme, kiwi, carotte, hibiscus, cassis, baie de sureau, aronie, raisin, orange, citron, mangue, fruit de la passion; extrait de baie de sureau; sirop de caramel; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba.
+OEUF AU PLAT
+sucre; sirop de glucose; dextrose; gélatine; acidifiant: acide citrique; arôme; colorants: carotènes végétaux, anthocyanes; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba.
+L'OURS D'OR
+sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique; jus de fruits concentrés: pomme, orange, citron, fraise, framboise, ananas; arôme; concentrés de fruits et de plantes: carthame, spiruline, pomme, kiwi, orange, baie de sureau, citron, mangue, fruit de la passion, cassis, aronie, raisin; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba.
+HAPPY COLA
+sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique; sirop de caramel; arôme; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba.
+CROCO
+sirop de glucose; sucre; dextrose; gélatine; acidifiant: acide citrique; concentrés de fruits et de plantes: carthame, spiruline, pomme; sirop de sucre inverti; arôme; colorants: carotènes végétaux, lutéine, anthocyanes; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba.
+RAINBOW PIK
+sucre; sirop de glucose; amidon de maïs; humectant: sorbitols; farine de blé; dextrose; amidon de blé; graisse de palme; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate tricalcique, malate acide de sodium, citrate trisodique; agent d'enrobage: cire de carnauba; gélatine; émulsifiant: mono- et diglycérides d'acides gras; arôme; concentrés de fruits et de plantes: patate douce, pomme, cassis, radis; colorants: curcumine, bleu patenté V, lutéine.
+MIAMI PIK
+sucre; sirop de glucose; amidon de maïs; humectant: sirop de sorbitol; farine de blé; eau; acidifiants: acide citrique, acide malique; agent d'enrobage: cire de carnauba; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; émulsifiant: mono- et diglycérides d'acides gras; arôme; concentrés de fruits et de plantes: cassis, baie de sureau, aronie, raisin; extrait de baie de sureau; colorants: curcumine, bleu patenté V.
+LANGUE ACIDE PIK
+sirop de glucose; sucre; amidons transformés; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; agent d'enrobage: cire de carnauba; arôme; concentrés de fruits et de plantes: carthame, citron; colorants: carmins, bleu patenté V, lutéine; sirop de sucre inverti.
+CROCO PIK
+sirop de glucose; sucre; gélatine; dextrose; acidifiants: acide citrique, acide malique; agent d'enrobage: cire de carnauba; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; arôme; concentrés de fruits et de plantes: citron, carthame; sirop de sucre inverti; colorants: bleu patenté V, charbon végétal, carotènes végétaux, lutéine, anthocyanes.
+SUPER FRITES PIK
+sirop de glucose; sucre; gélatine; dextrose; acidifiants: acide citrique, acide malique; agent d'enrobage: cire de carnauba; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; arôme; concentrés de fruits et de plantes: citron, carthame; sirop de sucre inverti; colorants: bleu patenté V, carotènes végétaux, lutéine, anthocyanes.
+TAGADA
+sucre; sirop de glucose; gélatine; acidifiant: acide citrique; arôme; concentrés de fruits et de plantes: radis, carotte, carthame, citron; sirop de sucre inverti.
+DRAGIBUS SOFT
+sirop de glucose; sucre; amidon; dextrose; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate monosodique, malate acide de sodium; arôme; colorants: curcumine, bleu patenté V, charbon végétal, carotènes végétaux, anthocyanes; agent d'enrobage: cire de carnauba.
+FLANBOTTI
+sucre; sirop de glucose; dextrose; gélatine; acidifiant: acide citrique; arôme; sirop de caramel; colorants: lutéine, charbon végétal; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba.
+TAGADA PINK NEW
+sucre; sirop de glucose; gélatine; acidifiants: acide citrique, acide malique; correcteur d'acidité: malate acide de sodium; arôme; concentré de fruits et de plantes: patate douce, pomme, radis, cerise.
+MAO CROQUI FRUITS
+sucre; sirop de glucose; graisse de palme; humectant: sirop de sorbitol; acidifiant: acide citrique; gélatine; arôme; concentrés de fruits et de plantes: citron, carthame, spiruline, cassis, carotte, radis, pomme; correcteur d'acidité: carbonate acide de sodium; agent d'enrobage: cire d'abeille blanche et jaune; anti-agglomérant: talc; sirop de sucre inverti..</t>
+  </si>
+  <si>
+    <t>Sucre, farine de blé, huile de colza, oeufs frais (13%), pépites de chocolat noir (8,5%) (sucre, pâte de cacao, beurre de cacao, cacao maigre en poudre, émulsifiant : lécithine de tounesol), beurre concentré, blancs d’oeufs frais (6%), stabilisant : glycérol, sirop de sucre inverti, poudre de cacao, poudre de lait entier, sel, poudres à lever : pyrophosphate et bicarbonate de soude, émulsifiant : mono- et diglycérides d’acides gras, conservateur : sorbate de potassium, arômes.</t>
+  </si>
+  <si>
+    <t>Sucre, farine de blé, huile de colza, oeufs frais (13%), pépites de chocolat noir (8,5%) (sucre, pâte de cacao, beurre de cacao, cacao maigre en poudre, émulsifiant : lécithine de tounesol), beurre concentré, blancs d’oeufs frais (6%), stabilisant : glycérol, sirop de sucre inverti, poudre de cacao, poudre de lait entier, sel, poudres à lever : pyrophosphate et bicarbonate de soude, émulsifiant : mono- et diglycérides d’acides gras, conservateur: sorbate de potassium, arômes.</t>
+  </si>
+  <si>
+    <t>Poire 99,9%, antioxydant: acide ascorbique.</t>
+  </si>
+  <si>
+    <t>Thé vert (89%), arôme, épices (2%) (anis, cannelle, réglisse).</t>
+  </si>
+  <si>
+    <t>sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique; arôme; colorants: carmins, bleu patenté V, lutéine; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba</t>
+  </si>
+  <si>
+    <t>paprika, poivre noir, coriandre, cumin, ail semoule, carvi noir cannelle, clou de girofle, muscade</t>
+  </si>
+  <si>
+    <t>Sucre – Blancs d'OEUFS - AMANDES en poudre 14% - BEURRE pâtissier 13% -Farine de BLÉ - Stabilisant : sorbitol -Sel - Arôme naturel -Poudres à lever : diphosphates, carbonates de sodium .</t>
+  </si>
+  <si>
+    <t>Sucre, dextrose, maltodextrine, stabilisants (E460, E450, E516, E401, E404), épaississant (E407), arôme naturel (lait). Peut contenir : fruits à coque, oeuf, soja et gluten.</t>
+  </si>
+  <si>
+    <t>Pommes de terre, eau.</t>
+  </si>
+  <si>
+    <t>Eau, haricots verts, sel.</t>
+  </si>
+  <si>
+    <t>Menthe poivrée, Mélisse, Verveine, Menthe nanah, Feuille d’oranger, Bouton d’oranger, Pétales d’oranger, Ecorces d’oranger, Vanille gousse – issus de l’agriculture biologique</t>
+  </si>
+  <si>
+    <t>Farine 83,4 % (Blé (GLUTEN), Blé hydrolysé (GLUTEN)) - Sucre - Caramel - Arômes - Vitamines (C, B1)</t>
+  </si>
+  <si>
+    <t>Débris de truffes d’hiver, jus de truffes, sel</t>
+  </si>
+  <si>
+    <t>Sucre, pâte de cacao, poudre de LAIT écrémé, beurre de cacao, lactosérum en poudre (de LAIT), BEURRE concentré, émulsifiant (lécithine de SOJA), arômes. Cacao : 33% minimum. PEUT CONTENIR FRUITS À COQUE.</t>
+  </si>
+  <si>
+    <t>Eau de source*/Eau**; jus de fruits à base de concentrés 12.4% (orange 11.4%, ananas 1%); sucre; acidifiants: acide citrique, acide malique; extraits d’orange; arômes; antioxydant: acide ascorbique; stabilisant: gomme arabique.
+*PET
+**CAN</t>
+  </si>
+  <si>
+    <t>Farine de BLE, huile de colza non hydrogénée, OEUFS de poules élevées en plein air (21%), sucre, stabilisant : glycérol, sirop de glucose-fructose, émulsifiant : mono- et diglycérides d'acides gras, poudres à lever : diphosphates et carbonates de sodium (BLE), fécule, sel, arôme.</t>
+  </si>
+  <si>
+    <t>Segments de pamplemousse, eau, sucre, acidifiant : acide citrique*, agent de fermeté : chlorure de calcium*.
+* En fonction des origines, des additifs peuvent être ajoutés.</t>
+  </si>
+  <si>
+    <t>- Haricots verts coupés,
+- flageolets verts, 
+- carottes, 
+- pommes de terre,
+- eau, sel</t>
+  </si>
+  <si>
+    <t>Flageolets verts. Jus : eau, sel, affermissant : chlorure de calcium (E509)</t>
+  </si>
+  <si>
+    <t>Pommes en tranches (35 à 56%), pêches en tranches (8 à 17%), raisins (1 à 3%), eau, sucre, affermissant : chlorure de calcium, antioxydant : acide ascorbique.</t>
+  </si>
+  <si>
+    <t>graines de sésame (allergène)</t>
+  </si>
+  <si>
+    <t>sucre, amidon modifié, LACTOSÉRUM en poudre, dextrose (contient GLUTEN), CRÈME en poudre, LACTOSE, LAIT écrémé en poudre, émulsifiants (E 472a, E 472b, E 339), sirop de glucose, correcteur d'acidité (E 263), arômes ( contient LAIT), colorants (E160 b, E 101i), Traces éventuelles de FRUITS À COQUES, OEUF.</t>
+  </si>
+  <si>
+    <t>Tomates 52% (tomates concassées et purée de tomates), eau, oignons 7,3%, amidon de maïs modifié, huile de tournesol, sucre, sel, arôme, affermissant (chlorure de calcium).</t>
+  </si>
+  <si>
+    <t>sucre 49,0%; noisettes 25,0%; amandes 25,0%; émulsifiant: mono- et diglycérides d’acides gras &lt;1%; émulsifiant: lécithine de tournesol &lt;1%</t>
+  </si>
+  <si>
+    <t>Farine de blé, sucre, huiles végétales (huile de palme issue de plantations durables et certifiées, huile de colza), sirop de sucre candi, poudre à lever
+(carbonate acide de sodium), farine de soja, sel, cannelle.</t>
+  </si>
+  <si>
+    <t>Farine de BLÉ 68,5%, eau, sel, arôme (contient alcool), levure, sucre, huile de colza, farine de fèves, conservateur : propionate de calcium, amidon de BLÉ, vinaigre, émulsifiant : mono- et diglycérides d'acides gras, levure désactivée, gluten de BLÉ, antioxydant : acide ascorbique. Peut contenir des traces d'OEUFS, SOJA, LAIT, FRUITS A COQUE, GRAINES DE SÉSAME.</t>
+  </si>
+  <si>
+    <t>Figue 60% sucre de canne vinaigre sel curry poivre, gélifiant: pectine</t>
+  </si>
+  <si>
+    <t>Eau, extrait de soja, farine de blé, sel</t>
+  </si>
+  <si>
+    <t>pomme 95% minimum, sucre, arôme naturel de vanille 0,1%, antioxydant : acide ascorbique.</t>
   </si>
 </sst>
 </file>
@@ -4900,8 +5205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C407" sqref="C407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8368,13 +8673,19 @@
       <c r="B323" s="1" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>615</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -8384,6 +8695,9 @@
       <c r="B325" s="1" t="s">
         <v>617</v>
       </c>
+      <c r="C325" s="1" t="s">
+        <v>1288</v>
+      </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
@@ -8392,13 +8706,19 @@
       <c r="B326" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>620</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>621</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8408,6 +8728,9 @@
       <c r="B328" s="1" t="s">
         <v>623</v>
       </c>
+      <c r="C328" s="1" t="s">
+        <v>1291</v>
+      </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
@@ -8424,13 +8747,19 @@
       <c r="B330" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>629</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -8440,6 +8769,9 @@
       <c r="B332" s="1" t="s">
         <v>631</v>
       </c>
+      <c r="C332" s="1" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
@@ -8448,56 +8780,77 @@
       <c r="B333" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>634</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>638</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C336" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>640</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C337" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>642</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C338" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>644</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C339" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>645</v>
       </c>
@@ -8505,215 +8858,293 @@
         <v>646</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>647</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C341" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>649</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C342" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>651</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C343" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>653</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C344" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>655</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C345" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>657</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C346" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>659</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C347" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>660</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C348" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>662</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C349" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>664</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C350" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>666</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C351" s="1" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>667</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C352" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>669</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C353" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>671</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C354" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>672</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C355" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>674</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C356" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C357" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>677</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C358" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>679</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C359" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>681</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C360" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>683</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C361" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>685</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C362" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>687</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C363" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>689</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C364" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>691</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C365" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>693</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C366" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>695</v>
       </c>
@@ -8721,175 +9152,238 @@
         <v>696</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>697</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C368" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>699</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C369" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>701</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C370" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>703</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C371" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>705</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C372" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>707</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C373" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>709</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C374" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>711</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C375" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>713</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C376" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>715</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C377" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>717</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C378" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>719</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C379" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>721</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C380" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>723</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C381" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>725</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C382" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>726</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C383" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>727</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C384" s="1" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>729</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C385" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>731</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C386" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>733</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C387" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>735</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C388" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>737</v>
       </c>
@@ -8897,63 +9391,84 @@
         <v>738</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>739</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C390" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>741</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C391" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>743</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C392" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>745</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C393" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>747</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C394" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>749</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C395" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>751</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C396" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>753</v>
       </c>
@@ -8961,31 +9476,40 @@
         <v>754</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>755</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C398" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>757</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C399" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>759</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C400" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>760</v>
       </c>
@@ -8993,7 +9517,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>762</v>
       </c>
@@ -9001,39 +9525,51 @@
         <v>763</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>764</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C403" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>766</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C404" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>768</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C405" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>770</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C406" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>772</v>
       </c>
@@ -9041,7 +9577,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>774</v>
       </c>
@@ -9049,7 +9585,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>776</v>
       </c>
@@ -9057,7 +9593,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>778</v>
       </c>
@@ -9065,7 +9601,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>780</v>
       </c>
@@ -9073,7 +9609,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>782</v>
       </c>
@@ -9081,7 +9617,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>784</v>
       </c>
@@ -9089,7 +9625,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>786</v>
       </c>
@@ -9097,7 +9633,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>788</v>
       </c>
@@ -9105,7 +9641,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>790</v>
       </c>

--- a/ground_truth/manually_labelled_ground_truth.xlsx
+++ b/ground_truth/manually_labelled_ground_truth.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">manually_labelled_ground_truth!$A$1:$C$501</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="1441">
   <si>
     <t>uid</t>
   </si>
@@ -3048,18 +3048,6 @@
 Si le numéro de lot contient la lettre N : peu contenir de l'oeuf</t>
   </si>
   <si>
-    <t>Confiture de myrtilles et de cassis
-Ingrédients : fruits (myrtilles 41%, cassis 9%), sucre, sucre roux de canne, jus de citrons concentré, gélifiant : pectine de fruits.
-Confiture de fraises et de groseilles
-Ingrédients : fruits (fraises 27 %, groseilles 23 %), sucre, sucre roux de canne, jus de citrons concentré, gélifiant : pectine de fruits.
-Confiture d'abricots et de pêches
-fruits (abricots 34%, pêches 16%), sucre, sucre roux de canne, jus de citrons concentré, gélifiant : pectine de fruits.
-Malgré tous nos soins, cette confiture peut contenir des noyaux.
-Marmelade d'oranges douces et de mandarines
-Ingrédients : fruits (oranges douces 37%, mandarines 3%), sucre, sucre roux de canne, jus de citrons
-concentré, gélifiant : pectine de fruits.</t>
-  </si>
-  <si>
     <t>Pommes 95%, sirop de glucose-fructose, arôme, antioxydant: acide ascorbique.</t>
   </si>
   <si>
@@ -3074,11 +3062,6 @@
   <si>
     <t>Pommes de terre, huile de tournesol (35%), assaisonnement poulet (maltodextrine, farine de blé, dextrose, extrait de levure, arome, sel, oignon déshydraté, viande et graisse de poulet, ail, colorant : extrait de paprika E160c, Antioxydant : extrait de romarin E392), sel
 Traces éventuelles de moutarde et lait</t>
-  </si>
-  <si>
-    <t>Sucre, huiles végétales ( Colza), noisettes (13%), poudre de cacao maigre (7%), lait écrémé en poudre , lactosérum en poudre, lactose. Emulsifiant lécithine de tournesol. Arôme :
-vanilline
-Allergènes : Le produit peut contenir traces éventuelles de soja arachide et autre fruits a coque.</t>
   </si>
   <si>
     <t>Sucre, eau, vinaigre d'alcool, purée de tomates mi-réduite, ail, amidon de maïs modifié, poivrons, piment 1,5%, sel, épice</t>
@@ -3122,60 +3105,6 @@
   </si>
   <si>
     <t>Farine de BLÉ 67 %, sucre, huile de palme, sirop de glucose-fructose, LAIT écrémé en poudre, lactosérum en poudre (de LAIT), arôme fleur d'oranger, fibres de BLÉ, sel, poudre à lever (carbonates de sodium, carbonates d'ammonium), émulsifiant (lécithines de SOJA), arômes.</t>
-  </si>
-  <si>
-    <t>TAGADA
-Ingrédients: sucre; sirop de glucose; gélatine; acidifiant: acide citrique; arôme; colorants: curcumine, carmins, carotènes végétaux.
-DRAGIBUS SO
-Ingrédients: sirop de glucose; sucre; amidon; dextrose; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate monosodique, malate acide de sodium; arôme; colorants: curcumine, bleu patenté V, charbon végétal, carotènes végétaux, anthocyanes; agent d'enrobage: cire de carnauba.
-HAPPY COLA
-Ingrédients: sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique; sirop de caramel; arôme; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba.
-MAO CROQUI
-Ingrédients: sucre; sirop de glucose; graisse de palme; humectant: sirop de sorbitol; acidifiant: acide citrique; gélatine; arôme; concentrés de fruits et de plantes: citron, carthame, spiruline, cassis, carotte, radis, pomme; correcteur d'acidité: carbonate acide de sodium; agent d'enrobage: cire d'abeille blanche et jaune; antiagglomérant: talc; sirop de sucre  nverti. Tenir à
-l'abri de la chaleur et de
-l'humidité."
-HAPPY CHERRY
-Ingrédients: sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique; arôme; concentrés de fruits et de plantes: pomme, kiwi, épinard, ortie; extrait de fruit (caroube); sirop de sucre inverti; colorant: carmins; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
-GOLDBEARS
-Ingrédients: sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique; jus de fruits concentrés: pomme, orange, citron, fraise, framboise, ananas; arôme; concentrés de fruits et de plantes: carthame, spiruline, pomme, kiwi, orange, baie de sureau, citron, mangue, fruit de la passion, cassis, aronie, raisin; agents d'enrobage: cire d'abeille blanche et  jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
-FRAIZIBUS
-Ingrédients: sucre; sirop de glucose; amidon; acidifiant: acide citrique; correcteur d'acidité: citrate monosodique; arôme; colorants: curcumine, carotènes végétaux, bleu patenté V, anthocyanes, charbon végétal; agent d'enrobage: cire de carnauba.
-CROCOPIK
-Ingrédients: sirop de glucose; sucre; gélatine; dextrose; acidifiants: acide citrique, acide malique; agent d'enrobage: cire de carnauba; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; arôme; concentrés de fruits et de plantes: citron, carthame; sirop de sucre inverti; colorants: bleu patenté V, carotènes végétaux, lutéine, anthocyanes.
-CROCO
-Ingrédients: sirop de glucose; sucre; dextrose; gélatine; acidifiant: acide citrique; concentrés de fruits et de plantes: carthame, spiruline, pomme; sirop de sucre inverti; arôme; colorants: carotènes végétaux, lutéine, anthocyanes; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
-LANGUE ACIDE
-Ingrédients: sirop de glucose; sucre; amidons transformés; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; agent d'enrobage: cire de carnauba; arôme; concentrés de fruits et de plantes: carthame, citron; colorants: carmins, bleu patenté V, lutéine; sirop de sucre inverti. Tenir à l'abri de la chaleur et de l'humidité."
-WORMS
-Ingrédients: sirop de glucose; sucre; eau; gélatine; acidifiant: acide citrique; arôme; concentrés de fruits et de plantes: carthame, spiruline, pomme, kiwi, carotte, hibiscus, cassis, baie de sureau, aronie, raisin, orange, citron, mangue, fruit de la passion; extrait de baie de sureau; sirop de caramel; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba.
-OEUF AU PLAT
-Ingrédients: sirop de glucose; sucre; dextrose; gélatine; acidifiant: acide citrique; arôme; colorants: carotènes végétaux, anthocyanes; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
-LES SCHTROUM
-Ingrédients: sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique, acide malique, acide tartrique; arôme; colorants: bleu patenté V, charbon végétal, lutéine, carotènes végétaux, anthocyanes; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
-ACADEMY PIK
-Ingrédients: sirop de glucose; sucre; gélatine; dextrose; acidifiants: acide citrique, acide malique; agent d'enrobage: cire de carnauba; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; arôme; concentrés de fruits et de plantes: spiruline, patate douce, radis, carthame, citron; sirop de sucre inverti; colorants: anthocyanes, carotènes végétaux, lutéine, bleu patenté V. Tenir à l'abri de la chaleur et de l'humidité."
-CHERRY PIK
-Ingrédients: sirop de glucose; sucre; gélatine; dextrose; acidifiants: acide citrique, acide malique; agent d'enrobage: cire de carnauba; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; arôme; concentrés de fruits et de plantes: citron, carthame; colorants: bleu patenté V, anthocyanes; sirop de sucre inverti. Tenir à l'abri de la chaleur et de l'humidité."
-MIAMI PIK
-Ingrédients: sucre; sirop de glucose; amidon de maïs; humectant: sirop de sorbitol; farine de blé; eau; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; agent d'enrobage: cire de carnauba; émulsifiant: monoet diglycérides d'acides gras; arôme; concentrés de fruits et de plantes: cassis, baie de sureau, aronie, raisin; extrait de baie de sureau; colorants: curcumine, bleu patenté V.
-FLANBOTTI
-Ingrédients: sucre; sirop de glucose; dextrose; gélatine; acidifiant: acide citrique; arôme; sirop de caramel; colorants: charbon végétal, lutéine; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba.
-HAPPY COLA
-Ingrédients: sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique; sirop de caramel; arôme; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
-PERSICA
-Ingrédients: sucre; sirop de glucose; gélatine; acidifiant: acide citrique; arôme; concentré de fruits et de plantes: citron, carthame, pomme, cassis, baie de sureau, aronie, raisin; extrait de baie de sureau; sirop de sucre inverti. Tenir à l'abri de la chaleur et de l'humidité."
-OASIS
-Ingrédients: sirop de glucose; sucre; gélatine; dextrose; jus de fruits concentrés 4,5 % (équivalent fruits 17 %): raisin, pomme, poire, orange, citron; acidifiant: acide citrique; concentrés de fruits et de plantes: carthame, spiruline, pomme; arômes naturels; colorants: carotènes végétaux, lutéine, anthocyanes; sirop de sucre inverti; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
-LOVE PIK
-Ingrédients: sirop de glucose; sucre; humectant: sirop de sorbitol; eau; gélatine; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate tricalcique, malate acide de sodium, citrate trisodique; agent d'enrobage: cire de carnauba; gélifiant: pectine amidée; arôme; concentrés de fruits et de plantes: cassis, baie de sureau, aronie, raisin; extrait de baie de sureau; colorants: bleu patenté V, bleu brillant FCF, anthocyanes. Tenir à l'abri de la chaleur et de l'humidité."
-SUPER FRITES
-Ingrédients: sirop de glucose; sucre; gélatine; dextrose; acidifiants: acide citrique, acide malique; agent d'enrobage: cire de carnauba; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; arôme; concentrés de fruits et de plantes: citron, carthame; sirop de sucre inverti; colorants: bleu patenté V, carotènes végétaux, lutéine, anthocyanes.
-LES SCHTROUM
-Ingrédients: sirop de glucose; sucre; gélatine; dextrose; acidifiants: acide citrique, acide malique; agent d'enrobage: cire de carnauba; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; arôme; colorants: bleu patenté V, lutéine, anthocyanes.
-DENTIER
-Ingrédients: sucre; sirop de glucose; eau; gélatine; acidifiant: acide citrique; arôme; concentré de radis.
-TAGADA PINK
-Ingrédients: sucre; sirop de glucose; gélatine; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; agent d'enrobage: cire de carnauba; arôme; colorant: carmins.</t>
   </si>
   <si>
     <t>eau
@@ -3336,17 +3265,6 @@
     <t>Eau, graines de moutarde, vinaigre, sel, antioxydant : disulfite de potassium, acidifiant : acide citrique, épice.</t>
   </si>
   <si>
-    <t>Croustilles de céréales enrobées de chocolat au lait et de chocolat blanc arôme café
-Ingrédients : chocolat blanc arôme café 48% (sucre, beurre de cacao, poudre de lait entier, arômes), chocolat au lait 38% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), sucre glace. 
-Chocolat au lait et blanc: cacao 33% min. Traces éventuelles de : oeufs, fruits à coque.
-Croustilles de céréales enrobées de chocolat au lait et de pâte de spéculoos
-Ingrédients : chocolat au lait 68% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), pâte de spéculoos 16% [Spéculoos 60% (farine de blé, sucre, huiles et graisses végétales (palme, colza), sirop de candi, poudres à lever : E500(ii) - carbonate acide d'ammonium, sel, cannelle), huiles et graisses végétales partiellement hydrogénées (tournesol, colza, palme), sucre, émulsifiants : lécithines – E472c, correcteur d’acidité : E330], céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), beurre de cacao, sucre glace, cannelle moulue.
-Chocolat au lait : 33% de cacao min. Traces éventuelles de : oeufs, fruits à coque.
-Croustilles de céréales enrobées de praliné et de chocolat au lait avec praliné grain
-Ingrédients : chocolat au lait 65% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), praliné 12% (noisettes 50%, sucre, émulsifiant : lécithines (soja), arôme naturel de vanille), céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), praliné grain 8% (sucre, amandes et noisettes torréfiées), beurre de cacao, agents d’enrobage : E414-E904.
-Chocolat au lait : cacao 33% min. Traces éventuelles de : oeufs, autres fruits à coque.</t>
-  </si>
-  <si>
     <t>Lentilles blondes</t>
   </si>
   <si>
@@ -3563,12 +3481,6 @@
   </si>
   <si>
     <t>Huile de colza</t>
-  </si>
-  <si>
-    <t>PÂTE À MÂCHER ACIDE, AROMATISÉE : GOÛT FRAMBOISE COLA.
-Ingrédients : sirop de glucose ; sucre ; graisse végétale (palme, palmiste) ; acidifiants : acide citrique, acide lactique ; stabilisants : sorbitols, gomme arabique ; malodextrine, colorants : caramel ordinaire, bleu brillant FCF ; arômes ; émulsifiants : E473.
-PÂTE À MÂCHER ACIDE, AROMATISÉE : GOÛT FRAISE POMME.
-Ingrédients : Sirop de glucose ; sucre ; graisse végétale (palme, palmiste) ; acidifiants : E330 et E270 ; stabilisants : E414, E420 ; malodextrine ; arômes ; colorants : E100, E141, E163 ; émulsifiant : E473.</t>
   </si>
   <si>
     <t>Suillus luteus (40%), Volvariella volvacea (25%), Pleurotus ostreatus (20%), lactarius deliciosus (10%), pholiota mutabilis (5%), eau, sel, acide citrique</t>
@@ -3811,16 +3723,6 @@
   </si>
   <si>
     <t>Sirop de glucose, sirop de sucre inverti, poudre de chocolat 25,7% (sucre, cacao en poudre), eau, huile de noix de coco totalement hydrogénée, sel, conservateur (sorbate de potassium), arôme.</t>
-  </si>
-  <si>
-    <t>1 - SUZI WAN Nouilles en pot aux petits légumes 65 g
-&gt; Ingrédients : nouilles (FARINE DE BLÉ, huile de palme, fécules de pomme de terre, sel, poudre à lever : carbonate de potassium, carbonate de sodium) (84%), arôme naturel, légumes déshydratés (pois, maïs, champignons noirs, poivrons rouge, carottes, oignons en poudre, ail en poudre, épices, ciboulette, sauce SOJA en poudre (graines de SOJA, BLÉ, sel), curry en poudre.
-2 - SUZI WAN Nouilles en pot saveur boeuf et sauce soja 61 g
-&gt; Ingrédients : nouilles (FARINE DE BLÉ, huile de palme, fécules de pomme de terre, sel, poudre à lever : carbonate de potassium, carbonate de sodium) (89%), arôme naturel, légumes déshydratés (carottes, poivrons rouge, champignons noirs), poudre d’oignon (grillé), ail, curry en poudre, épices, ciboulette, sauce SOJA en poudre (graines de SOJA, BLÉ, sel).
-3 - SUZI WAN Nouilles en pot saveur poulet au curry 62 g
-&gt; Ingrédients : nouilles (FARINE DE BLÉ, huile de palme, fécules de pomme de terre, sel, poudre à lever : carbonate de potassium, carbonate de sodium) (88%), arôme naturel, légumes déshydratés (carottes, poivrons rouge, curry en poudre, poudre d’oignon (grillé), ail grillé* (ail*, huile de tournesol*), extrait de levure, sel, ciboulette, épices, sauce SOJA en poudre (graines de SOJA, BLÉ, sel). *Certifié biologique.
-4 - SUZI WAN Nouilles en pot saveur crevette 62 g
-&gt; Ingrédients : nouilles (89%) (farine de BLÉ, huile de palme, fécules de pomme de terre, sel, poudres à lever : carbonate de potassium, carbonate de sodium), arôme naturel, maltodextrine, légumes déshydratés (2.7%) (carotte, champignons noirs, poivron rouge), sauce SOJA en poudre (fèves de SOJA, BLÉ, sel), herbes, sel, épices.</t>
   </si>
   <si>
     <t>Noodles 88% (farine de BLE, huile de palme, amidon transformé, sel, poudre à lever : E 500-E 501), sel, amidon, exhausteurs de goût : E 621-E 635, lactose (LAIT), sucre, arôme, extrait de levure, légumes (carottes, CELERI, poireau), épices ( ail, poivre), huile de palme, colorants : E 150c-E 100, persil, sauce soja (jus fermenté de graines de SOJA et grains de BLE, maltodextrine, sel), préparation déshydratée de viande de boeuf 0.1%( viande de boeuf, sel), correcteur d’acidité : E 330.</t>
@@ -4391,6 +4293,370 @@
   </si>
   <si>
     <t>pomme 95% minimum, sucre, arôme naturel de vanille 0,1%, antioxydant : acide ascorbique.</t>
+  </si>
+  <si>
+    <t>Sucre, chapelure de pain (Farine de blé, farine de germe de maïs stabilisé, eau, levain (blé, seigle), levure, sel, gluten, germe de blé, protéines de blé, semoule de blé dur, épices), farine de blé, poudre à lever*(amidon de blé*, bicarbonate de sodium, tartrate monopotassique).
+(* Issus de l’agriculture biologique), sucre vanillé.</t>
+  </si>
+  <si>
+    <t>100% haricots blancs bio</t>
+  </si>
+  <si>
+    <t>Eau, huile de colza, vinaigre d'alcool, MOUTARDE de Dijon (eau, graines de MOUTARDE, vinaigre d'alcool, sel, correcteur d'acidité : E330, conservateur : E224*), sel, sucre*, acidifiant : E330, épice, stabilisants : E412 et E415.
+*Contient : SULFITES.</t>
+  </si>
+  <si>
+    <t>Eau ; jus de fruit de la passion ; sucre ; épaississant : pectine ; antioxydant : acide ascorbique</t>
+  </si>
+  <si>
+    <t>Lait écrémé 72%, caramel 10% crème, sucre, amidon transformé, beurre demi-sel 2%, sel, épaississant : gomme xanthane, correcteur d'acidité : citrate de sodium.</t>
+  </si>
+  <si>
+    <t>sel, exhausteurs de goût : glutamate, inosinate et guanylate de sodium, graisse de palme, amidon modifié de pomme de terre, viande de poule : 3,9%, graisse de poule : 3,5%, arômes, huile de tournesol, oignon, épices et aromates (curcuma, poivre, persil), caramel, maltodextrine, extrait de levure, antioxydant : extrait de romarin. Peut contenir: céleri.</t>
+  </si>
+  <si>
+    <t>Sirop de glucose-fructose, plusieurs fruits 35%, sucre, gélifiant : pectines, acidifiant : acide citrique.</t>
+  </si>
+  <si>
+    <t>chocolat supérieur au lait 39% (sucre, lait en poudre, beurre de cacao, pâte de cacao, émulsifiants : lécithines [soja], vanilline), sucre, lait écrémé en poudre, huile de palme, beurre concentré, émulsifiants : lécithines [soja], vanilline.
+Sur le total : produits laitiers 33 % (lait écrémé en poudre, lait en poudre : 27,4 %, beurre concentré 5,6 %) - cacao 12,5 %. Le chocolat utilisé est un chocolat pur beurre de cacao.</t>
+  </si>
+  <si>
+    <t>Eau, huile de colza 25%, vinaigres de vin rouge et de vin blanc, sel, sucre, amidon modifié, épaississant : gomme xanthane, farine de MOUTARDE, arômes, protéines de LAIT, jus de citron concentré, colorant : lutéine (extrait de tagète).</t>
+  </si>
+  <si>
+    <t>eau, carotte¹ : 5,9%, poireau¹ : 4,1%, panais¹ : 3,9%, pomme de terre¹ : 3,9%, oignon¹ : 3,2%, amidon modifié de maïs, topinambour¹ : 1,2%, huile de tournesol, CRÈME fraîche, sel, BEURRE, rutabaga¹ : 0,4%, lactosérum (LAIT), extrait de levure, sucre, jus de CÉLERI concentré, jus de carotte concentré, jus de poireau concentré, jus d'oignon concentré. Peut contenir : gluten, moutarde, oeuf.
+¹Légumes issus de l'agriculture durable.</t>
+  </si>
+  <si>
+    <t>Farine de blé, sucre, oeufs de poules élevées en plein air (21%), beurre pâtissier (20%), sirop de glucose-fructose, stabilisants: sorbitols et glycérol, poudres à lever : diphosphates et carbonates de sodium (blé), arôme naturel.</t>
+  </si>
+  <si>
+    <t>100% haricots cocos blancs</t>
+  </si>
+  <si>
+    <t>eau, sirop de glucose-fructose, sucre, épaississant : amidon modifié, graisse végétale non hydrogénée de noix de
+coco, jus concentré de citron 2%, gélifiant : pectines de fruits, arôme naturel de citron, émulsifiants E472C et
+E473, arôme, conservateur : sorbate de potassium, sel, colorant : E161b.
+Teneur en Luteïne : moins de 5 mg/kg</t>
+  </si>
+  <si>
+    <t>Légumes (54%) (choux blancs émincés (34%), carottes râpées (20%)), eau, vinaigre, sucre, sel, acidifiant : acide lactique.</t>
+  </si>
+  <si>
+    <t>Noix de cajou*, dattes*,amandes*, nectar de palme de coco*, extrait de racine de réglisse* (1%), gousse de vanille*, sel de l'Himalaya, huile d'anis* *biologique</t>
+  </si>
+  <si>
+    <t>Pomme 92%, framboise 4%, sirop de glucose-fructose, jus concentré de carotte pourpre, antioxydant: acide ascorbique, arôme naturel framboise avec d'autres arômes naturels.</t>
+  </si>
+  <si>
+    <t>pulpe de pommes (50%)*, sucre, sirop de glucose, gélifiant : pectines, acidifiant : acide citrique, arômes, colorants : E100 - E163 - E160c - E141.
+* Pourcentage à la mise en oeuvre pour chaque parfum.</t>
+  </si>
+  <si>
+    <t>Cornichons, eau, vinaigre d’alcool, sel, graines de moutarde, oignons, coriandre, poivre et arome d’estragon</t>
+  </si>
+  <si>
+    <t>Huile de colza, « Aceto Balsamico di Modena IGP » (25%) (vinaigre de vin, moût de raisin cuit, colorant E-150d), huile d’olive vierge extra.
+Contient sulfites.</t>
+  </si>
+  <si>
+    <t>Fruits confits 21,8% [bigarreaux confits 11,8% (bigarreaux, sucre, acidifiant : acide citrique, conservateur : sorbate de potassium, colorant : cochenille), pastèques confites 5,1% (pastèques, sirop de glucose-fructose, sucre, conservateur : sorbate de potassium, acidifiant : acide citrique, colorant : cochenille), écorces d'orange confites 4,9% (écorces d'orange, sirop de glucose-fructose, sucre, conservateur : sorbate de potassium, acidifiant : acide citrique)], farine de blé, raisins secs 14,8% (raisins, huiles végétales : colza - coton), huile de colza, oeufs frais, sucre, stabilisant : glycérol, sirop de glucose-fructose, extrait aromatique : rhum - infusion d'écorces d'oranges douces - arômes, sel, poudres à lever : diphosphates - carbonates de sodium, gélifiant : gomme xanthane, arôme naturel d'orange, farine de blé malté, conservateur : anhydride sulfureux.Présence possible de : arachide, fruits à coque, lait, soja.</t>
+  </si>
+  <si>
+    <t>100% Semoule de blé dur de qualité supérieure</t>
+  </si>
+  <si>
+    <t>sirop de glucose-fructose, lait concentré sucré, eau, sucre, sel, arôme, conservateur: sorbate de potassium.</t>
+  </si>
+  <si>
+    <t>Farine de BLÉ 63%, eau, sucre, huile de colza, sel, vinaigre, levure, farine de fèves, gluten de BLÉ, arôme (contient alcool), extrait d'acérola. Peut contenir
+des traces d'OEUFS, SOJA, LAIT, FRUITS À COQUE, GRAINES DE SÉSAME.</t>
+  </si>
+  <si>
+    <t>pomme 69,6% (purée et purée concentrée), mirabelle 20,0%, poire 10,0%, arômes naturels, jus de citron concentré (si nécessaire pour réguler l'acidité), antioxydant : acide ascorbique. Sans gluten.</t>
+  </si>
+  <si>
+    <t>farine de blé - sucre - graisse végétale (palme, palmiste, colza, noix de coco) - chocolat (12%)(sucre, pâte de cacao, beurre de cacao, beurre pâtissier, émulsifiant: lécithine de soja) - chocolat au lait (11,5%)(sucre, beurre de cacao, pâte de cacao, lait écrémé en poudre, beurre pâtissier, émulsifiant: lécithine de soja, arôme) - chocolat blanc (3%)(sucre, beurre de cacao, lait écrémé en poudre, lactoserum en poudre, beurre pâtissier, émulsifiant: lécithine de soja, arôme) - cassonade (0,9%) - lactose et protéines de lait - amidon de blé - lait entier en poudre - beurre - dextrose -  chocolat en flocons (sucre, pâte de cacao, poudre de lait entier, beurre concentré, beurre de cacao, arôme) - sel - farine de malt d'orge - cacao maigre en poudre - blanc d'oeuf en poudre - poudres à lever: carbonate de sodium, carbonates d'ammonium, diphosphate disodique - oeuf entier en poudre - émulsifiant: lécithine de soja - noix de coco (0,05%) - arômes - sirop de candi - jaune d'oeuf en poudre - cannelle - colorant : E101.
+Peut contenir des traces d'amandes, de noix de pécan,  d'autres fruits à coque, d'avoine et d'autres glutens.</t>
+  </si>
+  <si>
+    <t>Eau gazéifiée ; sirop d’agave ; extrait naturel de maté ; arômes
+naturels ; acidifiant: acide citrique</t>
+  </si>
+  <si>
+    <t>Amidon modifié de pomme de terre - Fécule de pomme de terre - Sirop de glucose de maïs - Matières grasses végétales : Huile de tournesol, huile de colza - Poivre 6,2 % (Poivre gris, poivre vert, poivre blanc) - Oignon - Extrait de levure - Arôme - Tomate - Epaississant : E466 - Sucre - Ail - Colorant : E150c - Protéines de lait - Extrait de paprika.</t>
+  </si>
+  <si>
+    <t>farine de maïs, huile de palme, mélange au chili (sel, oignon en poudre, maltodextrine, extrait de levure, épices, dextrose, ail en poudre, poudre de tomate, sucre, acidifiant: acide citrique, colorant: extrait de paprika, arômes).</t>
+  </si>
+  <si>
+    <t>Farine de BLÉ, sucre, huile de colza,, cacao maigre en poudre 6,5 %, sirop de glucose-fructose, amidon de BLÉ, poudre à lever (carbonate de potassium, carbonate d'ammonium, carbonate de sodium),huile de palme,sel, émulsifiants (lécithine de SOJA), arôme .PEUT CONTENIR LAIT.</t>
+  </si>
+  <si>
+    <t>Miel.
+Mélange de miels originaires et non originaires de l’UE.</t>
+  </si>
+  <si>
+    <t>Sucre; sirop de glucose; graisse de palme; humectant: sirop de sorbitol; gélatine; acidifiant: acide citrique; arôme.</t>
+  </si>
+  <si>
+    <t>griotte, sucre de canne, sirop de glucose-fructose, gélifiant : pectine de fruits, jus de citron.</t>
+  </si>
+  <si>
+    <t>Groseilles, sirop de glucose-fructose, sucre, gélifiant : pectine de fruits.</t>
+  </si>
+  <si>
+    <t>Eau gazéifiée ; colorant : E150d ; acidifiants : acide phosphorique, citrate de sodium ; édulcorants : aspartame, acésulfame-K ; arômes naturels (extraits végétaux), dont caféine.
+Contient une source de phénylalanine.</t>
+  </si>
+  <si>
+    <t>sirop d’érable pur à 100 %.</t>
+  </si>
+  <si>
+    <t>Fruits (fraises 20%, cerises 15%, groseilles 12%, cassis 3%), sucre, sucre roux de canne, jus de citrons concentré, gélifiant : pectine de fruits.</t>
+  </si>
+  <si>
+    <t>100% haricots blancs</t>
+  </si>
+  <si>
+    <t>Farine de BLÉ 20% - Huile de colza - OEUFS entiers 17,5% - Sucre - Graines de tournesol caramélisées (graines de tournesol 3,5%, sucre) - Stabilisant : glycérol - Farine de BLÉ complet 4,5% - Poudres à lever : diphosphates, carbonates de sodium - Flocons d'AVOINE 1% - Poudre de LAIT écrémé - Protéines de LAIT - Emulsifiants : mono- et diglycérides d'acides gras (origine végétale) - Sel - Arômes naturels (contient alcool).</t>
+  </si>
+  <si>
+    <t>– 100% Semoule de blé dur de qualité supérieure</t>
+  </si>
+  <si>
+    <t>Farine de FROMENT, farine de SEIGLE, sel, levain de SEIGLE déshydraté désactivé, émulsifiant : E471, farine de malt de SEIGLE, farine maltée de FROMENT, farine maltée d'ORGE, dextrose, agents de traitement de la farine : E300, enzymes.</t>
+  </si>
+  <si>
+    <t>Sauce soja 35%, (eau, germes de soja, blé, sel 14.6%), vinaigre balsamique de Modène, vinaigre de VIN, concentré de jus de raisin, colorant E150d, eau, sirop de glucose, gingembre 4% amidon de maïs modifié, sucre, agent épaississant : gomme de xanthane,</t>
+  </si>
+  <si>
+    <t>Champignons réhydratés 40% (champignon de Paris, Shiitake, bolet jaune), sel, eau, extrait de levure, concentré de champignon de Paris 8%, sucre, sirop de glucose, oignon en poudre, ail en poudre, arôme naturel, arôme, acidifiant (acide citrique), stabilisant (gomme xanthane).</t>
+  </si>
+  <si>
+    <t>Sucre, amidon de maïs, arôme vanille</t>
+  </si>
+  <si>
+    <t>sucre, sirop de glucose, farine de blé (17%), matière grasse de palme, beurre de cacao, lait écrémé en poudre, pâte de cacao, lactose, beurre concentré (lait), petit-lait en poudre, cacao maigre, sel, émulsifiant (lécithine de soja), poudre à lever (E500), extrait naturel de vanille. (Peut contenir: noisette, amande, gluten (orge, avoine)).</t>
+  </si>
+  <si>
+    <t>Sucre, eau, jus de citron à base de concentré 18,2%, sirop de glucose, graisse de coco (coprah), épaississants : amidon modifié de maïs et pectines, émulsifiant : mono et diglycérides d'acides gras, arôme naturel, conservateur : sorbate de potassium, acidifiant : acide citrique, colorants : béta-carotène ; huile de tournesol et E1450.</t>
+  </si>
+  <si>
+    <t>Lentilles, eau, sel, arôme naturel (céleri)</t>
+  </si>
+  <si>
+    <t>Fraises , sucre, sucre roux de canne, jus de citrons concentré, gélifiant: pectine de fruits.</t>
+  </si>
+  <si>
+    <t>Sucre, cacao maigre en poudre (beurre de cacao : 11% minimum), arôme vanille.
+Cacao : 32% minimum</t>
+  </si>
+  <si>
+    <t>Oignon déshydraté (16%), graine de coriandre, sel, cumin (10,6%), graine de moutarde brune (8,2%), ail déshydraté, gingembre, extrait de levure, fenouil, laurier, curcuma, poivre noir, cannelle, colorant: curcumine, feuille de coriandre, piment.</t>
+  </si>
+  <si>
+    <t>Farine de Sarrasin</t>
+  </si>
+  <si>
+    <t>sucre; sirop de glucose; eau; humectant: sirop de sorbitol; gélatine; concentrés de fruits et de plantes: carthame; arôme; colorants: curcumine, carmins, bleu patenté V.</t>
+  </si>
+  <si>
+    <t>sucre
+dextrose
+amidon de maïs
+1,4% myrtille en poudre
+gélifiant (carraghénanes)
+0,7% fraise en poudre
+maltodextrine
+épaississant (gomme xanthane)
+0,4% framboise en poudre
+colorant (carmins)
+extrait de paprika
+arômes
+Traces éventuelles de (GLUTEN, OEUF, FRUITS À COQUE, SOJA, LAIT)</t>
+  </si>
+  <si>
+    <t>Haricots beurre, eau, sel</t>
+  </si>
+  <si>
+    <t>Huile de colza (70.45 %), jaunes d’oeufs (6.2 %), purée de tomates, eau, vinaigre, câpres (2.8 %) (câpres, eau, sel), cornichons (2.8 %) (cornichons, vinaigre, sel), sucre, sel, amidon modifié, acidifiant : glucono-delta-lactone, conservateur : sorbate de potassium, antioxydant : E385 (74 mg/kg), épice, arôme naturel aneth.</t>
+  </si>
+  <si>
+    <t>Légumes 43,2 % (pomme de terre, oignon, carotte, tomate, poireau) - Amidon modifié de pomme de terre - Extrait de levure - Sirop de glucose de maïs - Huile de colza - Sucre - Arôme naturel - Ail - Curcuma.</t>
+  </si>
+  <si>
+    <t>huile de colza, vinaigre balsamique (vinaigre de vin, moût de raisins, colorant : E150d, sulfites), sauce soja 15% (eau, soja, farine de blé (contient gluten), sel) , sucre, jus concentré de citron vert, gingembre (contient sulfites), épaississant : gomme xanthane.</t>
+  </si>
+  <si>
+    <t>Amidon de maïs* - Lait écrémé* - Sel - Fécule de pomme de terre* - Tomate* - Oignon* - Arômes naturels - Poivres* 3 % (poivre vert*, poivre blanc*, poivre noir*) - Huile de tournesol* - Extrait de levure* - Sucre caramélisé* - Ail* - Maltodextrine de maïs*.
+* issus de l’agriculture biologique</t>
+  </si>
+  <si>
+    <t>chocolat au lait (38%)(sucre, beurre de cacao, pâte de cacao, lait écrémé en poudre, beurre pâtissier, émulsifiant: lécithine de soja, arôme) - farine de blé - sucre - graisse végétale (palme, colza) - sel - lactose et protéines de lait - lait entier en poudre - émulsifiant: lécithine de soja - poudres à lever: carbonates de sodium, carbonates d'ammonium, diphosphate disodique - noix de coco - arôme – oeuf entier en poudre.
+Peut contenir des traces de sésame, de fruits à coque, d’avoine, d’orge et d’autres glutens.</t>
+  </si>
+  <si>
+    <t>Graisse végétale (palme)</t>
+  </si>
+  <si>
+    <t>sel de mer, maltodextrine*, graisse de palme*, extrait de levure*, amidon de pomme de terre*, sucre de canne*, légumes* (3.4%) (oignon*, carotte*), sel, livèche*, persil*, curcuma*.
+* Ingrédients issus de l'agriculture biologique</t>
+  </si>
+  <si>
+    <t>Sel (90%), poivre noir (10%).</t>
+  </si>
+  <si>
+    <t>Purée de tomate mi-réduite (38%), sucre, vinaigre, sirop de glucose, sel, amidon modifié, ail, arôme de fumée (contient du gluten), colorant : caramel E 150c, acidifiant : acide citrique, conservateur : sorbate de potassium, épices.</t>
+  </si>
+  <si>
+    <t>Eau, purée de tomate à base de concentré*, sucre, vinaigre, amidon modifié de maïs, sel, conservateurs : E202-E211, arôme naturel</t>
+  </si>
+  <si>
+    <t>Sirop de glucose-fructose, abricots, sucre, acidifiant : acide citrique, gélifiant : pectine de fruits.</t>
+  </si>
+  <si>
+    <t>Graine de coriandre (19,5%), ail déshydraté, curcuma (14,5%), cumin (13,5%), gingembre, graine de moutarde, piment, fenugrec, sel, macis, oignon déshydraté, fenouil, piment de la Jamaïque, girofle, laurier.</t>
+  </si>
+  <si>
+    <t>farine de froment - bio, sucre - bio, oeuf entier en poudre-bio, dextrose-bio, poudre de lait entier bio, sel, gluten de froment-bio, levain de blé déshydraté désactivé-bio, farine de froment prégélatinisée-bio, farine maltée de froment - bio, agent(s) de traitement de la farine: acide ascorbique, alpha-amylase, hémicellulase</t>
+  </si>
+  <si>
+    <t>Paprika, coriandre, céleri, estragon, gingembre, citronnelle</t>
+  </si>
+  <si>
+    <t>Chocolat en poudre*° (73%) (sucre roux de canne*°, poudre de cacao*° 41% minimum), farine de BLÉ T65*, farine de graines de guar*, sel de Guérande.
+* Produits issus de l’Agriculture Biologique.
+° Ingrédients issus du commerce Équitable. 73.4% des ingrédients d'origine agricole sont issus du commerce équitable (Sucre : Paraguay ; Cacao : République Dominicaine).</t>
+  </si>
+  <si>
+    <t>Eau, huile de tournesol, beurre 9,5 %, jaune d'oeuf 6 %, amidon modifié, sel, jus de citron concentré, amidon de maïs, épaississants (gomme guar, gomme xanthane), protéines de pois, sucre, arôme naturel, curcuma, extrait de paprika.</t>
+  </si>
+  <si>
+    <t>pâte de cacao 50,5% ; sucre 47,5% ; beurre de cacao 1,5% ; émulsifiant: lécithine de soja &lt;1% ; arôme naturel de vanille &lt;1%</t>
+  </si>
+  <si>
+    <t>Pommes de terre 59,5 % - Epinards 40 % - Amidon de maïs - Sirop de glucose de maïs - Huile de colza - Emulsifiants : E322, E471 - Stabilisant : E450i - Acidifiant : E330 - Curcuma - Conservateur : E223 - Antioxygène : E304.</t>
+  </si>
+  <si>
+    <t>SUCRE DE CANNE, EAU, JUS DE FRUIT DE LA PASSION A BASE DE CONCENTRE (10%), ACIDIFIANT : ACIDE CITRIQUE, AROMES, COLORANT : BETA CAROTENE, STABILISANT: E 445.</t>
+  </si>
+  <si>
+    <t>Semoule de blé dur (71%), lentilles vertes précuites (6%), arômes naturels, flocon de soja (3%), carotte deshydratée (3%), petits pois deshydraté (2%), oignon rissolé deshydraté (1%) (oignon, huile de tournesol, antioxydant : extrait de romarin), huile de colza (1%), oignon déshydraté (1%), flocon d’orge (1%), flocon d’avoine (1%), poireau deshydraté.</t>
+  </si>
+  <si>
+    <t>SIROP DE GLUCOSE / SUCRE / AROMES / ACIDIFIANT: ACIDE CITRIQUE E 330 / CONCENTRES (CASSIS, CAROTTE, POMME, CARTHAME, SPIRULINE, HIBISCUS)</t>
+  </si>
+  <si>
+    <t>Farine de blé T45</t>
+  </si>
+  <si>
+    <t>Sucre roux de canne*° (64%), amidon de maïs*, poudre de LAIT écrémé*, poudre d’OEUFS entiers*, gélifiants : carraghénanes, agar-agar* ; arôme naturel de vanille* et autres arômes naturels*, poudre de gousses de vanille*, curcuma*.
+* Produits issus de l’Agriculture Biologique.
+° Ingrédient issu du commerce équitable. 65.1% des ingrédients d’origine agricole sont issus du commerce équitable (Sucre : Paraguay).</t>
+  </si>
+  <si>
+    <t>Farine 87,1 % (Blé (GLUTEN), Blé hydrolysé (GLUTEN)) - Sucre - Caramel 5,00 % - Arôme - Vitamines (C, B1) - Diphosphate ferrique</t>
+  </si>
+  <si>
+    <t>Confiture de myrtilles et de cassis
+fruits (myrtilles 41%, cassis 9%), sucre, sucre roux de canne, jus de citrons concentré, gélifiant : pectine de fruits.
+Confiture de fraises et de groseilles
+fruits (fraises 27 %, groseilles 23 %), sucre, sucre roux de canne, jus de citrons concentré, gélifiant : pectine de fruits.
+Confiture d'abricots et de pêches
+fruits (abricots 34%, pêches 16%), sucre, sucre roux de canne, jus de citrons concentré, gélifiant : pectine de fruits.
+Marmelade d'oranges douces et de mandarines
+fruits (oranges douces 37%, mandarines 3%), sucre, sucre roux de canne, jus de citrons
+concentré, gélifiant : pectine de fruits.</t>
+  </si>
+  <si>
+    <t>Sucre, huiles végétales ( Colza), noisettes (13%), poudre de cacao maigre (7%), lait écrémé en poudre , lactosérum en poudre, lactose. Emulsifiant lécithine de tournesol. Arôme : vanilline
+Allergènes : Le produit peut contenir traces éventuelles de soja arachide et autre fruits a coque.</t>
+  </si>
+  <si>
+    <t>TAGADA
+sucre; sirop de glucose; gélatine; acidifiant: acide citrique; arôme; colorants: curcumine, carmins, carotènes végétaux.
+DRAGIBUS SO
+sirop de glucose; sucre; amidon; dextrose; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate monosodique, malate acide de sodium; arôme; colorants: curcumine, bleu patenté V, charbon végétal, carotènes végétaux, anthocyanes; agent d'enrobage: cire de carnauba.
+HAPPY COLA
+sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique; sirop de caramel; arôme; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba.
+MAO CROQUI
+sucre; sirop de glucose; graisse de palme; humectant: sirop de sorbitol; acidifiant: acide citrique; gélatine; arôme; concentrés de fruits et de plantes: citron, carthame, spiruline, cassis, carotte, radis, pomme; correcteur d'acidité: carbonate acide de sodium; agent d'enrobage: cire d'abeille blanche et jaune; antiagglomérant: talc; sirop de sucre  nverti. Tenir à
+l'abri de la chaleur et de
+l'humidité."
+HAPPY CHERRY
+sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique; arôme; concentrés de fruits et de plantes: pomme, kiwi, épinard, ortie; extrait de fruit (caroube); sirop de sucre inverti; colorant: carmins; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
+GOLDBEARS
+sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique; jus de fruits concentrés: pomme, orange, citron, fraise, framboise, ananas; arôme; concentrés de fruits et de plantes: carthame, spiruline, pomme, kiwi, orange, baie de sureau, citron, mangue, fruit de la passion, cassis, aronie, raisin; agents d'enrobage: cire d'abeille blanche et  jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
+FRAIZIBUS
+sucre; sirop de glucose; amidon; acidifiant: acide citrique; correcteur d'acidité: citrate monosodique; arôme; colorants: curcumine, carotènes végétaux, bleu patenté V, anthocyanes, charbon végétal; agent d'enrobage: cire de carnauba.
+CROCOPIK
+sirop de glucose; sucre; gélatine; dextrose; acidifiants: acide citrique, acide malique; agent d'enrobage: cire de carnauba; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; arôme; concentrés de fruits et de plantes: citron, carthame; sirop de sucre inverti; colorants: bleu patenté V, carotènes végétaux, lutéine, anthocyanes.
+CROCO
+sirop de glucose; sucre; dextrose; gélatine; acidifiant: acide citrique; concentrés de fruits et de plantes: carthame, spiruline, pomme; sirop de sucre inverti; arôme; colorants: carotènes végétaux, lutéine, anthocyanes; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
+LANGUE ACIDE
+sirop de glucose; sucre; amidons transformés; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; agent d'enrobage: cire de carnauba; arôme; concentrés de fruits et de plantes: carthame, citron; colorants: carmins, bleu patenté V, lutéine; sirop de sucre inverti. Tenir à l'abri de la chaleur et de l'humidité."
+WORMS
+sirop de glucose; sucre; eau; gélatine; acidifiant: acide citrique; arôme; concentrés de fruits et de plantes: carthame, spiruline, pomme, kiwi, carotte, hibiscus, cassis, baie de sureau, aronie, raisin, orange, citron, mangue, fruit de la passion; extrait de baie de sureau; sirop de caramel; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba.
+OEUF AU PLAT
+sirop de glucose; sucre; dextrose; gélatine; acidifiant: acide citrique; arôme; colorants: carotènes végétaux, anthocyanes; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
+LES SCHTROUM
+sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique, acide malique, acide tartrique; arôme; colorants: bleu patenté V, charbon végétal, lutéine, carotènes végétaux, anthocyanes; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
+ACADEMY PIK
+sirop de glucose; sucre; gélatine; dextrose; acidifiants: acide citrique, acide malique; agent d'enrobage: cire de carnauba; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; arôme; concentrés de fruits et de plantes: spiruline, patate douce, radis, carthame, citron; sirop de sucre inverti; colorants: anthocyanes, carotènes végétaux, lutéine, bleu patenté V. Tenir à l'abri de la chaleur et de l'humidité."
+CHERRY PIK
+sirop de glucose; sucre; gélatine; dextrose; acidifiants: acide citrique, acide malique; agent d'enrobage: cire de carnauba; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; arôme; concentrés de fruits et de plantes: citron, carthame; colorants: bleu patenté V, anthocyanes; sirop de sucre inverti. Tenir à l'abri de la chaleur et de l'humidité."
+MIAMI PIK
+sucre; sirop de glucose; amidon de maïs; humectant: sirop de sorbitol; farine de blé; eau; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; agent d'enrobage: cire de carnauba; émulsifiant: monoet diglycérides d'acides gras; arôme; concentrés de fruits et de plantes: cassis, baie de sureau, aronie, raisin; extrait de baie de sureau; colorants: curcumine, bleu patenté V.
+FLANBOTTI
+sucre; sirop de glucose; dextrose; gélatine; acidifiant: acide citrique; arôme; sirop de caramel; colorants: charbon végétal, lutéine; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba.
+HAPPY COLA
+sirop de glucose; sucre; gélatine; dextrose; acidifiant: acide citrique; sirop de caramel; arôme; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
+PERSICA
+sucre; sirop de glucose; gélatine; acidifiant: acide citrique; arôme; concentré de fruits et de plantes: citron, carthame, pomme, cassis, baie de sureau, aronie, raisin; extrait de baie de sureau; sirop de sucre inverti. Tenir à l'abri de la chaleur et de l'humidité."
+OASIS
+sirop de glucose; sucre; gélatine; dextrose; jus de fruits concentrés 4,5 % (équivalent fruits 17 %): raisin, pomme, poire, orange, citron; acidifiant: acide citrique; concentrés de fruits et de plantes: carthame, spiruline, pomme; arômes naturels; colorants: carotènes végétaux, lutéine, anthocyanes; sirop de sucre inverti; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba. Tenir à l'abri de la chaleur et de l'humidité."
+LOVE PIK
+sirop de glucose; sucre; humectant: sirop de sorbitol; eau; gélatine; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate tricalcique, malate acide de sodium, citrate trisodique; agent d'enrobage: cire de carnauba; gélifiant: pectine amidée; arôme; concentrés de fruits et de plantes: cassis, baie de sureau, aronie, raisin; extrait de baie de sureau; colorants: bleu patenté V, bleu brillant FCF, anthocyanes. Tenir à l'abri de la chaleur et de l'humidité."
+SUPER FRITES
+sirop de glucose; sucre; gélatine; dextrose; acidifiants: acide citrique, acide malique; agent d'enrobage: cire de carnauba; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; arôme; concentrés de fruits et de plantes: citron, carthame; sirop de sucre inverti; colorants: bleu patenté V, carotènes végétaux, lutéine, anthocyanes.
+LES SCHTROUM
+sirop de glucose; sucre; gélatine; dextrose; acidifiants: acide citrique, acide malique; agent d'enrobage: cire de carnauba; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; arôme; colorants: bleu patenté V, lutéine, anthocyanes.
+DENTIER
+sucre; sirop de glucose; eau; gélatine; acidifiant: acide citrique; arôme; concentré de radis.
+TAGADA PINK
+sucre; sirop de glucose; gélatine; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; agent d'enrobage: cire de carnauba; arôme; colorant: carmins.</t>
+  </si>
+  <si>
+    <t>eau gazéifiée, extraits d'orange, acidifiant: acide citrique, édulcorants: acésulfame K et sucralose, conservateur: sorbate de potassium, arômes naturels d'agrumes avec autres arômes naturels, amidon modifié, antioxydant: acide ascorbique, stabilisant: E445.</t>
+  </si>
+  <si>
+    <t>Croustilles de céréales enrobées de chocolat au lait et de chocolat blanc arôme café
+chocolat blanc arôme café 48% (sucre, beurre de cacao, poudre de lait entier, arômes), chocolat au lait 38% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), sucre glace. 
+Chocolat au lait et blanc: cacao 33% min. Traces éventuelles de : oeufs, fruits à coque.
+Croustilles de céréales enrobées de chocolat au lait et de pâte de spéculoos
+chocolat au lait 68% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), pâte de spéculoos 16% [Spéculoos 60% (farine de blé, sucre, huiles et graisses végétales (palme, colza), sirop de candi, poudres à lever : E500(ii) - carbonate acide d'ammonium, sel, cannelle), huiles et graisses végétales partiellement hydrogénées (tournesol, colza, palme), sucre, émulsifiants : lécithines – E472c, correcteur d’acidité : E330], céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), beurre de cacao, sucre glace, cannelle moulue.
+Chocolat au lait : 33% de cacao min. Traces éventuelles de : oeufs, fruits à coque.
+Croustilles de céréales enrobées de praliné et de chocolat au lait avec praliné grain
+chocolat au lait 65% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), praliné 12% (noisettes 50%, sucre, émulsifiant : lécithines (soja), arôme naturel de vanille), céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), praliné grain 8% (sucre, amandes et noisettes torréfiées), beurre de cacao, agents d’enrobage : E414-E904.
+Chocolat au lait : cacao 33% min. Traces éventuelles de : oeufs, autres fruits à coque.</t>
+  </si>
+  <si>
+    <t>PÂTE À MÂCHER ACIDE, AROMATISÉE : GOÛT FRAMBOISE COLA.
+sirop de glucose ; sucre ; graisse végétale (palme, palmiste) ; acidifiants : acide citrique, acide lactique ; stabilisants : sorbitols, gomme arabique ; malodextrine, colorants : caramel ordinaire, bleu brillant FCF ; arômes ; émulsifiants : E473.
+PÂTE À MÂCHER ACIDE, AROMATISÉE : GOÛT FRAISE POMME.
+Sirop de glucose ; sucre ; graisse végétale (palme, palmiste) ; acidifiants : E330 et E270 ; stabilisants : E414, E420 ; malodextrine ; arômes ; colorants : E100, E141, E163 ; émulsifiant : E473.</t>
+  </si>
+  <si>
+    <t>1 - SUZI WAN Nouilles en pot aux petits légumes 65 g
+nouilles (FARINE DE BLÉ, huile de palme, fécules de pomme de terre, sel, poudre à lever : carbonate de potassium, carbonate de sodium) (84%), arôme naturel, légumes déshydratés (pois, maïs, champignons noirs, poivrons rouge, carottes, oignons en poudre, ail en poudre, épices, ciboulette, sauce SOJA en poudre (graines de SOJA, BLÉ, sel), curry en poudre.
+2 - SUZI WAN Nouilles en pot saveur boeuf et sauce soja 61 g
+nouilles (FARINE DE BLÉ, huile de palme, fécules de pomme de terre, sel, poudre à lever : carbonate de potassium, carbonate de sodium) (89%), arôme naturel, légumes déshydratés (carottes, poivrons rouge, champignons noirs), poudre d’oignon (grillé), ail, curry en poudre, épices, ciboulette, sauce SOJA en poudre (graines de SOJA, BLÉ, sel).
+3 - SUZI WAN Nouilles en pot saveur poulet au curry 62 g
+nouilles (FARINE DE BLÉ, huile de palme, fécules de pomme de terre, sel, poudre à lever : carbonate de potassium, carbonate de sodium) (88%), arôme naturel, légumes déshydratés (carottes, poivrons rouge, curry en poudre, poudre d’oignon (grillé), ail grillé* (ail*, huile de tournesol*), extrait de levure, sel, ciboulette, épices, sauce SOJA en poudre (graines de SOJA, BLÉ, sel). *Certifié biologique.
+4 - SUZI WAN Nouilles en pot saveur crevette 62 g
+nouilles (89%) (farine de BLÉ, huile de palme, fécules de pomme de terre, sel, poudres à lever : carbonate de potassium, carbonate de sodium), arôme naturel, maltodextrine, légumes déshydratés (2.7%) (carotte, champignons noirs, poivron rouge), sauce SOJA en poudre (fèves de SOJA, BLÉ, sel), herbes, sel, épices.</t>
   </si>
 </sst>
 </file>
@@ -5205,8 +5471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C407" sqref="C407"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,7 +5549,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -5291,7 +5557,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1007</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5302,7 +5568,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5313,7 +5579,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5324,7 +5590,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5335,7 +5601,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5346,10 +5612,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -5357,7 +5623,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1013</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5368,7 +5634,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5379,7 +5645,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5390,7 +5656,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5401,7 +5667,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5412,7 +5678,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5423,7 +5689,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5434,7 +5700,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5445,7 +5711,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5456,7 +5722,7 @@
         <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5467,7 +5733,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5478,7 +5744,7 @@
         <v>955</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5489,7 +5755,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -5500,7 +5766,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -5511,7 +5777,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1027</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -5522,7 +5788,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5533,7 +5799,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5544,7 +5810,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5555,7 +5821,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5566,7 +5832,7 @@
         <v>956</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5577,7 +5843,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5588,7 +5854,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5599,7 +5865,7 @@
         <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5610,7 +5876,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5621,7 +5887,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5632,7 +5898,7 @@
         <v>957</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5643,7 +5909,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5654,7 +5920,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5665,7 +5931,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5676,7 +5942,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5687,7 +5953,7 @@
         <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5698,7 +5964,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5709,7 +5975,7 @@
         <v>87</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5720,7 +5986,7 @@
         <v>89</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5731,7 +5997,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5742,7 +6008,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5753,7 +6019,7 @@
         <v>95</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5764,7 +6030,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5775,7 +6041,7 @@
         <v>99</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5786,7 +6052,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -5797,7 +6063,7 @@
         <v>103</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5808,7 +6074,7 @@
         <v>105</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5819,7 +6085,7 @@
         <v>107</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5830,7 +6096,7 @@
         <v>109</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -5841,7 +6107,7 @@
         <v>111</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5852,7 +6118,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5863,7 +6129,7 @@
         <v>115</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5874,7 +6140,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -5885,7 +6151,7 @@
         <v>119</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -5896,7 +6162,7 @@
         <v>121</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5907,7 +6173,7 @@
         <v>958</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5918,7 +6184,7 @@
         <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5929,7 +6195,7 @@
         <v>126</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -5940,7 +6206,7 @@
         <v>128</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5951,7 +6217,7 @@
         <v>130</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="270" x14ac:dyDescent="0.25">
@@ -5962,7 +6228,7 @@
         <v>132</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -5973,7 +6239,7 @@
         <v>134</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6000,7 +6266,7 @@
         <v>139</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6011,10 +6277,10 @@
         <v>141</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>142</v>
       </c>
@@ -6022,7 +6288,7 @@
         <v>143</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1071</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6033,7 +6299,7 @@
         <v>145</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6044,7 +6310,7 @@
         <v>147</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6055,7 +6321,7 @@
         <v>149</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6066,7 +6332,7 @@
         <v>151</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6077,7 +6343,7 @@
         <v>153</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -6088,7 +6354,7 @@
         <v>155</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6099,7 +6365,7 @@
         <v>157</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -6110,7 +6376,7 @@
         <v>159</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6121,7 +6387,7 @@
         <v>161</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -6132,7 +6398,7 @@
         <v>163</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -6143,7 +6409,7 @@
         <v>165</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6154,7 +6420,7 @@
         <v>167</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6165,7 +6431,7 @@
         <v>169</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -6176,7 +6442,7 @@
         <v>171</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -6187,7 +6453,7 @@
         <v>173</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -6198,7 +6464,7 @@
         <v>175</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -6209,7 +6475,7 @@
         <v>177</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -6220,7 +6486,7 @@
         <v>179</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6231,7 +6497,7 @@
         <v>181</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6242,7 +6508,7 @@
         <v>960</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6253,7 +6519,7 @@
         <v>961</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -6280,7 +6546,7 @@
         <v>188</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6291,7 +6557,7 @@
         <v>190</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -6302,7 +6568,7 @@
         <v>192</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -6313,7 +6579,7 @@
         <v>194</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -6324,7 +6590,7 @@
         <v>196</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6335,7 +6601,7 @@
         <v>198</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -6346,7 +6612,7 @@
         <v>200</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -6357,7 +6623,7 @@
         <v>202</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6368,7 +6634,7 @@
         <v>204</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6379,7 +6645,7 @@
         <v>206</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -6390,7 +6656,7 @@
         <v>208</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -6401,7 +6667,7 @@
         <v>210</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -6420,7 +6686,7 @@
         <v>214</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -6431,7 +6697,7 @@
         <v>963</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -6450,7 +6716,7 @@
         <v>219</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -6461,7 +6727,7 @@
         <v>964</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -6472,7 +6738,7 @@
         <v>222</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -6483,7 +6749,7 @@
         <v>224</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6494,7 +6760,7 @@
         <v>226</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -6505,7 +6771,7 @@
         <v>228</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -6516,7 +6782,7 @@
         <v>230</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6527,7 +6793,7 @@
         <v>232</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6538,7 +6804,7 @@
         <v>965</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -6549,7 +6815,7 @@
         <v>235</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6560,7 +6826,7 @@
         <v>237</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6571,7 +6837,7 @@
         <v>239</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6582,7 +6848,7 @@
         <v>241</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -6593,7 +6859,7 @@
         <v>243</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6604,7 +6870,7 @@
         <v>245</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6615,7 +6881,7 @@
         <v>247</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -6626,7 +6892,7 @@
         <v>249</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -6637,7 +6903,7 @@
         <v>251</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6648,7 +6914,7 @@
         <v>253</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6659,7 +6925,7 @@
         <v>966</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6670,7 +6936,7 @@
         <v>256</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6681,7 +6947,7 @@
         <v>258</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -6700,7 +6966,7 @@
         <v>262</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6711,7 +6977,7 @@
         <v>264</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6722,7 +6988,7 @@
         <v>967</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6733,7 +6999,7 @@
         <v>267</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -6744,7 +7010,7 @@
         <v>269</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -6755,7 +7021,7 @@
         <v>271</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -6766,7 +7032,7 @@
         <v>968</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6777,7 +7043,7 @@
         <v>969</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -6788,7 +7054,7 @@
         <v>275</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -6799,7 +7065,7 @@
         <v>277</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6810,7 +7076,7 @@
         <v>279</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -6821,10 +7087,10 @@
         <v>281</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>282</v>
       </c>
@@ -6832,7 +7098,7 @@
         <v>283</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1138</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -6843,7 +7109,7 @@
         <v>285</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -6854,7 +7120,7 @@
         <v>287</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -6873,7 +7139,7 @@
         <v>291</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6884,7 +7150,7 @@
         <v>293</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -6895,7 +7161,7 @@
         <v>295</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6906,7 +7172,7 @@
         <v>297</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -6917,7 +7183,7 @@
         <v>299</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6928,7 +7194,7 @@
         <v>301</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -6939,7 +7205,7 @@
         <v>970</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -6950,7 +7216,7 @@
         <v>304</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -6977,7 +7243,7 @@
         <v>310</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6988,7 +7254,7 @@
         <v>312</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6999,7 +7265,7 @@
         <v>314</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -7018,7 +7284,7 @@
         <v>318</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7029,7 +7295,7 @@
         <v>320</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -7040,7 +7306,7 @@
         <v>322</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7051,7 +7317,7 @@
         <v>324</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7062,7 +7328,7 @@
         <v>326</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7073,7 +7339,7 @@
         <v>328</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -7084,7 +7350,7 @@
         <v>330</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7095,7 +7361,7 @@
         <v>332</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -7106,7 +7372,7 @@
         <v>334</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -7117,7 +7383,7 @@
         <v>971</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -7128,7 +7394,7 @@
         <v>337</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -7147,7 +7413,7 @@
         <v>341</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -7158,7 +7424,7 @@
         <v>343</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -7169,7 +7435,7 @@
         <v>345</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -7180,7 +7446,7 @@
         <v>347</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7191,7 +7457,7 @@
         <v>349</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7202,7 +7468,7 @@
         <v>972</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7213,7 +7479,7 @@
         <v>352</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -7224,7 +7490,7 @@
         <v>354</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7235,7 +7501,7 @@
         <v>356</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -7246,7 +7512,7 @@
         <v>358</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -7257,7 +7523,7 @@
         <v>360</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -7268,7 +7534,7 @@
         <v>362</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7279,7 +7545,7 @@
         <v>364</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -7298,7 +7564,7 @@
         <v>368</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -7317,7 +7583,7 @@
         <v>372</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -7328,7 +7594,7 @@
         <v>374</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -7339,7 +7605,7 @@
         <v>376</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -7350,7 +7616,7 @@
         <v>378</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7361,7 +7627,7 @@
         <v>380</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7372,7 +7638,7 @@
         <v>382</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7383,7 +7649,7 @@
         <v>973</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -7394,7 +7660,7 @@
         <v>385</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7405,7 +7671,7 @@
         <v>387</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7416,7 +7682,7 @@
         <v>389</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7427,7 +7693,7 @@
         <v>391</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -7438,7 +7704,7 @@
         <v>393</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -7449,7 +7715,7 @@
         <v>395</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7460,7 +7726,7 @@
         <v>397</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -7471,7 +7737,7 @@
         <v>399</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -7482,7 +7748,7 @@
         <v>974</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -7493,7 +7759,7 @@
         <v>402</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -7504,7 +7770,7 @@
         <v>404</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -7515,7 +7781,7 @@
         <v>406</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7526,7 +7792,7 @@
         <v>408</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -7537,7 +7803,7 @@
         <v>410</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -7548,7 +7814,7 @@
         <v>412</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -7567,7 +7833,7 @@
         <v>416</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -7586,7 +7852,7 @@
         <v>420</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -7605,7 +7871,7 @@
         <v>424</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -7624,7 +7890,7 @@
         <v>428</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -7635,7 +7901,7 @@
         <v>430</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -7654,7 +7920,7 @@
         <v>434</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -7673,7 +7939,7 @@
         <v>438</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -7684,7 +7950,7 @@
         <v>975</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7695,7 +7961,7 @@
         <v>441</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7706,7 +7972,7 @@
         <v>443</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1207</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7717,7 +7983,7 @@
         <v>445</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7728,7 +7994,7 @@
         <v>447</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -7739,7 +8005,7 @@
         <v>449</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -7750,7 +8016,7 @@
         <v>451</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7761,7 +8027,7 @@
         <v>453</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -7788,7 +8054,7 @@
         <v>458</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -7799,7 +8065,7 @@
         <v>976</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -7810,7 +8076,7 @@
         <v>461</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -7821,7 +8087,7 @@
         <v>463</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7832,7 +8098,7 @@
         <v>465</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7843,7 +8109,7 @@
         <v>977</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -7854,7 +8120,7 @@
         <v>468</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7865,7 +8131,7 @@
         <v>470</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -7876,7 +8142,7 @@
         <v>472</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7887,7 +8153,7 @@
         <v>474</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -7898,7 +8164,7 @@
         <v>476</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -7909,7 +8175,7 @@
         <v>478</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7920,7 +8186,7 @@
         <v>480</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -7931,7 +8197,7 @@
         <v>482</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -7942,7 +8208,7 @@
         <v>484</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7953,7 +8219,7 @@
         <v>486</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -7964,7 +8230,7 @@
         <v>488</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7975,7 +8241,7 @@
         <v>978</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -7986,7 +8252,7 @@
         <v>491</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -7997,7 +8263,7 @@
         <v>493</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -8016,7 +8282,7 @@
         <v>979</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -8027,7 +8293,7 @@
         <v>498</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -8038,7 +8304,7 @@
         <v>500</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -8057,7 +8323,7 @@
         <v>504</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -8076,7 +8342,7 @@
         <v>508</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8087,7 +8353,7 @@
         <v>510</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -8098,7 +8364,7 @@
         <v>512</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8109,7 +8375,7 @@
         <v>514</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -8120,7 +8386,7 @@
         <v>516</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -8131,7 +8397,7 @@
         <v>518</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8142,7 +8408,7 @@
         <v>520</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -8153,7 +8419,7 @@
         <v>522</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -8164,7 +8430,7 @@
         <v>524</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8175,7 +8441,7 @@
         <v>526</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8186,7 +8452,7 @@
         <v>528</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8197,7 +8463,7 @@
         <v>530</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -8208,7 +8474,7 @@
         <v>532</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -8227,7 +8493,7 @@
         <v>535</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -8246,7 +8512,7 @@
         <v>539</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -8265,7 +8531,7 @@
         <v>981</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -8276,7 +8542,7 @@
         <v>544</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8287,7 +8553,7 @@
         <v>546</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -8298,7 +8564,7 @@
         <v>548</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8309,7 +8575,7 @@
         <v>550</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -8320,7 +8586,7 @@
         <v>552</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8331,7 +8597,7 @@
         <v>982</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -8342,7 +8608,7 @@
         <v>555</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -8361,7 +8627,7 @@
         <v>559</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8372,7 +8638,7 @@
         <v>561</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -8383,7 +8649,7 @@
         <v>563</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8394,7 +8660,7 @@
         <v>565</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -8405,7 +8671,7 @@
         <v>567</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8416,7 +8682,7 @@
         <v>569</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8427,7 +8693,7 @@
         <v>571</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -8438,7 +8704,7 @@
         <v>573</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8449,7 +8715,7 @@
         <v>575</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8460,7 +8726,7 @@
         <v>577</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8471,7 +8737,7 @@
         <v>983</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8482,7 +8748,7 @@
         <v>580</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -8493,7 +8759,7 @@
         <v>582</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8504,7 +8770,7 @@
         <v>584</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -8515,7 +8781,7 @@
         <v>586</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -8526,7 +8792,7 @@
         <v>588</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -8537,7 +8803,7 @@
         <v>590</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -8556,7 +8822,7 @@
         <v>594</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8567,7 +8833,7 @@
         <v>596</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -8578,7 +8844,7 @@
         <v>598</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8589,7 +8855,7 @@
         <v>600</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8600,7 +8866,7 @@
         <v>602</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8611,7 +8877,7 @@
         <v>984</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8622,7 +8888,7 @@
         <v>605</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -8641,7 +8907,7 @@
         <v>608</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8652,7 +8918,7 @@
         <v>610</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8663,7 +8929,7 @@
         <v>612</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -8674,7 +8940,7 @@
         <v>986</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8685,7 +8951,7 @@
         <v>615</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -8696,7 +8962,7 @@
         <v>617</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -8707,7 +8973,7 @@
         <v>619</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8718,7 +8984,7 @@
         <v>621</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8729,7 +8995,7 @@
         <v>623</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -8748,7 +9014,7 @@
         <v>627</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8759,7 +9025,7 @@
         <v>629</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -8770,7 +9036,7 @@
         <v>631</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -8781,7 +9047,7 @@
         <v>633</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -8792,7 +9058,7 @@
         <v>635</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8803,7 +9069,7 @@
         <v>637</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8814,7 +9080,7 @@
         <v>639</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -8825,7 +9091,7 @@
         <v>641</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -8836,7 +9102,7 @@
         <v>643</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8847,7 +9113,7 @@
         <v>987</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -8866,7 +9132,7 @@
         <v>648</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -8877,7 +9143,7 @@
         <v>650</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -8888,7 +9154,7 @@
         <v>652</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8899,7 +9165,7 @@
         <v>654</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8910,7 +9176,7 @@
         <v>656</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -8921,7 +9187,7 @@
         <v>658</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8932,7 +9198,7 @@
         <v>988</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -8943,7 +9209,7 @@
         <v>661</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8954,7 +9220,7 @@
         <v>663</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8965,7 +9231,7 @@
         <v>665</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -8976,7 +9242,7 @@
         <v>989</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8987,7 +9253,7 @@
         <v>668</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8998,7 +9264,7 @@
         <v>670</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -9009,7 +9275,7 @@
         <v>990</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9020,7 +9286,7 @@
         <v>673</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -9031,7 +9297,7 @@
         <v>675</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9042,7 +9308,7 @@
         <v>991</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -9053,7 +9319,7 @@
         <v>678</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -9064,7 +9330,7 @@
         <v>680</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9075,7 +9341,7 @@
         <v>682</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -9086,7 +9352,7 @@
         <v>684</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -9097,7 +9363,7 @@
         <v>686</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -9108,7 +9374,7 @@
         <v>688</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9119,7 +9385,7 @@
         <v>690</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9130,7 +9396,7 @@
         <v>692</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -9141,7 +9407,7 @@
         <v>694</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -9160,7 +9426,7 @@
         <v>698</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9171,7 +9437,7 @@
         <v>700</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9182,7 +9448,7 @@
         <v>702</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9193,7 +9459,7 @@
         <v>704</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -9204,7 +9470,7 @@
         <v>706</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -9215,7 +9481,7 @@
         <v>708</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9226,7 +9492,7 @@
         <v>710</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9237,7 +9503,7 @@
         <v>712</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -9248,7 +9514,7 @@
         <v>714</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -9259,7 +9525,7 @@
         <v>716</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9270,7 +9536,7 @@
         <v>718</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -9281,7 +9547,7 @@
         <v>720</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9292,7 +9558,7 @@
         <v>722</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -9303,7 +9569,7 @@
         <v>724</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -9314,7 +9580,7 @@
         <v>992</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -9325,7 +9591,7 @@
         <v>993</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -9336,7 +9602,7 @@
         <v>728</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -9347,7 +9613,7 @@
         <v>730</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -9358,7 +9624,7 @@
         <v>732</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9369,7 +9635,7 @@
         <v>734</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -9380,7 +9646,7 @@
         <v>736</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -9399,7 +9665,7 @@
         <v>740</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9410,7 +9676,7 @@
         <v>742</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -9421,7 +9687,7 @@
         <v>744</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -9432,7 +9698,7 @@
         <v>746</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -9443,7 +9709,7 @@
         <v>748</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -9454,7 +9720,7 @@
         <v>750</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9465,7 +9731,7 @@
         <v>752</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -9484,7 +9750,7 @@
         <v>756</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -9495,7 +9761,7 @@
         <v>758</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9506,7 +9772,7 @@
         <v>994</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -9533,7 +9799,7 @@
         <v>765</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -9544,7 +9810,7 @@
         <v>767</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -9555,7 +9821,7 @@
         <v>769</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -9566,15 +9832,18 @@
         <v>771</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>772</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>773</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -9584,13 +9853,19 @@
       <c r="B408" s="1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C408" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>776</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>777</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -9600,6 +9875,9 @@
       <c r="B410" s="1" t="s">
         <v>779</v>
       </c>
+      <c r="C410" s="1" t="s">
+        <v>1360</v>
+      </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
@@ -9608,13 +9886,19 @@
       <c r="B411" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C411" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>782</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>783</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -9624,21 +9908,30 @@
       <c r="B413" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C413" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>786</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C414" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>788</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>789</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -9649,7 +9942,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>792</v>
       </c>
@@ -9657,23 +9950,29 @@
         <v>793</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>794</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C418" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>796</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C419" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>798</v>
       </c>
@@ -9681,63 +9980,84 @@
         <v>799</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>800</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C421" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>802</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C422" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>803</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C423" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>805</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C424" s="1" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>807</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C425" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>809</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C426" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>811</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C427" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>813</v>
       </c>
@@ -9745,79 +10065,106 @@
         <v>814</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>815</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C429" s="1" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>817</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C430" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>819</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C431" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>821</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C432" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>823</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C433" s="1" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>825</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C434" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>827</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C435" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>829</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C436" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>831</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C437" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>833</v>
       </c>
@@ -9825,47 +10172,62 @@
         <v>834</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>835</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C439" s="1" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>837</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C440" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>839</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C441" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>841</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C442" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>842</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C443" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>844</v>
       </c>
@@ -9873,39 +10235,51 @@
         <v>997</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>845</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C445" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>847</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C446" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>849</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C447" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>851</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C448" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>853</v>
       </c>
@@ -9913,7 +10287,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>855</v>
       </c>
@@ -9921,87 +10295,117 @@
         <v>856</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>857</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C451" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>859</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C452" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>861</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C453" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>863</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C454" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>865</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C455" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>867</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C456" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>869</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C457" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>871</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C458" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>873</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C459" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>875</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C460" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>876</v>
       </c>
@@ -10009,7 +10413,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>878</v>
       </c>
@@ -10017,31 +10421,40 @@
         <v>879</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>880</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C463" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>882</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C464" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>884</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C465" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>886</v>
       </c>
@@ -10049,71 +10462,95 @@
         <v>887</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>888</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C467" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>890</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C468" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>892</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C469" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>893</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C470" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>894</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C471" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>896</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C472" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>898</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C473" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>900</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C474" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>902</v>
       </c>
@@ -10121,23 +10558,29 @@
         <v>903</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>904</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C476" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>906</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C477" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>908</v>
       </c>
@@ -10145,23 +10588,29 @@
         <v>909</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>910</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C479" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>912</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C480" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>914</v>
       </c>
@@ -10169,55 +10618,73 @@
         <v>915</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>916</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C482" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>918</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C483" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>920</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C484" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>922</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C485" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>924</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C486" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>926</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C487" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>928</v>
       </c>
@@ -10225,108 +10692,147 @@
         <v>929</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>930</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C489" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>932</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C490" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>934</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C491" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>935</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C492" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>937</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C493" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>939</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C494" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>941</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C495" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>943</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C496" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>944</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C497" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>946</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C498" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>947</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C499" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>949</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C500" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>951</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>1004</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1431</v>
       </c>
     </row>
   </sheetData>

--- a/ground_truth/manually_labelled_ground_truth.xlsx
+++ b/ground_truth/manually_labelled_ground_truth.xlsx
@@ -3339,14 +3339,6 @@
   </si>
   <si>
     <t>Tomate (46%), oignons, poivrons rouges, sucre, vinaigre d’alcool, mélasse, vinaigre balsamique, sel, épices.</t>
-  </si>
-  <si>
-    <t>Les Classiques :
-– Semoule de blé dur de qualité supérieure, oeufs frais (13,9% soit 140g/kg de semoule)
-– Contient du gluten
-Les Spécialités :
-– Semoule de blé dur de qualité supérieure, oeufs frais (19,4%)
-– Contient du gluten</t>
   </si>
   <si>
     <t>Chair de crabe (crustacés), eau, sucre, sel, exhausteurs de goût : E640, E631 , E627, acidifiant : E330, antioxydants : E223 (disulfite de sodium), E385.</t>
@@ -4218,9 +4210,6 @@
     <t>paprika, poivre noir, coriandre, cumin, ail semoule, carvi noir cannelle, clou de girofle, muscade</t>
   </si>
   <si>
-    <t>Sucre – Blancs d'OEUFS - AMANDES en poudre 14% - BEURRE pâtissier 13% -Farine de BLÉ - Stabilisant : sorbitol -Sel - Arôme naturel -Poudres à lever : diphosphates, carbonates de sodium .</t>
-  </si>
-  <si>
     <t>Sucre, dextrose, maltodextrine, stabilisants (E460, E450, E516, E401, E404), épaississant (E407), arôme naturel (lait). Peut contenir : fruits à coque, oeuf, soja et gluten.</t>
   </si>
   <si>
@@ -4228,9 +4217,6 @@
   </si>
   <si>
     <t>Eau, haricots verts, sel.</t>
-  </si>
-  <si>
-    <t>Menthe poivrée, Mélisse, Verveine, Menthe nanah, Feuille d’oranger, Bouton d’oranger, Pétales d’oranger, Ecorces d’oranger, Vanille gousse – issus de l’agriculture biologique</t>
   </si>
   <si>
     <t>Farine 83,4 % (Blé (GLUTEN), Blé hydrolysé (GLUTEN)) - Sucre - Caramel - Arômes - Vitamines (C, B1)</t>
@@ -4421,9 +4407,6 @@
   </si>
   <si>
     <t>Farine de BLÉ 20% - Huile de colza - OEUFS entiers 17,5% - Sucre - Graines de tournesol caramélisées (graines de tournesol 3,5%, sucre) - Stabilisant : glycérol - Farine de BLÉ complet 4,5% - Poudres à lever : diphosphates, carbonates de sodium - Flocons d'AVOINE 1% - Poudre de LAIT écrémé - Protéines de LAIT - Emulsifiants : mono- et diglycérides d'acides gras (origine végétale) - Sel - Arômes naturels (contient alcool).</t>
-  </si>
-  <si>
-    <t>– 100% Semoule de blé dur de qualité supérieure</t>
   </si>
   <si>
     <t>Farine de FROMENT, farine de SEIGLE, sel, levain de SEIGLE déshydraté désactivé, émulsifiant : E471, farine de malt de SEIGLE, farine maltée de FROMENT, farine maltée d'ORGE, dextrose, agents de traitement de la farine : E300, enzymes.</t>
@@ -4492,10 +4475,6 @@
   <si>
     <t>Amidon de maïs* - Lait écrémé* - Sel - Fécule de pomme de terre* - Tomate* - Oignon* - Arômes naturels - Poivres* 3 % (poivre vert*, poivre blanc*, poivre noir*) - Huile de tournesol* - Extrait de levure* - Sucre caramélisé* - Ail* - Maltodextrine de maïs*.
 * issus de l’agriculture biologique</t>
-  </si>
-  <si>
-    <t>chocolat au lait (38%)(sucre, beurre de cacao, pâte de cacao, lait écrémé en poudre, beurre pâtissier, émulsifiant: lécithine de soja, arôme) - farine de blé - sucre - graisse végétale (palme, colza) - sel - lactose et protéines de lait - lait entier en poudre - émulsifiant: lécithine de soja - poudres à lever: carbonates de sodium, carbonates d'ammonium, diphosphate disodique - noix de coco - arôme – oeuf entier en poudre.
-Peut contenir des traces de sésame, de fruits à coque, d’avoine, d’orge et d’autres glutens.</t>
   </si>
   <si>
     <t>Graisse végétale (palme)</t>
@@ -4632,17 +4611,6 @@
     <t>eau gazéifiée, extraits d'orange, acidifiant: acide citrique, édulcorants: acésulfame K et sucralose, conservateur: sorbate de potassium, arômes naturels d'agrumes avec autres arômes naturels, amidon modifié, antioxydant: acide ascorbique, stabilisant: E445.</t>
   </si>
   <si>
-    <t>Croustilles de céréales enrobées de chocolat au lait et de chocolat blanc arôme café
-chocolat blanc arôme café 48% (sucre, beurre de cacao, poudre de lait entier, arômes), chocolat au lait 38% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), sucre glace. 
-Chocolat au lait et blanc: cacao 33% min. Traces éventuelles de : oeufs, fruits à coque.
-Croustilles de céréales enrobées de chocolat au lait et de pâte de spéculoos
-chocolat au lait 68% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), pâte de spéculoos 16% [Spéculoos 60% (farine de blé, sucre, huiles et graisses végétales (palme, colza), sirop de candi, poudres à lever : E500(ii) - carbonate acide d'ammonium, sel, cannelle), huiles et graisses végétales partiellement hydrogénées (tournesol, colza, palme), sucre, émulsifiants : lécithines – E472c, correcteur d’acidité : E330], céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), beurre de cacao, sucre glace, cannelle moulue.
-Chocolat au lait : 33% de cacao min. Traces éventuelles de : oeufs, fruits à coque.
-Croustilles de céréales enrobées de praliné et de chocolat au lait avec praliné grain
-chocolat au lait 65% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), praliné 12% (noisettes 50%, sucre, émulsifiant : lécithines (soja), arôme naturel de vanille), céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), praliné grain 8% (sucre, amandes et noisettes torréfiées), beurre de cacao, agents d’enrobage : E414-E904.
-Chocolat au lait : cacao 33% min. Traces éventuelles de : oeufs, autres fruits à coque.</t>
-  </si>
-  <si>
     <t>PÂTE À MÂCHER ACIDE, AROMATISÉE : GOÛT FRAMBOISE COLA.
 sirop de glucose ; sucre ; graisse végétale (palme, palmiste) ; acidifiants : acide citrique, acide lactique ; stabilisants : sorbitols, gomme arabique ; malodextrine, colorants : caramel ordinaire, bleu brillant FCF ; arômes ; émulsifiants : E473.
 PÂTE À MÂCHER ACIDE, AROMATISÉE : GOÛT FRAISE POMME.
@@ -4657,6 +4625,38 @@
 nouilles (FARINE DE BLÉ, huile de palme, fécules de pomme de terre, sel, poudre à lever : carbonate de potassium, carbonate de sodium) (88%), arôme naturel, légumes déshydratés (carottes, poivrons rouge, curry en poudre, poudre d’oignon (grillé), ail grillé* (ail*, huile de tournesol*), extrait de levure, sel, ciboulette, épices, sauce SOJA en poudre (graines de SOJA, BLÉ, sel). *Certifié biologique.
 4 - SUZI WAN Nouilles en pot saveur crevette 62 g
 nouilles (89%) (farine de BLÉ, huile de palme, fécules de pomme de terre, sel, poudres à lever : carbonate de potassium, carbonate de sodium), arôme naturel, maltodextrine, légumes déshydratés (2.7%) (carotte, champignons noirs, poivron rouge), sauce SOJA en poudre (fèves de SOJA, BLÉ, sel), herbes, sel, épices.</t>
+  </si>
+  <si>
+    <t>Croustilles de céréales enrobées de chocolat au lait et de chocolat blanc arôme café
+chocolat blanc arôme café 48% (sucre, beurre de cacao, poudre de lait entier, arômes), chocolat au lait 38% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), sucre glace. 
+Chocolat au lait et blanc: cacao 33% min. Traces éventuelles de : oeufs, fruits à coque.
+Croustilles de céréales enrobées de chocolat au lait et de pâte de spéculoos
+chocolat au lait 68% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), pâte de spéculoos 16% [Spéculoos 60% (farine de blé, sucre, huiles et graisses végétales (palme, colza), sirop de candi, poudres à lever : E500(ii) - carbonate acide d'ammonium, sel, cannelle), huiles et graisses végétales partiellement hydrogénées (tournesol, colza, palme), sucre, émulsifiants : lécithines - E472c, correcteur d’acidité : E330], céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), beurre de cacao, sucre glace, cannelle moulue.
+Chocolat au lait : 33% de cacao min. Traces éventuelles de : oeufs, fruits à coque.
+Croustilles de céréales enrobées de praliné et de chocolat au lait avec praliné grain
+chocolat au lait 65% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), praliné 12% (noisettes 50%, sucre, émulsifiant : lécithines (soja), arôme naturel de vanille), céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), praliné grain 8% (sucre, amandes et noisettes torréfiées), beurre de cacao, agents d’enrobage : E414-E904.
+Chocolat au lait : cacao 33% min. Traces éventuelles de : oeufs, autres fruits à coque.</t>
+  </si>
+  <si>
+    <t>Les Classiques :
+- Semoule de blé dur de qualité supérieure, oeufs frais (13,9% soit 140g/kg de semoule)
+- Contient du gluten
+Les Spécialités :
+- Semoule de blé dur de qualité supérieure, oeufs frais (19,4%)
+- Contient du gluten</t>
+  </si>
+  <si>
+    <t>Sucre - Blancs d'OEUFS - AMANDES en poudre 14% - BEURRE pâtissier 13% -Farine de BLÉ - Stabilisant : sorbitol -Sel - Arôme naturel -Poudres à lever : diphosphates, carbonates de sodium .</t>
+  </si>
+  <si>
+    <t>Menthe poivrée, Mélisse, Verveine, Menthe nanah, Feuille d’oranger, Bouton d’oranger, Pétales d’oranger, Ecorces d’oranger, Vanille gousse - issus de l’agriculture biologique</t>
+  </si>
+  <si>
+    <t>- 100% Semoule de blé dur de qualité supérieure</t>
+  </si>
+  <si>
+    <t>chocolat au lait (38%)(sucre, beurre de cacao, pâte de cacao, lait écrémé en poudre, beurre pâtissier, émulsifiant: lécithine de soja, arôme) - farine de blé - sucre - graisse végétale (palme, colza) - sel - lactose et protéines de lait - lait entier en poudre - émulsifiant: lécithine de soja - poudres à lever: carbonates de sodium, carbonates d'ammonium, diphosphate disodique - noix de coco - arôme - oeuf entier en poudre.
+Peut contenir des traces de sésame, de fruits à coque, d’avoine, d’orge et d’autres glutens.</t>
   </si>
 </sst>
 </file>
@@ -5471,8 +5471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5557,7 +5557,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5623,7 +5623,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5777,7 +5777,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -5964,7 +5964,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6288,7 +6288,7 @@
         <v>143</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6546,7 +6546,7 @@
         <v>188</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6568,7 +6568,7 @@
         <v>192</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -6579,7 +6579,7 @@
         <v>194</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1090</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -6601,7 +6601,7 @@
         <v>198</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -6612,7 +6612,7 @@
         <v>200</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -6623,7 +6623,7 @@
         <v>202</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6634,7 +6634,7 @@
         <v>204</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6645,7 +6645,7 @@
         <v>206</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -6667,7 +6667,7 @@
         <v>210</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -6697,7 +6697,7 @@
         <v>963</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -6716,7 +6716,7 @@
         <v>219</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -6727,7 +6727,7 @@
         <v>964</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -6738,7 +6738,7 @@
         <v>222</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -6749,7 +6749,7 @@
         <v>224</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6760,7 +6760,7 @@
         <v>226</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -6771,7 +6771,7 @@
         <v>228</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -6782,7 +6782,7 @@
         <v>230</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6793,7 +6793,7 @@
         <v>232</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6804,7 +6804,7 @@
         <v>965</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -6815,7 +6815,7 @@
         <v>235</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6826,7 +6826,7 @@
         <v>237</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6837,7 +6837,7 @@
         <v>239</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6848,7 +6848,7 @@
         <v>241</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -6859,7 +6859,7 @@
         <v>243</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6870,7 +6870,7 @@
         <v>245</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6881,7 +6881,7 @@
         <v>247</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -6892,7 +6892,7 @@
         <v>249</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -6903,7 +6903,7 @@
         <v>251</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6914,7 +6914,7 @@
         <v>253</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6925,7 +6925,7 @@
         <v>966</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6936,7 +6936,7 @@
         <v>256</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6947,7 +6947,7 @@
         <v>258</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -6966,7 +6966,7 @@
         <v>262</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6977,7 +6977,7 @@
         <v>264</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6988,7 +6988,7 @@
         <v>967</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6999,7 +6999,7 @@
         <v>267</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -7010,7 +7010,7 @@
         <v>269</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -7021,7 +7021,7 @@
         <v>271</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -7032,7 +7032,7 @@
         <v>968</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7043,7 +7043,7 @@
         <v>969</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -7054,7 +7054,7 @@
         <v>275</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -7065,7 +7065,7 @@
         <v>277</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7076,7 +7076,7 @@
         <v>279</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
         <v>281</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -7098,7 +7098,7 @@
         <v>283</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -7109,7 +7109,7 @@
         <v>285</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -7120,7 +7120,7 @@
         <v>287</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -7139,7 +7139,7 @@
         <v>291</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7150,7 +7150,7 @@
         <v>293</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -7161,7 +7161,7 @@
         <v>295</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -7172,7 +7172,7 @@
         <v>297</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -7183,7 +7183,7 @@
         <v>299</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7194,7 +7194,7 @@
         <v>301</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -7205,7 +7205,7 @@
         <v>970</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -7216,7 +7216,7 @@
         <v>304</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -7243,7 +7243,7 @@
         <v>310</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7254,7 +7254,7 @@
         <v>312</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7265,7 +7265,7 @@
         <v>314</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
         <v>318</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7295,7 +7295,7 @@
         <v>320</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -7306,7 +7306,7 @@
         <v>322</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7317,7 +7317,7 @@
         <v>324</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7328,7 +7328,7 @@
         <v>326</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7339,7 +7339,7 @@
         <v>328</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -7350,7 +7350,7 @@
         <v>330</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7361,7 +7361,7 @@
         <v>332</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -7372,7 +7372,7 @@
         <v>334</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -7383,7 +7383,7 @@
         <v>971</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -7394,7 +7394,7 @@
         <v>337</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -7413,7 +7413,7 @@
         <v>341</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -7424,7 +7424,7 @@
         <v>343</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -7435,7 +7435,7 @@
         <v>345</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -7446,7 +7446,7 @@
         <v>347</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7457,7 +7457,7 @@
         <v>349</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7468,7 +7468,7 @@
         <v>972</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7479,7 +7479,7 @@
         <v>352</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -7490,7 +7490,7 @@
         <v>354</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7501,7 +7501,7 @@
         <v>356</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -7512,7 +7512,7 @@
         <v>358</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -7523,7 +7523,7 @@
         <v>360</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -7545,7 +7545,7 @@
         <v>364</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -7564,7 +7564,7 @@
         <v>368</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -7583,7 +7583,7 @@
         <v>372</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -7594,7 +7594,7 @@
         <v>374</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -7605,7 +7605,7 @@
         <v>376</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -7616,7 +7616,7 @@
         <v>378</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7627,7 +7627,7 @@
         <v>380</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7638,7 +7638,7 @@
         <v>382</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7649,7 +7649,7 @@
         <v>973</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -7660,7 +7660,7 @@
         <v>385</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7671,7 +7671,7 @@
         <v>387</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7682,7 +7682,7 @@
         <v>389</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7693,7 +7693,7 @@
         <v>391</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -7704,7 +7704,7 @@
         <v>393</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -7715,7 +7715,7 @@
         <v>395</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7726,7 +7726,7 @@
         <v>397</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -7737,7 +7737,7 @@
         <v>399</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -7748,7 +7748,7 @@
         <v>974</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -7759,7 +7759,7 @@
         <v>402</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -7770,7 +7770,7 @@
         <v>404</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -7781,7 +7781,7 @@
         <v>406</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7792,7 +7792,7 @@
         <v>408</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -7803,7 +7803,7 @@
         <v>410</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -7814,7 +7814,7 @@
         <v>412</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -7833,7 +7833,7 @@
         <v>416</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -7852,7 +7852,7 @@
         <v>420</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -7871,7 +7871,7 @@
         <v>424</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -7890,7 +7890,7 @@
         <v>428</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -7901,7 +7901,7 @@
         <v>430</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -7920,7 +7920,7 @@
         <v>434</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -7939,7 +7939,7 @@
         <v>438</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -7950,7 +7950,7 @@
         <v>975</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7961,7 +7961,7 @@
         <v>441</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7972,7 +7972,7 @@
         <v>443</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7983,7 +7983,7 @@
         <v>445</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7994,7 +7994,7 @@
         <v>447</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -8005,7 +8005,7 @@
         <v>449</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -8016,7 +8016,7 @@
         <v>451</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8027,7 +8027,7 @@
         <v>453</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -8054,7 +8054,7 @@
         <v>458</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -8065,7 +8065,7 @@
         <v>976</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -8076,7 +8076,7 @@
         <v>461</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -8087,7 +8087,7 @@
         <v>463</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8098,7 +8098,7 @@
         <v>465</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8109,7 +8109,7 @@
         <v>977</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -8120,7 +8120,7 @@
         <v>468</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8131,7 +8131,7 @@
         <v>470</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -8142,7 +8142,7 @@
         <v>472</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8153,7 +8153,7 @@
         <v>474</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -8164,7 +8164,7 @@
         <v>476</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -8175,7 +8175,7 @@
         <v>478</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8186,7 +8186,7 @@
         <v>480</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -8197,7 +8197,7 @@
         <v>482</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -8208,7 +8208,7 @@
         <v>484</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8219,7 +8219,7 @@
         <v>486</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -8230,7 +8230,7 @@
         <v>488</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8241,7 +8241,7 @@
         <v>978</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -8252,7 +8252,7 @@
         <v>491</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -8263,7 +8263,7 @@
         <v>493</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -8282,7 +8282,7 @@
         <v>979</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -8293,7 +8293,7 @@
         <v>498</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -8304,7 +8304,7 @@
         <v>500</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -8323,7 +8323,7 @@
         <v>504</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -8342,7 +8342,7 @@
         <v>508</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8353,7 +8353,7 @@
         <v>510</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -8364,7 +8364,7 @@
         <v>512</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8375,7 +8375,7 @@
         <v>514</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -8386,7 +8386,7 @@
         <v>516</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -8397,7 +8397,7 @@
         <v>518</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8408,7 +8408,7 @@
         <v>520</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -8419,7 +8419,7 @@
         <v>522</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -8441,7 +8441,7 @@
         <v>526</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8452,7 +8452,7 @@
         <v>528</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8463,7 +8463,7 @@
         <v>530</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -8474,7 +8474,7 @@
         <v>532</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -8493,7 +8493,7 @@
         <v>535</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -8512,7 +8512,7 @@
         <v>539</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -8531,7 +8531,7 @@
         <v>981</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -8542,7 +8542,7 @@
         <v>544</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8553,7 +8553,7 @@
         <v>546</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -8564,7 +8564,7 @@
         <v>548</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8575,7 +8575,7 @@
         <v>550</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -8586,7 +8586,7 @@
         <v>552</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8597,7 +8597,7 @@
         <v>982</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -8608,7 +8608,7 @@
         <v>555</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -8627,7 +8627,7 @@
         <v>559</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8638,7 +8638,7 @@
         <v>561</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -8649,7 +8649,7 @@
         <v>563</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8660,7 +8660,7 @@
         <v>565</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -8671,7 +8671,7 @@
         <v>567</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8682,7 +8682,7 @@
         <v>569</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8693,7 +8693,7 @@
         <v>571</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -8704,7 +8704,7 @@
         <v>573</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8715,7 +8715,7 @@
         <v>575</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8726,7 +8726,7 @@
         <v>577</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8737,7 +8737,7 @@
         <v>983</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8748,7 +8748,7 @@
         <v>580</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -8759,7 +8759,7 @@
         <v>582</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8770,7 +8770,7 @@
         <v>584</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -8781,7 +8781,7 @@
         <v>586</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -8792,7 +8792,7 @@
         <v>588</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -8803,7 +8803,7 @@
         <v>590</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -8822,7 +8822,7 @@
         <v>594</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8833,7 +8833,7 @@
         <v>596</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -8844,7 +8844,7 @@
         <v>598</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8855,7 +8855,7 @@
         <v>600</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8866,7 +8866,7 @@
         <v>602</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8877,7 +8877,7 @@
         <v>984</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8888,7 +8888,7 @@
         <v>605</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -8907,7 +8907,7 @@
         <v>608</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8918,7 +8918,7 @@
         <v>610</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8929,7 +8929,7 @@
         <v>612</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -8940,7 +8940,7 @@
         <v>986</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8951,7 +8951,7 @@
         <v>615</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -8962,7 +8962,7 @@
         <v>617</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -8973,7 +8973,7 @@
         <v>619</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8984,7 +8984,7 @@
         <v>621</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8995,7 +8995,7 @@
         <v>623</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -9014,7 +9014,7 @@
         <v>627</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9025,7 +9025,7 @@
         <v>629</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -9036,7 +9036,7 @@
         <v>631</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -9047,7 +9047,7 @@
         <v>633</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -9058,7 +9058,7 @@
         <v>635</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9069,7 +9069,7 @@
         <v>637</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9080,7 +9080,7 @@
         <v>639</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -9091,7 +9091,7 @@
         <v>641</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -9102,7 +9102,7 @@
         <v>643</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9113,7 +9113,7 @@
         <v>987</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -9132,7 +9132,7 @@
         <v>648</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -9143,7 +9143,7 @@
         <v>650</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -9154,7 +9154,7 @@
         <v>652</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9165,7 +9165,7 @@
         <v>654</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9176,7 +9176,7 @@
         <v>656</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -9187,7 +9187,7 @@
         <v>658</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9198,7 +9198,7 @@
         <v>988</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -9209,7 +9209,7 @@
         <v>661</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9220,7 +9220,7 @@
         <v>663</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -9231,7 +9231,7 @@
         <v>665</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -9242,7 +9242,7 @@
         <v>989</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9253,7 +9253,7 @@
         <v>668</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9264,7 +9264,7 @@
         <v>670</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -9275,7 +9275,7 @@
         <v>990</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9286,7 +9286,7 @@
         <v>673</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -9297,7 +9297,7 @@
         <v>675</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9308,7 +9308,7 @@
         <v>991</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -9319,7 +9319,7 @@
         <v>678</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -9330,7 +9330,7 @@
         <v>680</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9341,7 +9341,7 @@
         <v>682</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -9352,7 +9352,7 @@
         <v>684</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -9363,7 +9363,7 @@
         <v>686</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -9374,7 +9374,7 @@
         <v>688</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9385,7 +9385,7 @@
         <v>690</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9396,7 +9396,7 @@
         <v>692</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -9407,7 +9407,7 @@
         <v>694</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -9426,7 +9426,7 @@
         <v>698</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9437,7 +9437,7 @@
         <v>700</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9448,7 +9448,7 @@
         <v>702</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9459,7 +9459,7 @@
         <v>704</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -9470,7 +9470,7 @@
         <v>706</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -9481,7 +9481,7 @@
         <v>708</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9492,7 +9492,7 @@
         <v>710</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9503,7 +9503,7 @@
         <v>712</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -9514,7 +9514,7 @@
         <v>714</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -9525,7 +9525,7 @@
         <v>716</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9536,7 +9536,7 @@
         <v>718</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -9547,7 +9547,7 @@
         <v>720</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9558,7 +9558,7 @@
         <v>722</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1334</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -9569,7 +9569,7 @@
         <v>724</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -9580,7 +9580,7 @@
         <v>992</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -9591,7 +9591,7 @@
         <v>993</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -9602,7 +9602,7 @@
         <v>728</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1338</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -9613,7 +9613,7 @@
         <v>730</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -9624,7 +9624,7 @@
         <v>732</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9635,7 +9635,7 @@
         <v>734</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -9646,7 +9646,7 @@
         <v>736</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -9665,7 +9665,7 @@
         <v>740</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9676,7 +9676,7 @@
         <v>742</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -9687,7 +9687,7 @@
         <v>744</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -9698,7 +9698,7 @@
         <v>746</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -9709,7 +9709,7 @@
         <v>748</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -9720,7 +9720,7 @@
         <v>750</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9731,7 +9731,7 @@
         <v>752</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -9750,7 +9750,7 @@
         <v>756</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -9761,7 +9761,7 @@
         <v>758</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9772,7 +9772,7 @@
         <v>994</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -9799,7 +9799,7 @@
         <v>765</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -9810,7 +9810,7 @@
         <v>767</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -9821,7 +9821,7 @@
         <v>769</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -9832,7 +9832,7 @@
         <v>771</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9843,7 +9843,7 @@
         <v>773</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -9854,7 +9854,7 @@
         <v>775</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9865,7 +9865,7 @@
         <v>777</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -9876,7 +9876,7 @@
         <v>779</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -9887,7 +9887,7 @@
         <v>781</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9898,7 +9898,7 @@
         <v>783</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -9909,7 +9909,7 @@
         <v>785</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9920,7 +9920,7 @@
         <v>787</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9931,7 +9931,7 @@
         <v>789</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -9958,7 +9958,7 @@
         <v>795</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9969,7 +9969,7 @@
         <v>797</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -9988,7 +9988,7 @@
         <v>801</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -9999,7 +9999,7 @@
         <v>995</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -10010,7 +10010,7 @@
         <v>804</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -10021,7 +10021,7 @@
         <v>806</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -10032,7 +10032,7 @@
         <v>808</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10043,7 +10043,7 @@
         <v>810</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -10054,7 +10054,7 @@
         <v>812</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -10073,7 +10073,7 @@
         <v>816</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10084,7 +10084,7 @@
         <v>818</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -10095,7 +10095,7 @@
         <v>820</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -10106,7 +10106,7 @@
         <v>822</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10117,7 +10117,7 @@
         <v>824</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10128,7 +10128,7 @@
         <v>826</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -10139,7 +10139,7 @@
         <v>828</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10150,7 +10150,7 @@
         <v>830</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10161,7 +10161,7 @@
         <v>832</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -10180,7 +10180,7 @@
         <v>836</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10191,7 +10191,7 @@
         <v>838</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10202,7 +10202,7 @@
         <v>840</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -10213,7 +10213,7 @@
         <v>996</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -10224,7 +10224,7 @@
         <v>843</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -10243,7 +10243,7 @@
         <v>846</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10254,7 +10254,7 @@
         <v>848</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -10265,7 +10265,7 @@
         <v>850</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -10276,7 +10276,7 @@
         <v>852</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -10303,7 +10303,7 @@
         <v>858</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -10314,7 +10314,7 @@
         <v>860</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -10325,7 +10325,7 @@
         <v>862</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1395</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10336,7 +10336,7 @@
         <v>864</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10347,7 +10347,7 @@
         <v>866</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10358,7 +10358,7 @@
         <v>868</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -10369,7 +10369,7 @@
         <v>870</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10380,7 +10380,7 @@
         <v>872</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10391,7 +10391,7 @@
         <v>874</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10402,7 +10402,7 @@
         <v>998</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -10429,7 +10429,7 @@
         <v>881</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -10440,7 +10440,7 @@
         <v>883</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -10470,7 +10470,7 @@
         <v>889</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10481,7 +10481,7 @@
         <v>891</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -10492,7 +10492,7 @@
         <v>999</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -10503,7 +10503,7 @@
         <v>1000</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -10514,7 +10514,7 @@
         <v>895</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -10525,7 +10525,7 @@
         <v>897</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10536,7 +10536,7 @@
         <v>899</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10547,7 +10547,7 @@
         <v>901</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -10566,7 +10566,7 @@
         <v>905</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -10577,7 +10577,7 @@
         <v>907</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -10596,7 +10596,7 @@
         <v>911</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1414</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -10607,7 +10607,7 @@
         <v>913</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -10626,7 +10626,7 @@
         <v>917</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -10637,7 +10637,7 @@
         <v>919</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10648,7 +10648,7 @@
         <v>921</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -10659,7 +10659,7 @@
         <v>923</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -10670,7 +10670,7 @@
         <v>925</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10681,7 +10681,7 @@
         <v>927</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -10700,7 +10700,7 @@
         <v>931</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -10711,7 +10711,7 @@
         <v>933</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -10722,7 +10722,7 @@
         <v>1001</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10733,7 +10733,7 @@
         <v>936</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -10744,7 +10744,7 @@
         <v>938</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10755,7 +10755,7 @@
         <v>940</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -10766,7 +10766,7 @@
         <v>942</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10777,7 +10777,7 @@
         <v>1002</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -10788,7 +10788,7 @@
         <v>945</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -10799,7 +10799,7 @@
         <v>1003</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -10810,7 +10810,7 @@
         <v>948</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -10821,7 +10821,7 @@
         <v>950</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -10832,7 +10832,7 @@
         <v>1004</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
     </row>
   </sheetData>

--- a/ground_truth/manually_labelled_ground_truth.xlsx
+++ b/ground_truth/manually_labelled_ground_truth.xlsx
@@ -2886,9 +2886,6 @@
     <t>Farine de blé T65, eau, levure, vinaigre de cidre, huile de colza, assaisonnement poudre de curry, sel, acide ascorbique, émulsifiant : E471.</t>
   </si>
   <si>
-    <t>Aubergine 60,5% (aubergine, huile de tournesol), eau, oignon, huile de tournesol, jus de citron, concentré de tomate, huile d’olive vierge extra (2%), ail, sel, persil, basilic, poivre, thym, romarin.</t>
-  </si>
-  <si>
     <t>Thon Albacore en morceaux au naturel en poche 1,95 kg LA PULPE</t>
   </si>
   <si>
@@ -3071,9 +3068,6 @@
   </si>
   <si>
     <t>Huile de colza, extrait naturel de piment de Cayenne</t>
-  </si>
-  <si>
-    <t>Piment rouge fort équeuté* (85%), cumin, ail moulu (3%), eau, arome naturel d’ail, sel, sorbate de potassium. (* présence de sulfites)</t>
   </si>
   <si>
     <t>SUCRE DE CANNE, EAU, AROME, COLORANT : E 150a, AROME NATUREL DE VANILLE.</t>
@@ -3120,9 +3114,6 @@
     <t>semoule de blé dur blanche biologique, eau</t>
   </si>
   <si>
-    <t>Riz à grain long précuit (65%), feuilles de vignes (15%), eau, huile de soja (10%), oignons, aneth, menthe, sel, condiments, agent correcteur d’acidité : acide citrique</t>
-  </si>
-  <si>
     <t>jus de fruits à base de concentrés : citron 54,6% et orange 4,4% (équivalent à 59% de jus reconstitués), eau, pulpes de citron 5%, acidifiant : acide citrique, extrait de citron.</t>
   </si>
   <si>
@@ -3192,13 +3183,7 @@
     <t>cheddar fondu (44%) (eau, lactosérum, cheddar (5%) (lait, ferments, acidifiant (sulfates de sodium (E514)), enzymes), lait écrémé, maltodextrine, antioxydant (phosphate de sodium (E339)), crème, épaississants (octényle succinate d'amidon sodique (E1450), gomme xanthane (E415)), acidifiant (sulfates de sodium (E514))), eau, huile de palme, épaississants (amidon modifié de tapioca, amidon modifié de maïs), maltodextrine, acidifiants (sulfates de sodium (E514), citrate de sodium (E331), acide phosphorique (E338), acide lactique (E270)), arôme, antioxydant (phosphate de sodium (E339)), colorants (bêta carotène (E160a), annatto (E160b), extrait de paprika (E160c)), émulsifiants (stéaroyl-2-lactylate de sodium (E481), mono et diglycérides d'acides gras alimentaires (E471))</t>
   </si>
   <si>
-    <t>Huile de colza, morue (32%), eau, protéines de lait, sel, épaississant : carraghénanes (extrait d’algues marines)</t>
-  </si>
-  <si>
     <t>Olives, eau, sel, stabilisateur de couleur : E579</t>
-  </si>
-  <si>
-    <t>Huile de colza (48 %), sucre, eau, vinaigre, purée de tomates, jaunes d’oeufs (4.4 %), oignons, moutarde (eau, graines de moutarde, sel, vinaigre, curcuma), extraits naturels et aromates, oignons rôtis (1.6 %) (contient blé), sel, antioxydant : extrait de romarin, acidifiant : acide citrique, arômes, colorant : extrait de paprika.</t>
   </si>
   <si>
     <t>Purée de tomates mi réduite (64%), sucre, vinaigre, amidon modifié, sel, acidifiant : acide citrique</t>
@@ -3232,9 +3217,6 @@
   </si>
   <si>
     <t>Mirabelles (55%), eau, acidifiant : acide citrique, antioxydant : acide ascorbique</t>
-  </si>
-  <si>
-    <t>Eau, poissons 35%, langoustines 5% (têtes et pattes), purée de tomates double concentrée, amidon modifié de maïs, oignons, carottes, poireaux, vin blanc, sel de Guérande 1.45%, épices et plantes aromatiques, huile d’olive vierge extra, arôme naturel de crustacés.</t>
   </si>
   <si>
     <t>FRAMBOISE
@@ -3271,9 +3253,6 @@
     <t>Sucre, sirop de glucose, beurre de cacao, lait écrémé en poudre, pâte de cacao, matière grasse du lait, lactose, farine de blé, matière grasse de palme, cacahuètes, noix de coco séchée, petit-lait en poudre, huile de palme, lait entier en poudre, huile de tournesol, émulsifiants (lécithine de soja, E471), extrait de malt d'orge, cacao maigre, sel, humectant (glycérol), blanc d'oeuf en poudre, extrait naturel de vanille, poudres à lever (E341, E500, E501), protéine de lait, gluten de blé. (Peut contenir: noisette, amande, avoine).Cacao 25% minimum</t>
   </si>
   <si>
-    <t>Jus d’orange à base de concentré</t>
-  </si>
-  <si>
     <t>Farine de pois chiche</t>
   </si>
   <si>
@@ -3338,9 +3317,6 @@
     <t>Maltodextrine, amidon modifié de pomme de terre, lentilles (10%), roux (10%) (farine de FROMENT, graisse de palme), LAIT fermenté traité thermiquement, sel iodé, sucre, tomate (4%), oignon (4%), LACTOSE, sel, amidon de pomme de terre, extrait de levure, paprika (2,2%), purée de tomates (2%), protéines de LAIT, ail, arômes, gingembre, farine de riz, cumin, jus d'oignon concentré, fructose, sauce soja (fève de SOJA, FROMENT), cannelle, jus de betteraves, huile de tournesol, jus de citron, persil tubéreux, dextrose. Peut contenir: oeuf, céleri, moutarde.</t>
   </si>
   <si>
-    <t>Tomate (46%), oignons, poivrons rouges, sucre, vinaigre d’alcool, mélasse, vinaigre balsamique, sel, épices.</t>
-  </si>
-  <si>
     <t>Chair de crabe (crustacés), eau, sucre, sel, exhausteurs de goût : E640, E631 , E627, acidifiant : E330, antioxydants : E223 (disulfite de sodium), E385.</t>
   </si>
   <si>
@@ -3382,14 +3358,7 @@
     <t>Essence de soja biologique (soja biologique, eau sel) 95,9% Extraits de légumes (oignons, radis blancs, poireau, chou, carotte, shiitake, gingembre, ail) 2,8% Extrait de levure 1,3%</t>
   </si>
   <si>
-    <t>Pur thé vert* (100%).
-(*) Ingrédients issus de l’Agriculture Biologique</t>
-  </si>
-  <si>
     <t>Amidon de maïs - Arômes - Sucre - Graisse et viande d'agneau 8,5 % - Oignon grillé - Tomate - Extrait de levure - Colorant : E150c - Plantes aromatiques - Epices.</t>
-  </si>
-  <si>
-    <t>Lentilles* 96%, huile de tournesol*, sel de mer 0,7%, poivre noir* 0,5%, acidiant : acide citrique, sucre de canne*, fécule de tapioca*. *Ingrédients issus de l’agriculture biologique.</t>
   </si>
   <si>
     <t>Sucre, sirop de glucose, gomme base (lécithine de soja), arômes, acidifiant: E296, humectant: E422, agents d'enrobage: E901, E903, huile végétale (palme, coco), colorants: voir cachet.</t>
@@ -3414,9 +3383,6 @@
     <t>Huile d'olive 99,6%, Arôme truffe blanche (0,4%)</t>
   </si>
   <si>
-    <t>Farine de blé - Sucre - Huile de colza - OEufs entiers 16%- Stabilisants : glycérol, sirop de sorbitol - Emulsifiant : E471- Poudres à lever : E450i, E500ii- Sel- Arôme- Conservateur : sorbate de potassium -Correcteur d’acidité : acide citrique.</t>
-  </si>
-  <si>
     <t>Farine de blé - Sirop de glucose de maïs - Matières grasses végétales : Huile de tournesol, huile de colza - Lactose et protéines de lait - Lait écrémé - Sel - Arômes (Crustacés) - Crustacés 3 % (Crevette 2 %, Crabe 1 %) - Sucre - Oignon - Extrait naturel de vin blanc - Ail - Colorant : Bêta carotène.</t>
   </si>
   <si>
@@ -3433,9 +3399,6 @@
   </si>
   <si>
     <t>Légumes 46% (pois chiche, oignon, tomate, tomate séchée 4%), eau, huiles végétales (tournesol, colza), vinaigre de vin blanc, basilic 2,4%, arômes naturels, amidon modifié de maïs, sucre, sel, ail, épaississant (gomme xanthane), chlorure de potassium, extrait de malt d'ORGE, graines de MOUTARDE, vinaigre d'alcool, épices.</t>
-  </si>
-  <si>
-    <t>Farine de blé, oeufs frais, huile de colza, sucre, fruits confits 9.8% [dés de pastèque confits (colorant : carmins), écorces d’orange confites, sirop de glucose-fructose, sucre, conservateurs (sorbate de potassium, anhydride sulfureux), correcteur d’acidité : acide citrique], raisins secs 8.2%, stabilisant : glycérol, amidon modifié de maïs, émulsifiant : mono- et diglycérides d’acides gras, sel, poudres à lever (diphosphates, carbonates de sodium), arôme naturel d’orange, conservateur : sorbate de potassium, épaississant : gomme xanthane. Peut contenir des traces de : lait, graines de sésame, fruits à coque, soja.</t>
   </si>
   <si>
     <t>Poivre noir moulu BIO.</t>
@@ -3505,17 +3468,6 @@
   </si>
   <si>
     <t>Origan</t>
-  </si>
-  <si>
-    <t>Pomme* 49,8%, poire* 49,8%, jus d’acérola*.
-*Ingrédients issus de l'agriculture biologique.</t>
-  </si>
-  <si>
-    <t>Lait écrémé 76%, chocolat en poudre 9% (sucre, cacao en poudre), crème fraiche, sucre, poudre de lait, amidon transformé, épaississant : gomme xanthane, correcteur d’acidité : citrate de sodium.</t>
-  </si>
-  <si>
-    <t>Semoule de blé dur précuite* (gluten) (44,5%), semoule de blé dur complète précuite* (gluten) (29,5%), flocons de soja* (15%), flocons de céréales* (gluten) (blé* (3%), orge*, avoine* , seigle* (2,2%), riz* (0,7%).
-* Ingrédients issus de l’Agriculture Biologique</t>
   </si>
   <si>
     <t>Confiserie rose à base de beurre de cacao 84.0% (sucre 51.0% ; beurre de cacao 24.0% ; poudre de lait entier 14.5% ; lactosérum en poudre (lait) 7.0% ; colorant: E162 2.0% ; arôme naturel &lt;1% ; émulsifiant: lécithine de soja &lt;1% ; arôme naturel de vanille &lt;1% ) ; céréales croustillantes (farine de blé, sucre, farine de malt de blé, amidon (blé), poudre à lever: E500ii, sel, beurre de cacao, arôme naturel de vanille) 15.0% ; sirop de glucose &lt;1% ; sucre &lt;1% ; agent d'enrobage: E414 &lt;1% ; amidon modifié &lt;1% ; graisse végétale (noix de coco) &lt;1%</t>
@@ -3531,16 +3483,9 @@
 sel</t>
   </si>
   <si>
-    <t>Eau, huile de tournesol, miel 10%, moutarde à l'ancienne 8% (eau, graines de MOUTARDE, vinaigre d’alcool, sel, vin blanc (dont SULFITES), sucre, épices), vinaigre de cidre, amidon
-modifié de maïs, jaune d’OEUF, sel, acidifiant: acide lactique, conservateur: sorbate de potassium, épaississant: gomme xanthane, arôme naturel, antioxydant E385</t>
-  </si>
-  <si>
     <t>farine de blé 55%, sucre, huile hydrogénée de coprah, huile de palme, sirop de glucose, poudre de cacao maigre 3.5%, lactoserum en poudre, lactose, poudres à lever (carbonate d'ammonium et de sodium, diphosphates), poudre de lait écrémé, sel, arôme, protéine de lait.</t>
   </si>
   <si>
-    <t>Pommes 21%, poires 39%, eau, sucre, arôme, antioxydant : acide ascorbique, acidifiant : acide citrique (si le fruit n’en contient pas suffisamment).</t>
-  </si>
-  <si>
     <t>Sirop de glucose-fructose, fraises, sucre, gélifiant : pectine de fruits, acidifiant : acide citrique.</t>
   </si>
   <si>
@@ -3551,9 +3496,6 @@
   </si>
   <si>
     <t>ananas, jus d'ananas, antioxydant : acide ascorbique, acidifiant : acide citrique</t>
-  </si>
-  <si>
-    <t>Betteraves rouges, eau, vinaigre d’alcool, sel, sucre, arôme naturel.</t>
   </si>
   <si>
     <t>Champignons : Suillus luteus (40%), Volvariella volvacea (25%), Pleurotus ostreatus (20%), lactarius deliciosus (10%), pholiota mutabilis (5%), à la mise en oeuvre, eau, acide citrique</t>
@@ -3578,13 +3520,7 @@
     <t>sucre; sirop de glucose; dextrose; gélatine; acidifiant: acide citrique; arôme; sirop de caramel; colorants: lutéine, charbon végétal; agents d'enrobage: cire d'abeille blanche et jaune, cire de carnauba.</t>
   </si>
   <si>
-    <t>Huile de colza, eau, jaune d’oeuf, vinaigre, moutarde de Dijon (eau, graines de moutarde, vinaigre, sel, antioxydant : disulfite de potassium, acidifiant : acide citrique), sucre, sel,  paississants : gomme de guar et gomme de xanthane, amidon modifié, conservateur : E202, colorant : caroténoïdes, antioxydant : E385</t>
-  </si>
-  <si>
     <t>100% Sucre de Canne Biologique non raffiné.</t>
-  </si>
-  <si>
-    <t>Eau, graines de moutarde, vinaigre d’alcool, sel, vin blanc (contient sulfites), sucre, épices, acidifiant (acide citrique), conservateur (disulfite de potassium)</t>
   </si>
   <si>
     <t>SUCRE DE CANNE, EAU, JUS DE MIRABELLE A BASE DE CONCENTRE (12%), ACIDIFIANT: ACIDE CITRIQUE, AROME NATUREL, COLORANT : E 150a.</t>
@@ -3628,9 +3564,6 @@
   <si>
     <t>Mélange soluble composé de 60% de pur café soluble et de 40% de pure chicorée soluble
 Origines végétales</t>
-  </si>
-  <si>
-    <t>Huile de colza, eau, vinaigre, sucre, jaune d’OEUF, épices 2,3% (paprika, coriandre, cumin, poivre, piment, curcuma), sel, MOUTARDE (eau, vinaigre, graines de MOUTARDE, sel, acidifiant : E330, sucre, épice, antioxydant : E224, arômes), oignons déshydratés, amidon modifié, ail déshydraté, acidifiant : E270, mélange de plantes aromatiques, épaississants : E415 et E412, extrait d'orge malté (GLUTEN), conservateur : E202.</t>
   </si>
   <si>
     <t>100% thé noir
@@ -3657,9 +3590,6 @@
 - Extrait de Blé
 - Extrait de Légumes (Oignon, Radis, Ail, Varech, Cive, Chou, Carotte, Gingembre, Shiitake)
 - Extrait de Pollen Fermenté</t>
-  </si>
-  <si>
-    <t>HUILE D’ARACHIDE RAFFINEE 100%</t>
   </si>
   <si>
     <t>Chocolat au lait (sucre, beurre de cacao, LAIT entier en poudre, pâte de cacao, lactose (LAIT), lactosérum en poudre (LAIT), émulsifiant : lécithine de SOJA), chocolat noir (pâte de cacao, sucre, beurre concentré (LAIT), beurre de cacao, émulsifiant : lécithine de SOJA), praliné 7% (sucre, AMANDES, NOISETTES), pâte d'amande 5% (sucre, AMANDES, eau, sirop de sucre inverti, sirop de glucose, humectant : sorbitol, conservateur : sorbate de potassium), beurre concentré (LAIT), chocolat noir origine Madagascar 3% (pâte de cacao de Madagascar, sucre, beurre de cacao, émulsifiant : lécithine de SOJA), sucre, pâte de figues 1,5%, sirop de glucose, humectant : sorbitol, sirop de sucre inverti, beurre de cacao, LAIT concentré écrémé sucré, crème stérilisée (LAIT), LAIT entier en poudre, lactosérum en poudre (LAIT), graisses végétales (palme et palmiste), caramel aromatique (sucre, eau), meringues cacaotées 0,4% (sucre, cacao en poudre, blanc d'OEUF amidon de BLE, arôme), huile de tournesol, purée de PISTACHE, cacao maigre en poudre, émulsifiants : monostéarate de glycérol, lécithine de SOJA, fleur de sel de Guérande, sel, arômes naturels, arôme, enzyme : invertase, farine de BLE, malt d'ORGE.
@@ -3704,10 +3634,6 @@
 * Produits issus de l'agriculture biologique</t>
   </si>
   <si>
-    <t>Sardines (Sardina pilchardus) 65 %, eau, concentré de tomate 8,5 %, huile de tournesol, vinaigre d’alcool, sel, épaississant : xanthane, épices.
-Zone de pêche : Océan Atlantique Centre Est</t>
-  </si>
-  <si>
     <t>Maltodextrine, graisse végétale hydrogénée, émulsifiants : E471, E472b, protéines de lait, café (1,9%), amidon modifié de pomme de terre, colorant : caramel E150c, stabilisant : E340ii, édulcorant : aspartame, arôme.</t>
   </si>
   <si>
@@ -3715,9 +3641,6 @@
   </si>
   <si>
     <t>Sirop de glucose, sirop de sucre inverti, poudre de chocolat 25,7% (sucre, cacao en poudre), eau, huile de noix de coco totalement hydrogénée, sel, conservateur (sorbate de potassium), arôme.</t>
-  </si>
-  <si>
-    <t>Noodles 88% (farine de BLE, huile de palme, amidon transformé, sel, poudre à lever : E 500-E 501), sel, amidon, exhausteurs de goût : E 621-E 635, lactose (LAIT), sucre, arôme, extrait de levure, légumes (carottes, CELERI, poireau), épices ( ail, poivre), huile de palme, colorants : E 150c-E 100, persil, sauce soja (jus fermenté de graines de SOJA et grains de BLE, maltodextrine, sel), préparation déshydratée de viande de boeuf 0.1%( viande de boeuf, sel), correcteur d’acidité : E 330.</t>
   </si>
   <si>
     <t>farine de BLÉ, amidon modifié de maïs, graisse de palme, sel, maltodextrine, LACTOSÉRUM, LACTOSE, oignon, arômes (dont ORGE, BLÉ), protéines de LAIT, extrait de levure, bolet : 0,6%, amidon de pomme de terre, épice et aromate (ail, curcuma), extrait de champignon : 0,2%, jus d'oignon concentré, huile de tournesol.
@@ -3743,12 +3666,6 @@
   </si>
   <si>
     <t>Haricots rouges secs trempés, eau, sel, concentré de tomate, arômes</t>
-  </si>
-  <si>
-    <t>Légumes 83% (courgettes, tomates, poivrons rouges et verts, aubergines, oignons), jus de tomates, purée de tomate double concentré, huile d’olive vierge extra (1.4%), sucre, sel, amidon de maïs, oignons grillés en poudre, ail en poudre, herbes aromatiques, jus concentré de citron, acidifiant : acide citrique, poivre, arôme naturel de basilic avec autres arômes naturels.</t>
-  </si>
-  <si>
-    <t>huile de tournesol (40%), eau, vinaigre de vin blanc (dont SULFITES), LACTOSE, jaune d'OEUF de poules élevées en plein air (4,9%), dextrose, moutarde de Dijon (2,5%) (eau, graines de MOUTARDE, vinaigre d’alcool, sel, acidifiant : acide citrique, conservateur : E224 (SULFITES)), amidon modifié de maïs, sel, jus de citron concentré, épaississant (gomme xanthane), acidifiant (acide tartrique), conservateur (acide sorbique), arômes, antioxydant (extrait de romarin), colorants (extrait de paprika et lutéine).</t>
   </si>
   <si>
     <t>Lavande bleue</t>
@@ -3774,11 +3691,6 @@
     <t>Café soluble (48,5%), fibres de chicorée (oligofructose) (27%) et chicorée soluble (24,5%).</t>
   </si>
   <si>
-    <t>- 100% Semoule de BLE dur de qualité supérieure
-- Contient du gluten
-Si le numéro de lot contient la lettre N : peu contenir de l’œuf</t>
-  </si>
-  <si>
     <t>Fond de volaille concentré (32%) (eau, extrait de volaille), amidon de pomme de terre, sel, graisse de poule (6,3%), arômes, sucre, oignon (3,6%), purée de tomates (1,2%), sirop de caramel, extrait de levure, maltodextrine, épaississant (gomme xanthane), acidifiant (acide citrique), thym, antioxydant (extrait de romarin).</t>
   </si>
   <si>
@@ -3786,9 +3698,6 @@
   </si>
   <si>
     <t>Coeurs de céleris, eau, acidifiant : acide citrique.</t>
-  </si>
-  <si>
-    <t>Huile de colza, eau, vinaigre, cornichons, sucre, câpres, jaune d’OEUF, amidon modifié, oignon, MOUTARDE de Dijon (eau, graines de MOUTARDE, vinaigre, sel, acidifiant : E330, antioxydant : E224), sel, persil, acidifiant : acide lactique, épaississants : gomme xanthane et gomme de guar, conservateur : sorbate de potassium.</t>
   </si>
   <si>
     <t>Muscade</t>
@@ -3840,17 +3749,10 @@
     <t>Poivre vert en grains, eau, sel, acide acétique E 260.</t>
   </si>
   <si>
-    <t>Céréales [farine de froment (27.5%), céréales complètes (15.1%) (farine complète de froment (15 %), farine complète de seigle , farine complète d’orge )] sucre graisses végétales (palme, palmiste, colza) poudre de cacao maigre (5.1%) amidon de blé lait écrémé en poudre (équivalent lait 16%) amidon de pomme de terre poudres à lever (carbonates de sodium et d'ammonium, diphosphates) lactose et protéines de lait sel arôme émulsifiant : lécithine de tournesol agent de traitement de la farine : E223 (sulfites)
-Peut contenir des traces de fruits à coque, de soja, d’oeuf et de sésame</t>
-  </si>
-  <si>
     <t>Sucre, sirop de glucose, cacahuètes, lait écrémé en poudre, beurre de cacao, pâte de cacao, huile de tournesol, lactose, matière grasse du lait, petit-lait en poudre, matière grasse de palme, sel, émulsifiant (lécithine de soja), blanc d'oeuf en poudre, protéine de lait, extrait naturel de vanille. (Peut contenir: noisette).</t>
   </si>
   <si>
     <t>Amidon modifié de pomme de terre - Sirop de glucose de maïs - Fécule de pomme de terre - Arômes - Matières grasses végétales : Huile de tournesol, huile de colza - Sel - Champignon de Paris 6,2 % - Extraits de levures - Sucre - Oignon - Epaississant : Gomme de cellulose - Colorant : Caramel - Ail - Protéines de lait - Epices - Extrait de paprika.</t>
-  </si>
-  <si>
-    <t>vinaigre d’alcool, piment jalapeno, eau, sel, épaississants (E1422,E415) ,antioxydant (acide ascorbique).</t>
   </si>
   <si>
     <t>Sirop de sucre de canne inverti*, farine de seigle*, miel* 3%, poudre à lever (carbonate acide de sodium), épices*.
@@ -3909,9 +3811,6 @@
     <t>Poire 100%; Acidifiant: acide citrique ; Antioxydant : Vitamine C</t>
   </si>
   <si>
-    <t>Huile végétale (huile de colza, huile de colza totalement hydrogénée) ; légumes (concentré de tomate (22%), tomate deshydratée (1%)) ; épices et plantes aromatiques (ail, oignon, basilic (3%), paprika, thym (1%), poivre noir) ; sel ; sucre ; vinaigre d’alcool ; arôme naturel.</t>
-  </si>
-  <si>
     <t>eau, sucre, jus de pomme à base de concentré (3,4%), jus de grenade à base de concentré (1,6%), miel, arôme naturel, jus de carotte à base de concentré, extrait de thé vert (0,05%), antioxydant: acide ascorbique, acidifiant: acide citrique.</t>
   </si>
   <si>
@@ -3933,9 +3832,6 @@
 Peut contenir : oeuf.</t>
   </si>
   <si>
-    <t>100% Huile d’ARACHIDE raffinée</t>
-  </si>
-  <si>
     <t>sirop de glucose; sucre; gélatine; dextrose; acidifiants: acide citrique, acide malique; correcteurs d'acidité: citrate tricalcique, malate acide de sodium; agent d'enrobage: cire de carnauba; arôme; concentrés de fruits et de plantes : patate douce, radis, carthame, citron, spiruline; colorants: bleu patenté V, carotènes végétaux, anthocyanes; sirop de sucre inverti.</t>
   </si>
   <si>
@@ -3978,13 +3874,6 @@
     <t>BEURRE 26%, farine de BLE tendre,OEUFS frais 26%, sucre, amidon, arôme naturel de vanille (contient alcool), poudres à lever : diphosphates et carbonates de sodium (BLE), sel, émulsifiant : lécithines (SOJA).</t>
   </si>
   <si>
-    <t>pommes* (70%), banane* (30%)
-*Ingrédient issu de l’agriculture biologique</t>
-  </si>
-  <si>
-    <t>Carottes, eau, sucre, sel, vinaigre d’alcool, acidifiant : acide lactique. Présence fortuite de CELERI</t>
-  </si>
-  <si>
     <t>eau, purée de tomates double concentrée* (24,6%), sucre, vinaigre d'alcool, amidon modifié de maïs, sel, correcteur d'acidité (acide citrique), conservateurs (benzoate de sodium et sorbate de potassium), épices, extrait de levure, arômes naturels.
 *tomates issues de l'agriculture durable.</t>
   </si>
@@ -3995,10 +3884,6 @@
     <t>Maltodextrine, édulcorant : sucralose (1,23%).</t>
   </si>
   <si>
-    <t>Amidon (maïs, pomme de terre), légumes (tomate**: 34%, oignon), sel, sucre, maltodextrine, extrait de levure, huile d’olive vierge extra, jus de betterave concentré, aromates (ail, basilic), arômes.
-** Tomates issues de l’agriculture durable</t>
-  </si>
-  <si>
     <t>Sucre, lait écrémé en poudre, sirop de glucose, graisse végétale entièrement hydrogénée (coco), café instantané (4 %), poudre de cacao fortement dégraissé (3 %), stabilisateur (E340, E452), protéine de lait, sel, lactose (lait), anti-agglomérant (E341), arôme, émulsifiant (E471).</t>
   </si>
   <si>
@@ -4015,19 +3900,6 @@
     <t>eau, colorants (E 102, E 131), correcteur d'acidité (E 330), conservateur (E 211)</t>
   </si>
   <si>
-    <t>- Farine de blé T65*
-- Sucre de canne blond non raffiné*
-- Beurre doux de baratte* (26,6 %)
-- OEufs frais entiers*
-- Jaunes d’oeufs sucrés*
-- Sel marin gris de Guérande
-- Poudres à lever (phosphates de calcium, carbonates de sodium, carbonates d’ammonium)
-* Ingrédients issus de l’Agriculture Biologique.</t>
-  </si>
-  <si>
-    <t>Lait écrémé 59.5%, lait en poudre reconstitué 20.5%, sucre, crème, semoule de blé, poudre de lait, extrait aromatique rhum orange (rhum, infusion d'écorces d'oranges douces, alcool), épaississant : alginate de sodium, rhum, correcteur d’acidité : citrate de sodium.</t>
-  </si>
-  <si>
     <t>Sucre, farine de FROMENT, poudre d'OEUFS entiers, amidon de FROMENT, poudre de LAIT fermenté, poudre à lever : (E500, E341, E450), amidon modifié, émulsifiants : (E472e, E472a, E472b), sel, poudre de LAIT écrémé, arôme.</t>
   </si>
   <si>
@@ -4038,10 +3910,6 @@
   </si>
   <si>
     <t>eau gazéifiée, saccharose, glucose, correcteurs d'acidité (citrates de sodium, carbonate de magnésium), acidifiant (acide citrique), taurine (0,4%), caféine (0,021%), inositol, vitamines (niacine, acide pantothénique, B6,B12), arômes, colorants (caramel, riboflavine)</t>
-  </si>
-  <si>
-    <t>pommes* (80%), framboises* (20%)
-*Ingrédient issu de l’agriculture biologique</t>
   </si>
   <si>
     <t>Salsifis, eau, sel, acidifiant : acide citrique (E330), antioxydant : acide ascorbique (E300).</t>
@@ -4068,10 +3936,6 @@
     <t>fèves de cacao du Ghana. Présence possible de fruits à coque et protéines de soja.</t>
   </si>
   <si>
-    <t>Graines de sésame 37%, chocolat de couverture 25% (sucre, pâte de cacao, beurre de cacao, émulsifiant : lécithines de soja, E476, arôme), sirop de glucose, sucre.
-Fabriqué dans un atelier qui utilise de l’arachide, des fruits à coque et du lait.</t>
-  </si>
-  <si>
     <t>Poivre de la Likouala</t>
   </si>
   <si>
@@ -4092,19 +3956,6 @@
     <t>Huile de colza, eau, sucre, jaune d'oeuf, vinaigre, sel, moutarde de Dijon (eau, graines de moutarde, vinaigre, sel, antioxydant : disulfite de potassium, acidifiant : acide citrique), cornichons (cornichons, eau, vinaigre, sel), câpres (câpres, eau, vinaigre, sel), amidon modifié, cerfeuil, oignons, épaississants : gomme de guar et gomme de xanthane, acidifiant : acide lactique, conservateurs : E202-E211</t>
   </si>
   <si>
-    <t>Etui 400 g
-100 % semoule de blé dur complète* (gluten)
-* Ingrédient issu de l’Agriculture Biologique.
-Traces possibles d’oeuf.
-Sac 5 kg
-100 % semoule de blé dur complète* (gluten)
-* Ingrédient issu de l’Agriculture Biologique
-Traces possibles de soja
-Sac 25 kg / BB 1 T
-100 % semoule de blé dur complète* (gluten)
-* Ingrédient issu de l’Agriculture Biologique.</t>
-  </si>
-  <si>
     <t>Potiron 49%, graisse de palme, amidon de pomme de terre, pomme de terre 7,7%, sel, arômes (dont BLÉ, ORGE), huile de maïs, sucre, LACTOSE, oignon grillé 1,9%, extrait de levure, maltodextrine, protéines de LAIT, épices (poivre, noix de muscade). Peut contenir : oeuf, céleri et moutarde.</t>
   </si>
   <si>
@@ -4118,15 +3969,6 @@
 Peut contenir des traces d'amandes, de noix de pécan, d'autres fruits à coque, d'avoine, d'orge, d'autre glutens et de lait .</t>
   </si>
   <si>
-    <t>Farine d’épeautre et eau.</t>
-  </si>
-  <si>
-    <t>Vinaigre de vin rouge au jus d’échalote 7% d’acidité
-Vinaigre de vin rouge (sulfites), jus d’échalote (0.5%), arôme*, conservateur: sulfite acide de sodium
-Vinaigre de vin rouge aromatisé à l’échalote 7% d’acidité
-Vinaigre de vin rouge (sulfites), arômes échalote (1%), conservateur: sulfite acide de sodium</t>
-  </si>
-  <si>
     <t>Café instantané, café torrefié moulu (3%).</t>
   </si>
   <si>
@@ -4138,9 +3980,6 @@
   </si>
   <si>
     <t>Jus de pamplemousse rose à base de concentré, vitamine C.</t>
-  </si>
-  <si>
-    <t>FLOCON D’EPEAUTRE 23 %, graines de tournesol, graines de lin, SON D’AVOINE, graines de courge 11%, SON DE BLE, SON D’EPEAUTRE 7%, FARINE D’EPEAUTRE COMPLET 2 %, eau, sel. Peut contenir des traces de SESAME et SOJA.</t>
   </si>
   <si>
     <t>Curcuma*, Coriandre*, Amidon de pomme de terre*, Graines de moutarde*, Fenugrec*, Oignon déshydraté*, Cardamome*, Sel de mer, Anis*, Gingembre*, Fenouil*, Clou de girofle*, Ail déshydraté*, Piment de la Jamaïque*, Cannelle*, Sarriette*, Origan*, Thym*, Romarin*, Basilic*.
@@ -4192,12 +4031,6 @@
 sucre; sirop de glucose; graisse de palme; humectant: sirop de sorbitol; acidifiant: acide citrique; gélatine; arôme; concentrés de fruits et de plantes: citron, carthame, spiruline, cassis, carotte, radis, pomme; correcteur d'acidité: carbonate acide de sodium; agent d'enrobage: cire d'abeille blanche et jaune; anti-agglomérant: talc; sirop de sucre inverti..</t>
   </si>
   <si>
-    <t>Sucre, farine de blé, huile de colza, oeufs frais (13%), pépites de chocolat noir (8,5%) (sucre, pâte de cacao, beurre de cacao, cacao maigre en poudre, émulsifiant : lécithine de tounesol), beurre concentré, blancs d’oeufs frais (6%), stabilisant : glycérol, sirop de sucre inverti, poudre de cacao, poudre de lait entier, sel, poudres à lever : pyrophosphate et bicarbonate de soude, émulsifiant : mono- et diglycérides d’acides gras, conservateur : sorbate de potassium, arômes.</t>
-  </si>
-  <si>
-    <t>Sucre, farine de blé, huile de colza, oeufs frais (13%), pépites de chocolat noir (8,5%) (sucre, pâte de cacao, beurre de cacao, cacao maigre en poudre, émulsifiant : lécithine de tounesol), beurre concentré, blancs d’oeufs frais (6%), stabilisant : glycérol, sirop de sucre inverti, poudre de cacao, poudre de lait entier, sel, poudres à lever : pyrophosphate et bicarbonate de soude, émulsifiant : mono- et diglycérides d’acides gras, conservateur: sorbate de potassium, arômes.</t>
-  </si>
-  <si>
     <t>Poire 99,9%, antioxydant: acide ascorbique.</t>
   </si>
   <si>
@@ -4222,15 +4055,7 @@
     <t>Farine 83,4 % (Blé (GLUTEN), Blé hydrolysé (GLUTEN)) - Sucre - Caramel - Arômes - Vitamines (C, B1)</t>
   </si>
   <si>
-    <t>Débris de truffes d’hiver, jus de truffes, sel</t>
-  </si>
-  <si>
     <t>Sucre, pâte de cacao, poudre de LAIT écrémé, beurre de cacao, lactosérum en poudre (de LAIT), BEURRE concentré, émulsifiant (lécithine de SOJA), arômes. Cacao : 33% minimum. PEUT CONTENIR FRUITS À COQUE.</t>
-  </si>
-  <si>
-    <t>Eau de source*/Eau**; jus de fruits à base de concentrés 12.4% (orange 11.4%, ananas 1%); sucre; acidifiants: acide citrique, acide malique; extraits d’orange; arômes; antioxydant: acide ascorbique; stabilisant: gomme arabique.
-*PET
-**CAN</t>
   </si>
   <si>
     <t>Farine de BLE, huile de colza non hydrogénée, OEUFS de poules élevées en plein air (21%), sucre, stabilisant : glycérol, sirop de glucose-fructose, émulsifiant : mono- et diglycérides d'acides gras, poudres à lever : diphosphates et carbonates de sodium (BLE), fécule, sel, arôme.</t>
@@ -4262,9 +4087,6 @@
     <t>Tomates 52% (tomates concassées et purée de tomates), eau, oignons 7,3%, amidon de maïs modifié, huile de tournesol, sucre, sel, arôme, affermissant (chlorure de calcium).</t>
   </si>
   <si>
-    <t>sucre 49,0%; noisettes 25,0%; amandes 25,0%; émulsifiant: mono- et diglycérides d’acides gras &lt;1%; émulsifiant: lécithine de tournesol &lt;1%</t>
-  </si>
-  <si>
     <t>Farine de blé, sucre, huiles végétales (huile de palme issue de plantations durables et certifiées, huile de colza), sirop de sucre candi, poudre à lever
 (carbonate acide de sodium), farine de soja, sel, cannelle.</t>
   </si>
@@ -4279,10 +4101,6 @@
   </si>
   <si>
     <t>pomme 95% minimum, sucre, arôme naturel de vanille 0,1%, antioxydant : acide ascorbique.</t>
-  </si>
-  <si>
-    <t>Sucre, chapelure de pain (Farine de blé, farine de germe de maïs stabilisé, eau, levain (blé, seigle), levure, sel, gluten, germe de blé, protéines de blé, semoule de blé dur, épices), farine de blé, poudre à lever*(amidon de blé*, bicarbonate de sodium, tartrate monopotassique).
-(* Issus de l’agriculture biologique), sucre vanillé.</t>
   </si>
   <si>
     <t>100% haricots blancs bio</t>
@@ -4340,13 +4158,6 @@
 * Pourcentage à la mise en oeuvre pour chaque parfum.</t>
   </si>
   <si>
-    <t>Cornichons, eau, vinaigre d’alcool, sel, graines de moutarde, oignons, coriandre, poivre et arome d’estragon</t>
-  </si>
-  <si>
-    <t>Huile de colza, « Aceto Balsamico di Modena IGP » (25%) (vinaigre de vin, moût de raisin cuit, colorant E-150d), huile d’olive vierge extra.
-Contient sulfites.</t>
-  </si>
-  <si>
     <t>Fruits confits 21,8% [bigarreaux confits 11,8% (bigarreaux, sucre, acidifiant : acide citrique, conservateur : sorbate de potassium, colorant : cochenille), pastèques confites 5,1% (pastèques, sirop de glucose-fructose, sucre, conservateur : sorbate de potassium, acidifiant : acide citrique, colorant : cochenille), écorces d'orange confites 4,9% (écorces d'orange, sirop de glucose-fructose, sucre, conservateur : sorbate de potassium, acidifiant : acide citrique)], farine de blé, raisins secs 14,8% (raisins, huiles végétales : colza - coton), huile de colza, oeufs frais, sucre, stabilisant : glycérol, sirop de glucose-fructose, extrait aromatique : rhum - infusion d'écorces d'oranges douces - arômes, sel, poudres à lever : diphosphates - carbonates de sodium, gélifiant : gomme xanthane, arôme naturel d'orange, farine de blé malté, conservateur : anhydride sulfureux.Présence possible de : arachide, fruits à coque, lait, soja.</t>
   </si>
   <si>
@@ -4367,10 +4178,6 @@
 Peut contenir des traces d'amandes, de noix de pécan,  d'autres fruits à coque, d'avoine et d'autres glutens.</t>
   </si>
   <si>
-    <t>Eau gazéifiée ; sirop d’agave ; extrait naturel de maté ; arômes
-naturels ; acidifiant: acide citrique</t>
-  </si>
-  <si>
     <t>Amidon modifié de pomme de terre - Fécule de pomme de terre - Sirop de glucose de maïs - Matières grasses végétales : Huile de tournesol, huile de colza - Poivre 6,2 % (Poivre gris, poivre vert, poivre blanc) - Oignon - Extrait de levure - Arôme - Tomate - Epaississant : E466 - Sucre - Ail - Colorant : E150c - Protéines de lait - Extrait de paprika.</t>
   </si>
   <si>
@@ -4378,10 +4185,6 @@
   </si>
   <si>
     <t>Farine de BLÉ, sucre, huile de colza,, cacao maigre en poudre 6,5 %, sirop de glucose-fructose, amidon de BLÉ, poudre à lever (carbonate de potassium, carbonate d'ammonium, carbonate de sodium),huile de palme,sel, émulsifiants (lécithine de SOJA), arôme .PEUT CONTENIR LAIT.</t>
-  </si>
-  <si>
-    <t>Miel.
-Mélange de miels originaires et non originaires de l’UE.</t>
   </si>
   <si>
     <t>Sucre; sirop de glucose; graisse de palme; humectant: sirop de sorbitol; gélatine; acidifiant: acide citrique; arôme.</t>
@@ -4395,9 +4198,6 @@
   <si>
     <t>Eau gazéifiée ; colorant : E150d ; acidifiants : acide phosphorique, citrate de sodium ; édulcorants : aspartame, acésulfame-K ; arômes naturels (extraits végétaux), dont caféine.
 Contient une source de phénylalanine.</t>
-  </si>
-  <si>
-    <t>sirop d’érable pur à 100 %.</t>
   </si>
   <si>
     <t>Fruits (fraises 20%, cerises 15%, groseilles 12%, cassis 3%), sucre, sucre roux de canne, jus de citrons concentré, gélifiant : pectine de fruits.</t>
@@ -4464,17 +4264,10 @@
     <t>Haricots beurre, eau, sel</t>
   </si>
   <si>
-    <t>Huile de colza (70.45 %), jaunes d’oeufs (6.2 %), purée de tomates, eau, vinaigre, câpres (2.8 %) (câpres, eau, sel), cornichons (2.8 %) (cornichons, vinaigre, sel), sucre, sel, amidon modifié, acidifiant : glucono-delta-lactone, conservateur : sorbate de potassium, antioxydant : E385 (74 mg/kg), épice, arôme naturel aneth.</t>
-  </si>
-  <si>
     <t>Légumes 43,2 % (pomme de terre, oignon, carotte, tomate, poireau) - Amidon modifié de pomme de terre - Extrait de levure - Sirop de glucose de maïs - Huile de colza - Sucre - Arôme naturel - Ail - Curcuma.</t>
   </si>
   <si>
     <t>huile de colza, vinaigre balsamique (vinaigre de vin, moût de raisins, colorant : E150d, sulfites), sauce soja 15% (eau, soja, farine de blé (contient gluten), sel) , sucre, jus concentré de citron vert, gingembre (contient sulfites), épaississant : gomme xanthane.</t>
-  </si>
-  <si>
-    <t>Amidon de maïs* - Lait écrémé* - Sel - Fécule de pomme de terre* - Tomate* - Oignon* - Arômes naturels - Poivres* 3 % (poivre vert*, poivre blanc*, poivre noir*) - Huile de tournesol* - Extrait de levure* - Sucre caramélisé* - Ail* - Maltodextrine de maïs*.
-* issus de l’agriculture biologique</t>
   </si>
   <si>
     <t>Graisse végétale (palme)</t>
@@ -4505,11 +4298,6 @@
     <t>Paprika, coriandre, céleri, estragon, gingembre, citronnelle</t>
   </si>
   <si>
-    <t>Chocolat en poudre*° (73%) (sucre roux de canne*°, poudre de cacao*° 41% minimum), farine de BLÉ T65*, farine de graines de guar*, sel de Guérande.
-* Produits issus de l’Agriculture Biologique.
-° Ingrédients issus du commerce Équitable. 73.4% des ingrédients d'origine agricole sont issus du commerce équitable (Sucre : Paraguay ; Cacao : République Dominicaine).</t>
-  </si>
-  <si>
     <t>Eau, huile de tournesol, beurre 9,5 %, jaune d'oeuf 6 %, amidon modifié, sel, jus de citron concentré, amidon de maïs, épaississants (gomme guar, gomme xanthane), protéines de pois, sucre, arôme naturel, curcuma, extrait de paprika.</t>
   </si>
   <si>
@@ -4522,18 +4310,10 @@
     <t>SUCRE DE CANNE, EAU, JUS DE FRUIT DE LA PASSION A BASE DE CONCENTRE (10%), ACIDIFIANT : ACIDE CITRIQUE, AROMES, COLORANT : BETA CAROTENE, STABILISANT: E 445.</t>
   </si>
   <si>
-    <t>Semoule de blé dur (71%), lentilles vertes précuites (6%), arômes naturels, flocon de soja (3%), carotte deshydratée (3%), petits pois deshydraté (2%), oignon rissolé deshydraté (1%) (oignon, huile de tournesol, antioxydant : extrait de romarin), huile de colza (1%), oignon déshydraté (1%), flocon d’orge (1%), flocon d’avoine (1%), poireau deshydraté.</t>
-  </si>
-  <si>
     <t>SIROP DE GLUCOSE / SUCRE / AROMES / ACIDIFIANT: ACIDE CITRIQUE E 330 / CONCENTRES (CASSIS, CAROTTE, POMME, CARTHAME, SPIRULINE, HIBISCUS)</t>
   </si>
   <si>
     <t>Farine de blé T45</t>
-  </si>
-  <si>
-    <t>Sucre roux de canne*° (64%), amidon de maïs*, poudre de LAIT écrémé*, poudre d’OEUFS entiers*, gélifiants : carraghénanes, agar-agar* ; arôme naturel de vanille* et autres arômes naturels*, poudre de gousses de vanille*, curcuma*.
-* Produits issus de l’Agriculture Biologique.
-° Ingrédient issu du commerce équitable. 65.1% des ingrédients d’origine agricole sont issus du commerce équitable (Sucre : Paraguay).</t>
   </si>
   <si>
     <t>Farine 87,1 % (Blé (GLUTEN), Blé hydrolysé (GLUTEN)) - Sucre - Caramel 5,00 % - Arôme - Vitamines (C, B1) - Diphosphate ferrique</t>
@@ -4617,27 +4397,6 @@
 Sirop de glucose ; sucre ; graisse végétale (palme, palmiste) ; acidifiants : E330 et E270 ; stabilisants : E414, E420 ; malodextrine ; arômes ; colorants : E100, E141, E163 ; émulsifiant : E473.</t>
   </si>
   <si>
-    <t>1 - SUZI WAN Nouilles en pot aux petits légumes 65 g
-nouilles (FARINE DE BLÉ, huile de palme, fécules de pomme de terre, sel, poudre à lever : carbonate de potassium, carbonate de sodium) (84%), arôme naturel, légumes déshydratés (pois, maïs, champignons noirs, poivrons rouge, carottes, oignons en poudre, ail en poudre, épices, ciboulette, sauce SOJA en poudre (graines de SOJA, BLÉ, sel), curry en poudre.
-2 - SUZI WAN Nouilles en pot saveur boeuf et sauce soja 61 g
-nouilles (FARINE DE BLÉ, huile de palme, fécules de pomme de terre, sel, poudre à lever : carbonate de potassium, carbonate de sodium) (89%), arôme naturel, légumes déshydratés (carottes, poivrons rouge, champignons noirs), poudre d’oignon (grillé), ail, curry en poudre, épices, ciboulette, sauce SOJA en poudre (graines de SOJA, BLÉ, sel).
-3 - SUZI WAN Nouilles en pot saveur poulet au curry 62 g
-nouilles (FARINE DE BLÉ, huile de palme, fécules de pomme de terre, sel, poudre à lever : carbonate de potassium, carbonate de sodium) (88%), arôme naturel, légumes déshydratés (carottes, poivrons rouge, curry en poudre, poudre d’oignon (grillé), ail grillé* (ail*, huile de tournesol*), extrait de levure, sel, ciboulette, épices, sauce SOJA en poudre (graines de SOJA, BLÉ, sel). *Certifié biologique.
-4 - SUZI WAN Nouilles en pot saveur crevette 62 g
-nouilles (89%) (farine de BLÉ, huile de palme, fécules de pomme de terre, sel, poudres à lever : carbonate de potassium, carbonate de sodium), arôme naturel, maltodextrine, légumes déshydratés (2.7%) (carotte, champignons noirs, poivron rouge), sauce SOJA en poudre (fèves de SOJA, BLÉ, sel), herbes, sel, épices.</t>
-  </si>
-  <si>
-    <t>Croustilles de céréales enrobées de chocolat au lait et de chocolat blanc arôme café
-chocolat blanc arôme café 48% (sucre, beurre de cacao, poudre de lait entier, arômes), chocolat au lait 38% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), sucre glace. 
-Chocolat au lait et blanc: cacao 33% min. Traces éventuelles de : oeufs, fruits à coque.
-Croustilles de céréales enrobées de chocolat au lait et de pâte de spéculoos
-chocolat au lait 68% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), pâte de spéculoos 16% [Spéculoos 60% (farine de blé, sucre, huiles et graisses végétales (palme, colza), sirop de candi, poudres à lever : E500(ii) - carbonate acide d'ammonium, sel, cannelle), huiles et graisses végétales partiellement hydrogénées (tournesol, colza, palme), sucre, émulsifiants : lécithines - E472c, correcteur d’acidité : E330], céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), beurre de cacao, sucre glace, cannelle moulue.
-Chocolat au lait : 33% de cacao min. Traces éventuelles de : oeufs, fruits à coque.
-Croustilles de céréales enrobées de praliné et de chocolat au lait avec praliné grain
-chocolat au lait 65% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), praliné 12% (noisettes 50%, sucre, émulsifiant : lécithines (soja), arôme naturel de vanille), céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d’acidité : E170), praliné grain 8% (sucre, amandes et noisettes torréfiées), beurre de cacao, agents d’enrobage : E414-E904.
-Chocolat au lait : cacao 33% min. Traces éventuelles de : oeufs, autres fruits à coque.</t>
-  </si>
-  <si>
     <t>Les Classiques :
 - Semoule de blé dur de qualité supérieure, oeufs frais (13,9% soit 140g/kg de semoule)
 - Contient du gluten
@@ -4649,14 +4408,255 @@
     <t>Sucre - Blancs d'OEUFS - AMANDES en poudre 14% - BEURRE pâtissier 13% -Farine de BLÉ - Stabilisant : sorbitol -Sel - Arôme naturel -Poudres à lever : diphosphates, carbonates de sodium .</t>
   </si>
   <si>
-    <t>Menthe poivrée, Mélisse, Verveine, Menthe nanah, Feuille d’oranger, Bouton d’oranger, Pétales d’oranger, Ecorces d’oranger, Vanille gousse - issus de l’agriculture biologique</t>
-  </si>
-  <si>
     <t>- 100% Semoule de blé dur de qualité supérieure</t>
   </si>
   <si>
+    <t>Aubergine 60,5% (aubergine, huile de tournesol), eau, oignon, huile de tournesol, jus de citron, concentré de tomate, huile d'olive vierge extra (2%), ail, sel, persil, basilic, poivre, thym, romarin.</t>
+  </si>
+  <si>
+    <t>Piment rouge fort équeuté* (85%), cumin, ail moulu (3%), eau, arome naturel d'ail, sel, sorbate de potassium. (* présence de sulfites)</t>
+  </si>
+  <si>
+    <t>Riz à grain long précuit (65%), feuilles de vignes (15%), eau, huile de soja (10%), oignons, aneth, menthe, sel, condiments, agent correcteur d'acidité : acide citrique</t>
+  </si>
+  <si>
+    <t>Huile de colza, morue (32%), eau, protéines de lait, sel, épaississant : carraghénanes (extrait d'algues marines)</t>
+  </si>
+  <si>
+    <t>Huile de colza (48 %), sucre, eau, vinaigre, purée de tomates, jaunes d'oeufs (4.4 %), oignons, moutarde (eau, graines de moutarde, sel, vinaigre, curcuma), extraits naturels et aromates, oignons rôtis (1.6 %) (contient blé), sel, antioxydant : extrait de romarin, acidifiant : acide citrique, arômes, colorant : extrait de paprika.</t>
+  </si>
+  <si>
+    <t>Eau, poissons 35%, langoustines 5% (têtes et pattes), purée de tomates double concentrée, amidon modifié de maïs, oignons, carottes, poireaux, vin blanc, sel de Guérande 1.45%, épices et plantes aromatiques, huile d'olive vierge extra, arôme naturel de crustacés.</t>
+  </si>
+  <si>
+    <t>Croustilles de céréales enrobées de chocolat au lait et de chocolat blanc arôme café
+chocolat blanc arôme café 48% (sucre, beurre de cacao, poudre de lait entier, arômes), chocolat au lait 38% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d'acidité : E170), sucre glace. 
+Chocolat au lait et blanc: cacao 33% min. Traces éventuelles de : oeufs, fruits à coque.
+Croustilles de céréales enrobées de chocolat au lait et de pâte de spéculoos
+chocolat au lait 68% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), pâte de spéculoos 16% [Spéculoos 60% (farine de blé, sucre, huiles et graisses végétales (palme, colza), sirop de candi, poudres à lever : E500(ii) - carbonate acide d'ammonium, sel, cannelle), huiles et graisses végétales partiellement hydrogénées (tournesol, colza, palme), sucre, émulsifiants : lécithines - E472c, correcteur d'acidité : E330], céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d'acidité : E170), beurre de cacao, sucre glace, cannelle moulue.
+Chocolat au lait : 33% de cacao min. Traces éventuelles de : oeufs, fruits à coque.
+Croustilles de céréales enrobées de praliné et de chocolat au lait avec praliné grain
+chocolat au lait 65% (sucre, beurre de cacao, poudre de lait entier, pâte de cacao, émulsifiant : lécithines (soja), arôme naturel de vanille), praliné 12% (noisettes 50%, sucre, émulsifiant : lécithines (soja), arôme naturel de vanille), céréales croustillantes 12% (farine de blé, gluten de blé, sucre, farine de malt de blé, poudre à lever : E500(ii), sel, correcteur d'acidité : E170), praliné grain 8% (sucre, amandes et noisettes torréfiées), beurre de cacao, agents d'enrobage : E414-E904.
+Chocolat au lait : cacao 33% min. Traces éventuelles de : oeufs, autres fruits à coque.</t>
+  </si>
+  <si>
+    <t>Jus d'orange à base de concentré</t>
+  </si>
+  <si>
+    <t>Tomate (46%), oignons, poivrons rouges, sucre, vinaigre d'alcool, mélasse, vinaigre balsamique, sel, épices.</t>
+  </si>
+  <si>
+    <t>Pur thé vert* (100%).
+(*) Ingrédients issus de l'Agriculture Biologique</t>
+  </si>
+  <si>
+    <t>Lentilles* 96%, huile de tournesol*, sel de mer 0,7%, poivre noir* 0,5%, acidiant : acide citrique, sucre de canne*, fécule de tapioca*. *Ingrédients issus de l'agriculture biologique.</t>
+  </si>
+  <si>
+    <t>Farine de blé - Sucre - Huile de colza - OEufs entiers 16%- Stabilisants : glycérol, sirop de sorbitol - Emulsifiant : E471- Poudres à lever : E450i, E500ii- Sel- Arôme- Conservateur : sorbate de potassium -Correcteur d'acidité : acide citrique.</t>
+  </si>
+  <si>
+    <t>Farine de blé, oeufs frais, huile de colza, sucre, fruits confits 9.8% [dés de pastèque confits (colorant : carmins), écorces d'orange confites, sirop de glucose-fructose, sucre, conservateurs (sorbate de potassium, anhydride sulfureux), correcteur d'acidité : acide citrique], raisins secs 8.2%, stabilisant : glycérol, amidon modifié de maïs, émulsifiant : mono- et diglycérides d'acides gras, sel, poudres à lever (diphosphates, carbonates de sodium), arôme naturel d'orange, conservateur : sorbate de potassium, épaississant : gomme xanthane. Peut contenir des traces de : lait, graines de sésame, fruits à coque, soja.</t>
+  </si>
+  <si>
+    <t>Pomme* 49,8%, poire* 49,8%, jus d'acérola*.
+*Ingrédients issus de l'agriculture biologique.</t>
+  </si>
+  <si>
+    <t>Lait écrémé 76%, chocolat en poudre 9% (sucre, cacao en poudre), crème fraiche, sucre, poudre de lait, amidon transformé, épaississant : gomme xanthane, correcteur d'acidité : citrate de sodium.</t>
+  </si>
+  <si>
+    <t>Semoule de blé dur précuite* (gluten) (44,5%), semoule de blé dur complète précuite* (gluten) (29,5%), flocons de soja* (15%), flocons de céréales* (gluten) (blé* (3%), orge*, avoine* , seigle* (2,2%), riz* (0,7%).
+* Ingrédients issus de l'Agriculture Biologique</t>
+  </si>
+  <si>
+    <t>Eau, huile de tournesol, miel 10%, moutarde à l'ancienne 8% (eau, graines de MOUTARDE, vinaigre d'alcool, sel, vin blanc (dont SULFITES), sucre, épices), vinaigre de cidre, amidon
+modifié de maïs, jaune d'OEUF, sel, acidifiant: acide lactique, conservateur: sorbate de potassium, épaississant: gomme xanthane, arôme naturel, antioxydant E385</t>
+  </si>
+  <si>
+    <t>Pommes 21%, poires 39%, eau, sucre, arôme, antioxydant : acide ascorbique, acidifiant : acide citrique (si le fruit n'en contient pas suffisamment).</t>
+  </si>
+  <si>
+    <t>Betteraves rouges, eau, vinaigre d'alcool, sel, sucre, arôme naturel.</t>
+  </si>
+  <si>
+    <t>Huile de colza, eau, jaune d'oeuf, vinaigre, moutarde de Dijon (eau, graines de moutarde, vinaigre, sel, antioxydant : disulfite de potassium, acidifiant : acide citrique), sucre, sel,  paississants : gomme de guar et gomme de xanthane, amidon modifié, conservateur : E202, colorant : caroténoïdes, antioxydant : E385</t>
+  </si>
+  <si>
+    <t>- 100% Semoule de BLE dur de qualité supérieure
+- Contient du gluten
+Si le numéro de lot contient la lettre N : peu contenir de l'œuf</t>
+  </si>
+  <si>
+    <t>Eau, graines de moutarde, vinaigre d'alcool, sel, vin blanc (contient sulfites), sucre, épices, acidifiant (acide citrique), conservateur (disulfite de potassium)</t>
+  </si>
+  <si>
+    <t>Huile de colza, eau, vinaigre, sucre, jaune d'OEUF, épices 2,3% (paprika, coriandre, cumin, poivre, piment, curcuma), sel, MOUTARDE (eau, vinaigre, graines de MOUTARDE, sel, acidifiant : E330, sucre, épice, antioxydant : E224, arômes), oignons déshydratés, amidon modifié, ail déshydraté, acidifiant : E270, mélange de plantes aromatiques, épaississants : E415 et E412, extrait d'orge malté (GLUTEN), conservateur : E202.</t>
+  </si>
+  <si>
+    <t>HUILE D'ARACHIDE RAFFINEE 100%</t>
+  </si>
+  <si>
+    <t>Sardines (Sardina pilchardus) 65 %, eau, concentré de tomate 8,5 %, huile de tournesol, vinaigre d'alcool, sel, épaississant : xanthane, épices.
+Zone de pêche : Océan Atlantique Centre Est</t>
+  </si>
+  <si>
+    <t>1 - SUZI WAN Nouilles en pot aux petits légumes 65 g
+nouilles (FARINE DE BLÉ, huile de palme, fécules de pomme de terre, sel, poudre à lever : carbonate de potassium, carbonate de sodium) (84%), arôme naturel, légumes déshydratés (pois, maïs, champignons noirs, poivrons rouge, carottes, oignons en poudre, ail en poudre, épices, ciboulette, sauce SOJA en poudre (graines de SOJA, BLÉ, sel), curry en poudre.
+2 - SUZI WAN Nouilles en pot saveur boeuf et sauce soja 61 g
+nouilles (FARINE DE BLÉ, huile de palme, fécules de pomme de terre, sel, poudre à lever : carbonate de potassium, carbonate de sodium) (89%), arôme naturel, légumes déshydratés (carottes, poivrons rouge, champignons noirs), poudre d'oignon (grillé), ail, curry en poudre, épices, ciboulette, sauce SOJA en poudre (graines de SOJA, BLÉ, sel).
+3 - SUZI WAN Nouilles en pot saveur poulet au curry 62 g
+nouilles (FARINE DE BLÉ, huile de palme, fécules de pomme de terre, sel, poudre à lever : carbonate de potassium, carbonate de sodium) (88%), arôme naturel, légumes déshydratés (carottes, poivrons rouge, curry en poudre, poudre d'oignon (grillé), ail grillé* (ail*, huile de tournesol*), extrait de levure, sel, ciboulette, épices, sauce SOJA en poudre (graines de SOJA, BLÉ, sel). *Certifié biologique.
+4 - SUZI WAN Nouilles en pot saveur crevette 62 g
+nouilles (89%) (farine de BLÉ, huile de palme, fécules de pomme de terre, sel, poudres à lever : carbonate de potassium, carbonate de sodium), arôme naturel, maltodextrine, légumes déshydratés (2.7%) (carotte, champignons noirs, poivron rouge), sauce SOJA en poudre (fèves de SOJA, BLÉ, sel), herbes, sel, épices.</t>
+  </si>
+  <si>
+    <t>Noodles 88% (farine de BLE, huile de palme, amidon transformé, sel, poudre à lever : E 500-E 501), sel, amidon, exhausteurs de goût : E 621-E 635, lactose (LAIT), sucre, arôme, extrait de levure, légumes (carottes, CELERI, poireau), épices ( ail, poivre), huile de palme, colorants : E 150c-E 100, persil, sauce soja (jus fermenté de graines de SOJA et grains de BLE, maltodextrine, sel), préparation déshydratée de viande de boeuf 0.1%( viande de boeuf, sel), correcteur d'acidité : E 330.</t>
+  </si>
+  <si>
+    <t>Légumes 83% (courgettes, tomates, poivrons rouges et verts, aubergines, oignons), jus de tomates, purée de tomate double concentré, huile d'olive vierge extra (1.4%), sucre, sel, amidon de maïs, oignons grillés en poudre, ail en poudre, herbes aromatiques, jus concentré de citron, acidifiant : acide citrique, poivre, arôme naturel de basilic avec autres arômes naturels.</t>
+  </si>
+  <si>
+    <t>huile de tournesol (40%), eau, vinaigre de vin blanc (dont SULFITES), LACTOSE, jaune d'OEUF de poules élevées en plein air (4,9%), dextrose, moutarde de Dijon (2,5%) (eau, graines de MOUTARDE, vinaigre d'alcool, sel, acidifiant : acide citrique, conservateur : E224 (SULFITES)), amidon modifié de maïs, sel, jus de citron concentré, épaississant (gomme xanthane), acidifiant (acide tartrique), conservateur (acide sorbique), arômes, antioxydant (extrait de romarin), colorants (extrait de paprika et lutéine).</t>
+  </si>
+  <si>
+    <t>Huile de colza, eau, vinaigre, cornichons, sucre, câpres, jaune d'OEUF, amidon modifié, oignon, MOUTARDE de Dijon (eau, graines de MOUTARDE, vinaigre, sel, acidifiant : E330, antioxydant : E224), sel, persil, acidifiant : acide lactique, épaississants : gomme xanthane et gomme de guar, conservateur : sorbate de potassium.</t>
+  </si>
+  <si>
+    <t>Céréales [farine de froment (27.5%), céréales complètes (15.1%) (farine complète de froment (15 %), farine complète de seigle , farine complète d'orge )] sucre graisses végétales (palme, palmiste, colza) poudre de cacao maigre (5.1%) amidon de blé lait écrémé en poudre (équivalent lait 16%) amidon de pomme de terre poudres à lever (carbonates de sodium et d'ammonium, diphosphates) lactose et protéines de lait sel arôme émulsifiant : lécithine de tournesol agent de traitement de la farine : E223 (sulfites)
+Peut contenir des traces de fruits à coque, de soja, d'oeuf et de sésame</t>
+  </si>
+  <si>
+    <t>vinaigre d'alcool, piment jalapeno, eau, sel, épaississants (E1422,E415) ,antioxydant (acide ascorbique).</t>
+  </si>
+  <si>
+    <t>Huile végétale (huile de colza, huile de colza totalement hydrogénée) ; légumes (concentré de tomate (22%), tomate deshydratée (1%)) ; épices et plantes aromatiques (ail, oignon, basilic (3%), paprika, thym (1%), poivre noir) ; sel ; sucre ; vinaigre d'alcool ; arôme naturel.</t>
+  </si>
+  <si>
+    <t>100% Huile d'ARACHIDE raffinée</t>
+  </si>
+  <si>
+    <t>pommes* (70%), banane* (30%)
+*Ingrédient issu de l'agriculture biologique</t>
+  </si>
+  <si>
+    <t>Carottes, eau, sucre, sel, vinaigre d'alcool, acidifiant : acide lactique. Présence fortuite de CELERI</t>
+  </si>
+  <si>
+    <t>Amidon (maïs, pomme de terre), légumes (tomate**: 34%, oignon), sel, sucre, maltodextrine, extrait de levure, huile d'olive vierge extra, jus de betterave concentré, aromates (ail, basilic), arômes.
+** Tomates issues de l'agriculture durable</t>
+  </si>
+  <si>
+    <t>- Farine de blé T65*
+- Sucre de canne blond non raffiné*
+- Beurre doux de baratte* (26,6 %)
+- OEufs frais entiers*
+- Jaunes d'oeufs sucrés*
+- Sel marin gris de Guérande
+- Poudres à lever (phosphates de calcium, carbonates de sodium, carbonates d'ammonium)
+* Ingrédients issus de l'Agriculture Biologique.</t>
+  </si>
+  <si>
+    <t>Lait écrémé 59.5%, lait en poudre reconstitué 20.5%, sucre, crème, semoule de blé, poudre de lait, extrait aromatique rhum orange (rhum, infusion d'écorces d'oranges douces, alcool), épaississant : alginate de sodium, rhum, correcteur d'acidité : citrate de sodium.</t>
+  </si>
+  <si>
+    <t>pommes* (80%), framboises* (20%)
+*Ingrédient issu de l'agriculture biologique</t>
+  </si>
+  <si>
+    <t>Graines de sésame 37%, chocolat de couverture 25% (sucre, pâte de cacao, beurre de cacao, émulsifiant : lécithines de soja, E476, arôme), sirop de glucose, sucre.
+Fabriqué dans un atelier qui utilise de l'arachide, des fruits à coque et du lait.</t>
+  </si>
+  <si>
+    <t>Etui 400 g
+100 % semoule de blé dur complète* (gluten)
+* Ingrédient issu de l'Agriculture Biologique.
+Traces possibles d'oeuf.
+Sac 5 kg
+100 % semoule de blé dur complète* (gluten)
+* Ingrédient issu de l'Agriculture Biologique
+Traces possibles de soja
+Sac 25 kg / BB 1 T
+100 % semoule de blé dur complète* (gluten)
+* Ingrédient issu de l'Agriculture Biologique.</t>
+  </si>
+  <si>
+    <t>Farine d'épeautre et eau.</t>
+  </si>
+  <si>
+    <t>Vinaigre de vin rouge au jus d'échalote 7% d'acidité
+Vinaigre de vin rouge (sulfites), jus d'échalote (0.5%), arôme*, conservateur: sulfite acide de sodium
+Vinaigre de vin rouge aromatisé à l'échalote 7% d'acidité
+Vinaigre de vin rouge (sulfites), arômes échalote (1%), conservateur: sulfite acide de sodium</t>
+  </si>
+  <si>
+    <t>FLOCON D'EPEAUTRE 23 %, graines de tournesol, graines de lin, SON D'AVOINE, graines de courge 11%, SON DE BLE, SON D'EPEAUTRE 7%, FARINE D'EPEAUTRE COMPLET 2 %, eau, sel. Peut contenir des traces de SESAME et SOJA.</t>
+  </si>
+  <si>
+    <t>Sucre, farine de blé, huile de colza, oeufs frais (13%), pépites de chocolat noir (8,5%) (sucre, pâte de cacao, beurre de cacao, cacao maigre en poudre, émulsifiant : lécithine de tounesol), beurre concentré, blancs d'oeufs frais (6%), stabilisant : glycérol, sirop de sucre inverti, poudre de cacao, poudre de lait entier, sel, poudres à lever : pyrophosphate et bicarbonate de soude, émulsifiant : mono- et diglycérides d'acides gras, conservateur : sorbate de potassium, arômes.</t>
+  </si>
+  <si>
+    <t>Sucre, farine de blé, huile de colza, oeufs frais (13%), pépites de chocolat noir (8,5%) (sucre, pâte de cacao, beurre de cacao, cacao maigre en poudre, émulsifiant : lécithine de tounesol), beurre concentré, blancs d'oeufs frais (6%), stabilisant : glycérol, sirop de sucre inverti, poudre de cacao, poudre de lait entier, sel, poudres à lever : pyrophosphate et bicarbonate de soude, émulsifiant : mono- et diglycérides d'acides gras, conservateur: sorbate de potassium, arômes.</t>
+  </si>
+  <si>
+    <t>Menthe poivrée, Mélisse, Verveine, Menthe nanah, Feuille d'oranger, Bouton d'oranger, Pétales d'oranger, Ecorces d'oranger, Vanille gousse - issus de l'agriculture biologique</t>
+  </si>
+  <si>
+    <t>Débris de truffes d'hiver, jus de truffes, sel</t>
+  </si>
+  <si>
+    <t>Eau de source*/Eau**; jus de fruits à base de concentrés 12.4% (orange 11.4%, ananas 1%); sucre; acidifiants: acide citrique, acide malique; extraits d'orange; arômes; antioxydant: acide ascorbique; stabilisant: gomme arabique.
+*PET
+**CAN</t>
+  </si>
+  <si>
+    <t>sucre 49,0%; noisettes 25,0%; amandes 25,0%; émulsifiant: mono- et diglycérides d'acides gras &lt;1%; émulsifiant: lécithine de tournesol &lt;1%</t>
+  </si>
+  <si>
+    <t>Sucre, chapelure de pain (Farine de blé, farine de germe de maïs stabilisé, eau, levain (blé, seigle), levure, sel, gluten, germe de blé, protéines de blé, semoule de blé dur, épices), farine de blé, poudre à lever*(amidon de blé*, bicarbonate de sodium, tartrate monopotassique).
+(* Issus de l'agriculture biologique), sucre vanillé.</t>
+  </si>
+  <si>
+    <t>Cornichons, eau, vinaigre d'alcool, sel, graines de moutarde, oignons, coriandre, poivre et arome d'estragon</t>
+  </si>
+  <si>
+    <t>Huile de colza, « Aceto Balsamico di Modena IGP » (25%) (vinaigre de vin, moût de raisin cuit, colorant E-150d), huile d'olive vierge extra.
+Contient sulfites.</t>
+  </si>
+  <si>
+    <t>Eau gazéifiée ; sirop d'agave ; extrait naturel de maté ; arômes
+naturels ; acidifiant: acide citrique</t>
+  </si>
+  <si>
+    <t>Miel.
+Mélange de miels originaires et non originaires de l'UE.</t>
+  </si>
+  <si>
+    <t>sirop d'érable pur à 100 %.</t>
+  </si>
+  <si>
+    <t>Huile de colza (70.45 %), jaunes d'oeufs (6.2 %), purée de tomates, eau, vinaigre, câpres (2.8 %) (câpres, eau, sel), cornichons (2.8 %) (cornichons, vinaigre, sel), sucre, sel, amidon modifié, acidifiant : glucono-delta-lactone, conservateur : sorbate de potassium, antioxydant : E385 (74 mg/kg), épice, arôme naturel aneth.</t>
+  </si>
+  <si>
+    <t>Amidon de maïs* - Lait écrémé* - Sel - Fécule de pomme de terre* - Tomate* - Oignon* - Arômes naturels - Poivres* 3 % (poivre vert*, poivre blanc*, poivre noir*) - Huile de tournesol* - Extrait de levure* - Sucre caramélisé* - Ail* - Maltodextrine de maïs*.
+* issus de l'agriculture biologique</t>
+  </si>
+  <si>
     <t>chocolat au lait (38%)(sucre, beurre de cacao, pâte de cacao, lait écrémé en poudre, beurre pâtissier, émulsifiant: lécithine de soja, arôme) - farine de blé - sucre - graisse végétale (palme, colza) - sel - lactose et protéines de lait - lait entier en poudre - émulsifiant: lécithine de soja - poudres à lever: carbonates de sodium, carbonates d'ammonium, diphosphate disodique - noix de coco - arôme - oeuf entier en poudre.
-Peut contenir des traces de sésame, de fruits à coque, d’avoine, d’orge et d’autres glutens.</t>
+Peut contenir des traces de sésame, de fruits à coque, d'avoine, d'orge et d'autres glutens.</t>
+  </si>
+  <si>
+    <t>Chocolat en poudre*° (73%) (sucre roux de canne*°, poudre de cacao*° 41% minimum), farine de BLÉ T65*, farine de graines de guar*, sel de Guérande.
+* Produits issus de l'Agriculture Biologique.
+° Ingrédients issus du commerce Équitable. 73.4% des ingrédients d'origine agricole sont issus du commerce équitable (Sucre : Paraguay ; Cacao : République Dominicaine).</t>
+  </si>
+  <si>
+    <t>Semoule de blé dur (71%), lentilles vertes précuites (6%), arômes naturels, flocon de soja (3%), carotte deshydratée (3%), petits pois deshydraté (2%), oignon rissolé deshydraté (1%) (oignon, huile de tournesol, antioxydant : extrait de romarin), huile de colza (1%), oignon déshydraté (1%), flocon d'orge (1%), flocon d'avoine (1%), poireau deshydraté.</t>
+  </si>
+  <si>
+    <t>Sucre roux de canne*° (64%), amidon de maïs*, poudre de LAIT écrémé*, poudre d'OEUFS entiers*, gélifiants : carraghénanes, agar-agar* ; arôme naturel de vanille* et autres arômes naturels*, poudre de gousses de vanille*, curcuma*.
+* Produits issus de l'Agriculture Biologique.
+° Ingrédient issu du commerce équitable. 65.1% des ingrédients d'origine agricole sont issus du commerce équitable (Sucre : Paraguay).</t>
   </si>
 </sst>
 </file>
@@ -5471,8 +5471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="B94" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5524,7 +5524,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5535,7 +5535,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5546,7 +5546,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>954</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -5557,7 +5557,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1429</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5568,7 +5568,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5579,7 +5579,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5590,7 +5590,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5601,7 +5601,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5612,7 +5612,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5623,7 +5623,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1430</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5634,7 +5634,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5645,7 +5645,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5656,7 +5656,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5667,7 +5667,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1015</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5678,7 +5678,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5689,7 +5689,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5700,7 +5700,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5711,7 +5711,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5722,7 +5722,7 @@
         <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5733,7 +5733,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5741,10 +5741,10 @@
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5755,7 +5755,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -5766,7 +5766,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -5777,7 +5777,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1431</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -5788,7 +5788,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5799,7 +5799,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5810,7 +5810,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1027</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5821,7 +5821,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5829,10 +5829,10 @@
         <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5843,7 +5843,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5854,7 +5854,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5865,7 +5865,7 @@
         <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5876,7 +5876,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5887,7 +5887,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5895,10 +5895,10 @@
         <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5909,7 +5909,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5920,7 +5920,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5931,7 +5931,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5942,7 +5942,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5953,7 +5953,7 @@
         <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5964,7 +5964,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1176</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5975,7 +5975,7 @@
         <v>87</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5986,7 +5986,7 @@
         <v>89</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5997,7 +5997,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6008,7 +6008,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6019,7 +6019,7 @@
         <v>95</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6030,7 +6030,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6041,7 +6041,7 @@
         <v>99</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6052,7 +6052,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -6063,7 +6063,7 @@
         <v>103</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6074,7 +6074,7 @@
         <v>105</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1050</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6085,7 +6085,7 @@
         <v>107</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6096,7 +6096,7 @@
         <v>109</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1052</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6107,7 +6107,7 @@
         <v>111</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6118,7 +6118,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6129,7 +6129,7 @@
         <v>115</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6140,7 +6140,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6151,7 +6151,7 @@
         <v>119</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6162,7 +6162,7 @@
         <v>121</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6170,10 +6170,10 @@
         <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6184,7 +6184,7 @@
         <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6195,7 +6195,7 @@
         <v>126</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6206,7 +6206,7 @@
         <v>128</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6217,7 +6217,7 @@
         <v>130</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1063</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="270" x14ac:dyDescent="0.25">
@@ -6228,7 +6228,7 @@
         <v>132</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6239,7 +6239,7 @@
         <v>134</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6255,7 +6255,7 @@
         <v>137</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6266,7 +6266,7 @@
         <v>139</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6277,7 +6277,7 @@
         <v>141</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -6288,7 +6288,7 @@
         <v>143</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1435</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6299,7 +6299,7 @@
         <v>145</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6310,7 +6310,7 @@
         <v>147</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6321,7 +6321,7 @@
         <v>149</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1070</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6332,7 +6332,7 @@
         <v>151</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6343,7 +6343,7 @@
         <v>153</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -6354,7 +6354,7 @@
         <v>155</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6365,7 +6365,7 @@
         <v>157</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -6376,7 +6376,7 @@
         <v>159</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6387,7 +6387,7 @@
         <v>161</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -6398,7 +6398,7 @@
         <v>163</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -6409,7 +6409,7 @@
         <v>165</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6420,7 +6420,7 @@
         <v>167</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6431,7 +6431,7 @@
         <v>169</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -6442,7 +6442,7 @@
         <v>171</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -6453,7 +6453,7 @@
         <v>173</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -6464,7 +6464,7 @@
         <v>175</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -6475,7 +6475,7 @@
         <v>177</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -6486,7 +6486,7 @@
         <v>179</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6497,7 +6497,7 @@
         <v>181</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6505,10 +6505,10 @@
         <v>182</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6516,10 +6516,10 @@
         <v>183</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -6535,7 +6535,7 @@
         <v>186</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -6546,7 +6546,7 @@
         <v>188</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6557,7 +6557,7 @@
         <v>190</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1089</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -6568,7 +6568,7 @@
         <v>192</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -6579,7 +6579,7 @@
         <v>194</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1436</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -6590,7 +6590,7 @@
         <v>196</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6601,7 +6601,7 @@
         <v>198</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -6612,7 +6612,7 @@
         <v>200</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -6623,7 +6623,7 @@
         <v>202</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6634,7 +6634,7 @@
         <v>204</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6645,7 +6645,7 @@
         <v>206</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -6656,7 +6656,7 @@
         <v>208</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -6667,7 +6667,7 @@
         <v>210</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -6686,7 +6686,7 @@
         <v>214</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -6694,10 +6694,10 @@
         <v>215</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -6716,7 +6716,7 @@
         <v>219</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -6724,10 +6724,10 @@
         <v>220</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -6738,7 +6738,7 @@
         <v>222</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -6749,7 +6749,7 @@
         <v>224</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6760,7 +6760,7 @@
         <v>226</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1103</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -6771,7 +6771,7 @@
         <v>228</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -6782,7 +6782,7 @@
         <v>230</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1105</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6793,7 +6793,7 @@
         <v>232</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6801,10 +6801,10 @@
         <v>233</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -6815,7 +6815,7 @@
         <v>235</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6826,7 +6826,7 @@
         <v>237</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6837,7 +6837,7 @@
         <v>239</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6848,7 +6848,7 @@
         <v>241</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -6859,7 +6859,7 @@
         <v>243</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6870,7 +6870,7 @@
         <v>245</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1113</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6881,7 +6881,7 @@
         <v>247</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -6892,7 +6892,7 @@
         <v>249</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -6903,7 +6903,7 @@
         <v>251</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6914,7 +6914,7 @@
         <v>253</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6922,10 +6922,10 @@
         <v>254</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6936,7 +6936,7 @@
         <v>256</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6947,7 +6947,7 @@
         <v>258</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1120</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -6966,7 +6966,7 @@
         <v>262</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6977,7 +6977,7 @@
         <v>264</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6985,10 +6985,10 @@
         <v>265</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6999,7 +6999,7 @@
         <v>267</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -7010,7 +7010,7 @@
         <v>269</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -7021,7 +7021,7 @@
         <v>271</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -7029,10 +7029,10 @@
         <v>272</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7040,10 +7040,10 @@
         <v>273</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -7054,7 +7054,7 @@
         <v>275</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -7065,7 +7065,7 @@
         <v>277</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7076,7 +7076,7 @@
         <v>279</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
         <v>281</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -7098,7 +7098,7 @@
         <v>283</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1433</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -7109,7 +7109,7 @@
         <v>285</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -7120,7 +7120,7 @@
         <v>287</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -7139,7 +7139,7 @@
         <v>291</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7150,7 +7150,7 @@
         <v>293</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -7161,7 +7161,7 @@
         <v>295</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -7172,7 +7172,7 @@
         <v>297</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -7183,7 +7183,7 @@
         <v>299</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7194,7 +7194,7 @@
         <v>301</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -7202,10 +7202,10 @@
         <v>302</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -7216,7 +7216,7 @@
         <v>304</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -7243,7 +7243,7 @@
         <v>310</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1143</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7254,7 +7254,7 @@
         <v>312</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1144</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7265,7 +7265,7 @@
         <v>314</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1145</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
         <v>318</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7295,7 +7295,7 @@
         <v>320</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -7306,7 +7306,7 @@
         <v>322</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7317,7 +7317,7 @@
         <v>324</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1149</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7328,7 +7328,7 @@
         <v>326</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7339,7 +7339,7 @@
         <v>328</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1151</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -7350,7 +7350,7 @@
         <v>330</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1152</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7361,7 +7361,7 @@
         <v>332</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1153</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -7372,7 +7372,7 @@
         <v>334</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1154</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -7380,10 +7380,10 @@
         <v>335</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1155</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -7394,7 +7394,7 @@
         <v>337</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1156</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -7413,7 +7413,7 @@
         <v>341</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1157</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -7424,7 +7424,7 @@
         <v>343</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1158</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -7435,7 +7435,7 @@
         <v>345</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1159</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -7446,7 +7446,7 @@
         <v>347</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7457,7 +7457,7 @@
         <v>349</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1161</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7465,10 +7465,10 @@
         <v>350</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1162</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7479,7 +7479,7 @@
         <v>352</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1163</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -7490,7 +7490,7 @@
         <v>354</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1164</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7501,7 +7501,7 @@
         <v>356</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1218</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -7512,7 +7512,7 @@
         <v>358</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1165</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -7523,7 +7523,7 @@
         <v>360</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1166</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -7534,7 +7534,7 @@
         <v>362</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7545,7 +7545,7 @@
         <v>364</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1167</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -7564,7 +7564,7 @@
         <v>368</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1168</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -7583,7 +7583,7 @@
         <v>372</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1169</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -7594,7 +7594,7 @@
         <v>374</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1170</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -7605,7 +7605,7 @@
         <v>376</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1171</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -7616,7 +7616,7 @@
         <v>378</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1172</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7627,7 +7627,7 @@
         <v>380</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1173</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7638,7 +7638,7 @@
         <v>382</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1174</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7646,10 +7646,10 @@
         <v>383</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1175</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -7660,7 +7660,7 @@
         <v>385</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1177</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7671,7 +7671,7 @@
         <v>387</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1178</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7682,7 +7682,7 @@
         <v>389</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1179</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7693,7 +7693,7 @@
         <v>391</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1180</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -7704,7 +7704,7 @@
         <v>393</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -7715,7 +7715,7 @@
         <v>395</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1182</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7726,7 +7726,7 @@
         <v>397</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1183</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -7737,7 +7737,7 @@
         <v>399</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1184</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -7745,10 +7745,10 @@
         <v>400</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1185</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -7759,7 +7759,7 @@
         <v>402</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1186</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -7770,7 +7770,7 @@
         <v>404</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1187</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -7781,7 +7781,7 @@
         <v>406</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1188</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7792,7 +7792,7 @@
         <v>408</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1189</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -7803,7 +7803,7 @@
         <v>410</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1190</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -7814,7 +7814,7 @@
         <v>412</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1191</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -7833,7 +7833,7 @@
         <v>416</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1192</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -7852,7 +7852,7 @@
         <v>420</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1193</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -7871,7 +7871,7 @@
         <v>424</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1194</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -7890,7 +7890,7 @@
         <v>428</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1195</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -7901,7 +7901,7 @@
         <v>430</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1196</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -7920,7 +7920,7 @@
         <v>434</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1197</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -7939,7 +7939,7 @@
         <v>438</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1198</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -7947,10 +7947,10 @@
         <v>439</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1199</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7961,7 +7961,7 @@
         <v>441</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1200</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7972,7 +7972,7 @@
         <v>443</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1434</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7983,7 +7983,7 @@
         <v>445</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1201</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7994,7 +7994,7 @@
         <v>447</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1202</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -8005,7 +8005,7 @@
         <v>449</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1203</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -8016,7 +8016,7 @@
         <v>451</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1204</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8027,7 +8027,7 @@
         <v>453</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1205</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -8054,7 +8054,7 @@
         <v>458</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1206</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -8062,10 +8062,10 @@
         <v>459</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1207</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -8076,7 +8076,7 @@
         <v>461</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1208</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -8087,7 +8087,7 @@
         <v>463</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1209</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8098,7 +8098,7 @@
         <v>465</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1210</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8106,10 +8106,10 @@
         <v>466</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1211</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -8120,7 +8120,7 @@
         <v>468</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1212</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8131,7 +8131,7 @@
         <v>470</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1213</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -8142,7 +8142,7 @@
         <v>472</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1214</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8153,7 +8153,7 @@
         <v>474</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1215</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -8164,7 +8164,7 @@
         <v>476</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1216</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -8175,7 +8175,7 @@
         <v>478</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1217</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8186,7 +8186,7 @@
         <v>480</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1219</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -8197,7 +8197,7 @@
         <v>482</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1220</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -8208,7 +8208,7 @@
         <v>484</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1221</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8219,7 +8219,7 @@
         <v>486</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1222</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -8230,7 +8230,7 @@
         <v>488</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1223</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8238,10 +8238,10 @@
         <v>489</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1225</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -8252,7 +8252,7 @@
         <v>491</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1226</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -8263,7 +8263,7 @@
         <v>493</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1227</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -8279,10 +8279,10 @@
         <v>496</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1228</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -8293,7 +8293,7 @@
         <v>498</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1229</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -8304,7 +8304,7 @@
         <v>500</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1230</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -8323,7 +8323,7 @@
         <v>504</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1231</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -8342,7 +8342,7 @@
         <v>508</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1193</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8353,7 +8353,7 @@
         <v>510</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1232</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -8364,7 +8364,7 @@
         <v>512</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1233</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8375,7 +8375,7 @@
         <v>514</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1234</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -8386,7 +8386,7 @@
         <v>516</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1235</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -8397,7 +8397,7 @@
         <v>518</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1236</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8408,7 +8408,7 @@
         <v>520</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1237</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -8419,7 +8419,7 @@
         <v>522</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1238</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -8430,7 +8430,7 @@
         <v>524</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8441,7 +8441,7 @@
         <v>526</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1239</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8452,7 +8452,7 @@
         <v>528</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8463,7 +8463,7 @@
         <v>530</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -8474,7 +8474,7 @@
         <v>532</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1242</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -8482,7 +8482,7 @@
         <v>533</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8493,7 +8493,7 @@
         <v>535</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1243</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -8512,7 +8512,7 @@
         <v>539</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1224</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -8528,10 +8528,10 @@
         <v>542</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1244</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -8542,7 +8542,7 @@
         <v>544</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1245</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8553,7 +8553,7 @@
         <v>546</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1246</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -8564,7 +8564,7 @@
         <v>548</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1247</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8575,7 +8575,7 @@
         <v>550</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1248</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -8586,7 +8586,7 @@
         <v>552</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1249</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8594,10 +8594,10 @@
         <v>553</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1250</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -8608,7 +8608,7 @@
         <v>555</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1251</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -8627,7 +8627,7 @@
         <v>559</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1252</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8638,7 +8638,7 @@
         <v>561</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1253</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -8649,7 +8649,7 @@
         <v>563</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1254</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8660,7 +8660,7 @@
         <v>565</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1255</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -8671,7 +8671,7 @@
         <v>567</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1256</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8682,7 +8682,7 @@
         <v>569</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1257</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8693,7 +8693,7 @@
         <v>571</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1258</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -8704,7 +8704,7 @@
         <v>573</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1259</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8715,7 +8715,7 @@
         <v>575</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1260</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8726,7 +8726,7 @@
         <v>577</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1261</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8734,10 +8734,10 @@
         <v>578</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1262</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8748,7 +8748,7 @@
         <v>580</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1263</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -8759,7 +8759,7 @@
         <v>582</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1264</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8770,7 +8770,7 @@
         <v>584</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1265</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -8781,7 +8781,7 @@
         <v>586</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1266</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -8792,7 +8792,7 @@
         <v>588</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1267</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -8803,7 +8803,7 @@
         <v>590</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1268</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -8822,7 +8822,7 @@
         <v>594</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1269</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8833,7 +8833,7 @@
         <v>596</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1270</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -8844,7 +8844,7 @@
         <v>598</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1271</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8855,7 +8855,7 @@
         <v>600</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1272</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8866,7 +8866,7 @@
         <v>602</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1273</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -8874,10 +8874,10 @@
         <v>603</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1274</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8888,7 +8888,7 @@
         <v>605</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1275</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -8896,7 +8896,7 @@
         <v>606</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8907,7 +8907,7 @@
         <v>608</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1276</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8918,7 +8918,7 @@
         <v>610</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1277</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8929,7 +8929,7 @@
         <v>612</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1278</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -8937,10 +8937,10 @@
         <v>613</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1279</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8951,7 +8951,7 @@
         <v>615</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1280</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -8962,7 +8962,7 @@
         <v>617</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1281</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -8973,7 +8973,7 @@
         <v>619</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1282</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8984,7 +8984,7 @@
         <v>621</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1283</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8995,7 +8995,7 @@
         <v>623</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1284</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -9014,7 +9014,7 @@
         <v>627</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1285</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9025,7 +9025,7 @@
         <v>629</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1286</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -9036,7 +9036,7 @@
         <v>631</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1287</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -9047,7 +9047,7 @@
         <v>633</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1288</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -9058,7 +9058,7 @@
         <v>635</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1289</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9069,7 +9069,7 @@
         <v>637</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1290</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9080,7 +9080,7 @@
         <v>639</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1291</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -9091,7 +9091,7 @@
         <v>641</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1292</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -9102,7 +9102,7 @@
         <v>643</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1293</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9110,10 +9110,10 @@
         <v>644</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1294</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -9132,7 +9132,7 @@
         <v>648</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1295</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -9143,7 +9143,7 @@
         <v>650</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1296</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -9154,7 +9154,7 @@
         <v>652</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1297</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9165,7 +9165,7 @@
         <v>654</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1298</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9176,7 +9176,7 @@
         <v>656</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1299</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -9187,7 +9187,7 @@
         <v>658</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1300</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9195,10 +9195,10 @@
         <v>659</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1301</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -9209,7 +9209,7 @@
         <v>661</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1302</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9220,7 +9220,7 @@
         <v>663</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1303</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -9231,7 +9231,7 @@
         <v>665</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1304</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -9239,10 +9239,10 @@
         <v>666</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1305</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9253,7 +9253,7 @@
         <v>668</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1306</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9264,7 +9264,7 @@
         <v>670</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1307</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -9272,10 +9272,10 @@
         <v>671</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1308</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9286,7 +9286,7 @@
         <v>673</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1309</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -9297,7 +9297,7 @@
         <v>675</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1310</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9305,10 +9305,10 @@
         <v>676</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1311</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -9319,7 +9319,7 @@
         <v>678</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1312</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -9330,7 +9330,7 @@
         <v>680</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1313</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9341,7 +9341,7 @@
         <v>682</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1314</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -9352,7 +9352,7 @@
         <v>684</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1315</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -9363,7 +9363,7 @@
         <v>686</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1316</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -9374,7 +9374,7 @@
         <v>688</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1317</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9385,7 +9385,7 @@
         <v>690</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1318</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9396,7 +9396,7 @@
         <v>692</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1319</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -9407,7 +9407,7 @@
         <v>694</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1320</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -9426,7 +9426,7 @@
         <v>698</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1321</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9437,7 +9437,7 @@
         <v>700</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1322</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9448,7 +9448,7 @@
         <v>702</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1323</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9459,7 +9459,7 @@
         <v>704</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1324</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -9470,7 +9470,7 @@
         <v>706</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1325</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -9481,7 +9481,7 @@
         <v>708</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1326</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9492,7 +9492,7 @@
         <v>710</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1327</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9503,7 +9503,7 @@
         <v>712</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1328</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -9514,7 +9514,7 @@
         <v>714</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1329</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -9525,7 +9525,7 @@
         <v>716</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1330</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9536,7 +9536,7 @@
         <v>718</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1331</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -9547,7 +9547,7 @@
         <v>720</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1332</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9558,7 +9558,7 @@
         <v>722</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1437</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -9569,7 +9569,7 @@
         <v>724</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1333</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -9577,10 +9577,10 @@
         <v>725</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1334</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -9588,10 +9588,10 @@
         <v>726</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1335</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -9602,7 +9602,7 @@
         <v>728</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1438</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -9613,7 +9613,7 @@
         <v>730</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1336</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -9624,7 +9624,7 @@
         <v>732</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1337</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9635,7 +9635,7 @@
         <v>734</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1338</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -9646,7 +9646,7 @@
         <v>736</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1339</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -9665,7 +9665,7 @@
         <v>740</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1340</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9676,7 +9676,7 @@
         <v>742</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1341</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -9687,7 +9687,7 @@
         <v>744</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1342</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -9698,7 +9698,7 @@
         <v>746</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1343</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -9709,7 +9709,7 @@
         <v>748</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1344</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -9720,7 +9720,7 @@
         <v>750</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1345</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9731,7 +9731,7 @@
         <v>752</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1346</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -9750,7 +9750,7 @@
         <v>756</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1347</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -9761,7 +9761,7 @@
         <v>758</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1348</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9769,10 +9769,10 @@
         <v>759</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1349</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -9799,7 +9799,7 @@
         <v>765</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1350</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -9810,7 +9810,7 @@
         <v>767</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1351</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -9821,7 +9821,7 @@
         <v>769</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1352</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -9832,7 +9832,7 @@
         <v>771</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1353</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9843,7 +9843,7 @@
         <v>773</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1354</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -9854,7 +9854,7 @@
         <v>775</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1355</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9865,7 +9865,7 @@
         <v>777</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1356</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -9876,7 +9876,7 @@
         <v>779</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1357</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -9887,7 +9887,7 @@
         <v>781</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1358</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9898,7 +9898,7 @@
         <v>783</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1359</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -9909,7 +9909,7 @@
         <v>785</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1360</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9920,7 +9920,7 @@
         <v>787</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1361</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9931,7 +9931,7 @@
         <v>789</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1362</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -9958,7 +9958,7 @@
         <v>795</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1363</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9969,7 +9969,7 @@
         <v>797</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1364</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -9988,7 +9988,7 @@
         <v>801</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1365</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -9996,10 +9996,10 @@
         <v>802</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1366</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -10010,7 +10010,7 @@
         <v>804</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1367</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -10021,7 +10021,7 @@
         <v>806</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1368</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -10032,7 +10032,7 @@
         <v>808</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1369</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10043,7 +10043,7 @@
         <v>810</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1370</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -10054,7 +10054,7 @@
         <v>812</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1371</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -10073,7 +10073,7 @@
         <v>816</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1372</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10084,7 +10084,7 @@
         <v>818</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1373</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -10095,7 +10095,7 @@
         <v>820</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1374</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -10106,7 +10106,7 @@
         <v>822</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1375</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10117,7 +10117,7 @@
         <v>824</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1376</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10128,7 +10128,7 @@
         <v>826</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1377</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -10139,7 +10139,7 @@
         <v>828</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1378</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10150,7 +10150,7 @@
         <v>830</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1379</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10161,7 +10161,7 @@
         <v>832</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1380</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -10180,7 +10180,7 @@
         <v>836</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1381</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10191,7 +10191,7 @@
         <v>838</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1382</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10202,7 +10202,7 @@
         <v>840</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1383</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -10210,10 +10210,10 @@
         <v>841</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1384</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -10224,7 +10224,7 @@
         <v>843</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1385</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -10232,7 +10232,7 @@
         <v>844</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -10243,7 +10243,7 @@
         <v>846</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1386</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10254,7 +10254,7 @@
         <v>848</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1387</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -10265,7 +10265,7 @@
         <v>850</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1388</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -10276,7 +10276,7 @@
         <v>852</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1389</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -10303,7 +10303,7 @@
         <v>858</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1390</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -10314,7 +10314,7 @@
         <v>860</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1391</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -10325,7 +10325,7 @@
         <v>862</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1439</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10336,7 +10336,7 @@
         <v>864</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1392</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10347,7 +10347,7 @@
         <v>866</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1393</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10358,7 +10358,7 @@
         <v>868</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1394</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -10369,7 +10369,7 @@
         <v>870</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1395</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10380,7 +10380,7 @@
         <v>872</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1432</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10391,7 +10391,7 @@
         <v>874</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1396</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10399,10 +10399,10 @@
         <v>875</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1397</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -10429,7 +10429,7 @@
         <v>881</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1398</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -10440,7 +10440,7 @@
         <v>883</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1399</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -10451,7 +10451,7 @@
         <v>885</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -10470,7 +10470,7 @@
         <v>889</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1400</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10481,7 +10481,7 @@
         <v>891</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1401</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -10489,10 +10489,10 @@
         <v>892</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1402</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -10500,10 +10500,10 @@
         <v>893</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1403</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -10514,7 +10514,7 @@
         <v>895</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1404</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -10525,7 +10525,7 @@
         <v>897</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1405</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10536,7 +10536,7 @@
         <v>899</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1406</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10547,7 +10547,7 @@
         <v>901</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1407</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -10566,7 +10566,7 @@
         <v>905</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1408</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -10577,7 +10577,7 @@
         <v>907</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1409</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -10596,7 +10596,7 @@
         <v>911</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -10607,7 +10607,7 @@
         <v>913</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1410</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -10626,7 +10626,7 @@
         <v>917</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1411</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -10637,7 +10637,7 @@
         <v>919</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1412</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10648,7 +10648,7 @@
         <v>921</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1413</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -10659,7 +10659,7 @@
         <v>923</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1414</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -10670,7 +10670,7 @@
         <v>925</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1415</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10681,7 +10681,7 @@
         <v>927</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1416</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -10700,7 +10700,7 @@
         <v>931</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1417</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -10711,7 +10711,7 @@
         <v>933</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1418</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -10719,10 +10719,10 @@
         <v>934</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1419</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10733,7 +10733,7 @@
         <v>936</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1420</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -10744,7 +10744,7 @@
         <v>938</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1421</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10755,7 +10755,7 @@
         <v>940</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1422</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -10766,7 +10766,7 @@
         <v>942</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1423</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10774,10 +10774,10 @@
         <v>943</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1424</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -10788,7 +10788,7 @@
         <v>945</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1425</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -10796,10 +10796,10 @@
         <v>946</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1426</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -10810,7 +10810,7 @@
         <v>948</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1427</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -10821,7 +10821,7 @@
         <v>950</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1428</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -10829,10 +10829,10 @@
         <v>951</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1426</v>
+        <v>1368</v>
       </c>
     </row>
   </sheetData>
